--- a/Relatorios/ENVIOS.xlsx
+++ b/Relatorios/ENVIOS.xlsx
@@ -493,12 +493,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LUIS</t>
+          <t>DANIEL PETTER</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LUIS</t>
+          <t>DANIEL PETTER</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -515,19 +515,19 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>NÃO ENCONTRADO</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LUIS</t>
+          <t>DANIEL PETTER</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LUIS</t>
+          <t>DANIEL PETTER</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -544,7 +544,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>NÃO ENCONTRADO</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>

--- a/Relatorios/ENVIOS.xlsx
+++ b/Relatorios/ENVIOS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,25 +493,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DANIEL PETTER</t>
+          <t>ADEMIR JOSE FRANTZ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DANIEL PETTER</t>
+          <t>ADEMIR JOSE FRANTZ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(51) 9353-4110</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>(51) 9396-9314</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>88.03250000000077</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1848.6825</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
@@ -522,29 +538,3649 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DANIEL PETTER</t>
+          <t>ADEMIR VALMOR HUF</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DANIEL PETTER</t>
+          <t>ADEMIR VALMOR HUF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5551 9353-4110</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>(54) 9174-0722</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>758.6</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
           <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ADORLI DIOGO CHAGAS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ADORLI DIOGO CHAGAS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(54) 8413-6187</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7397</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ALCEU SIEBENBORN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ALCEU SIEBENBORN</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>(51) 9525-5991</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PESO</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>62.9779375</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1322.5367</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ALEXANDRE ALVES LAMPERT</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ALEXANDRE ALVES LAMPERT</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>(51) 9733-5530</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>187.5297500000016</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3938.1248</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ALTEMIR RICARDO DOS SANTOS ASSIS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ALTEMIR RICARDO DOS SANTOS ASSIS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>(51) 9600-1186</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.897500000000002</v>
+      </c>
+      <c r="I7" t="n">
+        <v>39.8475</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ANDRIELI ZUGEL DA SILVA SIMONINI</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ALEXANDRO SIMONINI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>(55) 9146-5777</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>120.4725000000008</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2529.9225</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ANGELA MARIA MILAN</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ANGELA MARIA MILAN</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>(54) 9610-1502</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>49.91250000000029</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1048.1625</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ANTONIO IVALDO LIRIO DE FREITAS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ANTONIO IVALDO LIRIO DE FREITAS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>(54) 9915-6690</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>788.4</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BRUNO DUARTE VARGAS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BRUNO DUARTE VARGAS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>(51) 9788-5876</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G11" t="n">
+        <v>292.85</v>
+      </c>
+      <c r="H11" t="n">
+        <v>449.7442500000073</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9444.629300000001</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CAMILA FATIMA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CAMILA FATIMA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>(51) 9942-5104</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>27.42687500000012</v>
+      </c>
+      <c r="I12" t="n">
+        <v>575.9644</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CAMILA FERNANDA RECKZIEGEL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CAMILA FERNANDA RECKZIEGEL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>(55) 9710-6489</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>651</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CARIN LUCELI WENDT</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CARIN LUCELI WENDT</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>(51) 9574-0589</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>547</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CARLOS AUGUSTO DUARTE</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CARLOS AUGUSTO DUARTE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>(51) 9501-4308</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7.575000000000006</v>
+      </c>
+      <c r="I15" t="n">
+        <v>159.075</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CESAR AUGUSTO LUBIAN</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CESAR AUGUSTO LUBIAN</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>(54) 9674-9440</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>77.31750000000068</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1623.6675</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CINTIA ANSCHAU</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GIOVANI VIGOLO</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>(51) 9700-3386</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>294.6</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CRISTIANO GUNSCH</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ONI VARGAS KUTSCHER</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>(55) 8128-6038</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2841</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CRISTIANO SILVA DA SILVA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CRISTIANO SILVA DA SILVA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>(51) 8057-2670</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>27.20999999999999</v>
+      </c>
+      <c r="I19" t="n">
+        <v>571.41</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DANIEL LONGHI BERNARDES</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DANIEL LONGHI BERNARDES</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>(54) 9673-2876</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1792</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DANIEL PETTER</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DANIEL PETTER</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>(51) 8046-0218</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>PESO</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.723562500000001</v>
+      </c>
+      <c r="I21" t="n">
+        <v>36.1948</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DARLAN SCHUSTER</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DARLAN SCHUSTER</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>(51) 9541-2725</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>115.6650000000008</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2428.965</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DORCELIDE RODRIGUES</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DORCELIDE RODRIGUES</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>(54) 9671-6418</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>130.9774999999997</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2750.5275</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EDSON MATEUS CARVALHO</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>#FAKE</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>#FAKE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EDUARDO AIRES DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>EDUARDO AIRES DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>(54) 8167-6827</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>456.6</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>EDUARDO GUEDES MORO</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>EDUARDO GUEDES MORO</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>(54) 9684-8850</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1066.41</v>
+      </c>
+      <c r="H26" t="n">
+        <v>20.46450000000058</v>
+      </c>
+      <c r="I26" t="n">
+        <v>429.7545</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>#BLOQ PREVENTIVO</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>EDUARDO SCHMACHTENBERG</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EDUARDO SCHMACHTENBERG</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>(51) 9750-2464</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>73.02062499999958</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1533.4331</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELISIANE REISNER</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ELISIANE REISNER</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>(54) 9904-5930</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>935</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELTON JUNIOR DOS SANTOS GARCIA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ELTON JUNIOR DOS SANTOS GARCIA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>(55) 9654-6370</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1947.61</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EMERSON LUIS SOARES</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMERSON LUIS SOARES</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>(51) 9871-2338</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>34.80250000000011</v>
+      </c>
+      <c r="I30" t="n">
+        <v>730.8525</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>EVANDRO SOUZA DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>EVANDRO SOUZA DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>(51) 9691-1472</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>21.32600000000005</v>
+      </c>
+      <c r="I31" t="n">
+        <v>447.846</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>FABIO AUGUSTO MATICOLLI LOPES</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FABIO AUGUSTO MATICOLLI LOPES</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>(51) 9918-9541</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>PESO</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>82.03481249999986</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1722.7311</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Reenviar</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>FELIPE AMARAL DA COSTA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MOISES EDEGAR CAVALHEIRO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>(54) 9707-1626</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1586.99</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.428000000000694</v>
+      </c>
+      <c r="I33" t="n">
+        <v>92.988</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>FELIPE EMBARACH OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FELIPE EMBARACH OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>(54) 9663-8830</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>729</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>FERNANDO BATISTA DE ANDRADE</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FERNANDO BATISTA DE ANDRADE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>(51) 9677-6313</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>PESO</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1578.65</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>FERNANDO BONDAN</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FERNANDO BONDAN</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>(54) 9961-8533</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1496.2</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>FLAVIO LUIS KUTSCHER</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ONI VARGAS KUTSCHER</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>(55) 8128-6038</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>120.2795000000001</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2525.8695</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>GABRIEL DUARTE MACHADO</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>GABRIEL DUARTE MACHADO</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>(55) 9205-5778</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>47.87100000000034</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1005.291</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>GELSON GAUTO DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GELSON GAUTO DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>(51) 8410-7705</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>61.87687500000001</v>
+      </c>
+      <c r="I39" t="n">
+        <v>979.4144</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>GERCEI MOURA DE ALMEIDA</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>GERCEI MOURA DE ALMEIDA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>(51) 9958-3144</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>722</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>GERSON JAIR WOJAHN</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>GERSON JAIR WOJAHN</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>(51) 9655-6882</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>73</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>GILMAR BENCKE</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>GILMAR BENCKE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>(55) 9990-2953</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>47.60875000000006</v>
+      </c>
+      <c r="I42" t="n">
+        <v>999.7838</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>GILMAR SOARES BRASIL</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>GILMAR SOARES BRASIL</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>(51) 9533-4288</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>487.4</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>GIORDANI JACOMINI</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>RODRIGO ZANDONA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>(54) 9616-9421</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2335.1</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>GIOVANNYS ANTONIO ARREAZA TRILLO</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>GIOVANNYS ANTONIO ARREAZA TRILLO</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>(54) 9647-8962</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>923.9</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>GUSTAVO LODI TONIAL</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>GUSTAVO LODI TONIAL</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>(54) 9988-5962</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>HELEN NICHOLA LEWIS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>HELEN NICHOLA LEWIS</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>(51) 9704-7787</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>36.17812500000019</v>
+      </c>
+      <c r="I47" t="n">
+        <v>759.7406</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>IRANI BAHRY</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ONI VARGAS KUTSCHER</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>(55) 8128-6038</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>33.21400000000006</v>
+      </c>
+      <c r="I48" t="n">
+        <v>697.494</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>IVAN NUNES</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>IVAN NUNES</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>(54) 8421-0988</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>30.22999999999998</v>
+      </c>
+      <c r="I49" t="n">
+        <v>634.83</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>JOAO LUIS PAZ</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>JOAO LUIS PAZ</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>(51) 8039-0893</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>290</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>JOICE LUIZA LIMA GOHTEN MALEICO</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>GUILHERME ALF</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>(55) 9900-7108</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>618.5</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>JOSE ANTONIO DA SILVA COELHO</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>JOSE ANTONIO DA SILVA COELHO</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>(51) 8129-6742</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>300.87</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>931.63</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>JOSE ANTONIO SILVA DE FREITAS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>JOSE ANTONIO SILVA DE FREITAS</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>(51) 9538-2750</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>672</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>JOSE CELSO MOURA KLATTE</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>JOSE CELSO MOURA KLATTE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>(51) 9823-4708</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>PESO</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>105.9227499999997</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1894.3777</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>JULIANO DA SILVA</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>JULIANO DA SILVA</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>(54) 9189-0475</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>120</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>684</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>KAUAN DE OLIVEIRA BREDOW</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>KAUAN DE OLIVEIRA BREDOW</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>(51) 9783-7150</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>PESO</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>30</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>LISLEI MACHADO STURMER</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>RENIR ANTONIO STURMER</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>(54) 9915-2194</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>32.47000000000011</v>
+      </c>
+      <c r="I57" t="n">
+        <v>681.87</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>#BLOQ PREVENTIVO</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>LUCAS DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>LUCAS DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>(51) 9634-6092</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.6312500000000005</v>
+      </c>
+      <c r="I58" t="n">
+        <v>13.2563</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>(55) 8127-3166</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>36.04500000000013</v>
+      </c>
+      <c r="I59" t="n">
+        <v>756.9450000000001</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MARCELO ADRIANO PAZ</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MARCELO ADRIANO PAZ</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>(55) 8166-4057</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2105</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>(51) 9933-4806</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>PESO</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>49.34637499999982</v>
+      </c>
+      <c r="I61" t="n">
+        <v>786.2739</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MARINO MARTINS</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MARINO MARTINS</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>(55) 9677-0726</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2.306250000000002</v>
+      </c>
+      <c r="I62" t="n">
+        <v>48.4313</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MARIO JORGE FARIAS MACHADO</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MARIO JORGE FARIAS MACHADO</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>(55) 9152-2471</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>64</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MATEUS BERWALDT</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MATEUS BERWALDT</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>(51) 9145-1420</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>182</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MICHAEL DOUGLAS GONCALVES</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MICHAEL DOUGLAS GONCALVES</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>(54) 9944-0199</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1222.6</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MILLENA GONCALVES DA SILVA</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MILLENA GONCALVES DA SILVA</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>(54) 9117-7186</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1637</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>NILTON LUIZ LINHARES DA SILVEIRA</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>NILTON LUIZ LINHARES DA SILVEIRA</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>(51) 9824-9764</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>25.74999999999996</v>
+      </c>
+      <c r="I67" t="n">
+        <v>410.75</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>NOENDER BERNARDES DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>NOENDER BERNARDES DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>(51) 9576-3887</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>329.25</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ONI VARGAS KUTSCHER</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ONI VARGAS KUTSCHER</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>(55) 8128-6038</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1521.1</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ORLEI MOREIRA DE LEMOS</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ORLEI MOREIRA DE LEMOS</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>(67) 9840-5942</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>70.05250000000048</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1471.1025</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PAOLA LUANA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>BRUNO DUARTE VARGAS</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>(51) 9788-5876</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>326</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PATRICK DOS SANTOS LIMA</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>PATRICK DOS SANTOS LIMA</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>(54) 9102-4605</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2091</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>RAFAEL LORENA MORAIS</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>RAFAEL LORENA MORAIS</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>(54) 9216-9656</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>43.73000000000022</v>
+      </c>
+      <c r="I73" t="n">
+        <v>918.33</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>RICARDO DA SILVA HARTMANN</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>RICARDO DA SILVA HARTMANN</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>(51) 9898-7460</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>54.83750000000037</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1151.5875</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ROMI JOSE PAIM JACQUES</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ROMI JOSE PAIM JACQUES</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>(54) 9676-4696</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1273.8</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SANDRO BUENO</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SANDRO BUENO</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>(55) 9916-5230</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>844.8</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SIDNEI ARAUJO DA COSTA</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SIDNEI ARAUJO DA COSTA</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>(55) 9195-0030</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>106.8150000000007</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2243.115</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SIDNEI LUIZ WOLLMANN</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SIDNEI LUIZ WOLLMANN</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>(51) 9968-1420</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>27.93750000000003</v>
+      </c>
+      <c r="I78" t="n">
+        <v>446.6875</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SIDNEI OLIVEIRA DA SILVA</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SIDNEI OLIVEIRA DA SILVA</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>(51) 9600-9683</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>PESO</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>25.4485000000001</v>
+      </c>
+      <c r="I79" t="n">
+        <v>534.4185</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SILVANA HEINEN</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SILVANA HEINEN</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>(51) 9968-0775</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>148.8506249999973</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2665.8631</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>VINICIUS SIQUEIRA</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>VINICIUS SIQUEIRA</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>(54) 9977-0063</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>97.77000000000085</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2053.17</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>WESLEY POSSOBOM AQUINO</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>WESLEY POSSOBOM AQUINO</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>(55) 9136-2797</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1854.6</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>(vazio)</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>(vazio)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Porto Alegre</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>PESO</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>#FAKE</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>#FAKE</t>
         </is>
       </c>
     </row>

--- a/Relatorios/ENVIOS.xlsx
+++ b/Relatorios/ENVIOS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,30 +461,45 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>SLA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>NC'S</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>VARIAVEL</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Soma de Descontos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BÔNUS NF</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>valor final REAL</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>#CHAVE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
@@ -517,21 +532,30 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.02203389830508475</v>
       </c>
       <c r="H2" t="n">
-        <v>88.03250000000077</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1848.6825</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1826</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
         </is>
       </c>
     </row>
@@ -562,38 +586,43 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.9910313901345291</v>
       </c>
       <c r="I3" t="n">
-        <v>758.6</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>673.4</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ADORLI DIOGO CHAGAS</t>
+          <t>ADIR HAMMES VOIGT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ADORLI DIOGO CHAGAS</t>
+          <t>ADIR HAMMES VOIGT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(54) 8413-6187</t>
+          <t>(55) 9128-8464</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -607,23 +636,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>7397</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.948750000000002</v>
+      </c>
+      <c r="L4" t="n">
+        <v>40.9238</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -648,27 +682,32 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PESO</t>
+          <t>NOME</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.15</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>62.9779375</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1322.5367</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>66.52400000000043</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1397.004</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -697,23 +736,28 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.01068702290076336</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.15</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>187.5297500000016</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3938.1248</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>163.9107500000012</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3442.1258</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -742,23 +786,28 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.15</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.897500000000002</v>
-      </c>
-      <c r="I7" t="n">
-        <v>39.8475</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>449.075</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -787,38 +836,43 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.004301075268817204</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.15</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>120.4725000000008</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2529.9225</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>95.73250000000068</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2010.3825</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ANGELA MARIA MILAN</t>
+          <t>ANGELA CRISTINA ZWAN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ANGELA MARIA MILAN</t>
+          <t>ANGELA CRISTINA ZWAN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>(54) 9610-1502</t>
+          <t>(55) 9656-9727</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -832,38 +886,43 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01811594202898551</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9963768115942029</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.15</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>49.91250000000029</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1048.1625</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>49.04600000000031</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1029.966</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ANTONIO IVALDO LIRIO DE FREITAS</t>
+          <t>ANGELA MARIA MILAN</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ANTONIO IVALDO LIRIO DE FREITAS</t>
+          <t>ANGELA MARIA MILAN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(54) 9915-6690</t>
+          <t>(54) 9610-1502</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -877,43 +936,48 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.003508771929824561</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>788.4</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>49.3625000000003</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1036.6125</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRUNO DUARTE VARGAS</t>
+          <t>ANTONIO IVALDO LIRIO DE FREITAS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BRUNO DUARTE VARGAS</t>
+          <t>ANTONIO IVALDO LIRIO DE FREITAS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(51) 9788-5876</t>
+          <t>(54) 9915-6690</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -922,38 +986,43 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>292.85</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>449.7442500000073</v>
+        <v>0.7725490196078432</v>
       </c>
       <c r="I11" t="n">
-        <v>9444.629300000001</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>795.6</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CAMILA FATIMA DOS SANTOS</t>
+          <t>BRUNO DUARTE VARGAS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CAMILA FATIMA DOS SANTOS</t>
+          <t>BRUNO DUARTE VARGAS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>(51) 9942-5104</t>
+          <t>(51) 9788-5876</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -967,43 +1036,48 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.006856023506366308</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.15</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>27.42687500000012</v>
-      </c>
-      <c r="I12" t="n">
-        <v>575.9644</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>454.892250000007</v>
+      </c>
+      <c r="L12" t="n">
+        <v>9552.737300000001</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CAMILA FERNANDA RECKZIEGEL</t>
+          <t>CAMILA FATIMA DOS SANTOS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CAMILA FERNANDA RECKZIEGEL</t>
+          <t>CAMILA FATIMA DOS SANTOS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>(55) 9710-6489</t>
+          <t>(51) 9942-5104</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1012,43 +1086,48 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>651</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>26.08625000000012</v>
+      </c>
+      <c r="L13" t="n">
+        <v>547.8113</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CARIN LUCELI WENDT</t>
+          <t>CAMILA FERNANDA RECKZIEGEL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CARIN LUCELI WENDT</t>
+          <t>CAMILA FERNANDA RECKZIEGEL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>(51) 9574-0589</t>
+          <t>(55) 9710-6489</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1057,38 +1136,43 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.8711111111111111</v>
       </c>
       <c r="I14" t="n">
-        <v>547</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>690</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CARLOS AUGUSTO DUARTE</t>
+          <t>CARIN LUCELI WENDT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CARLOS AUGUSTO DUARTE</t>
+          <t>CARIN LUCELI WENDT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>(51) 9501-4308</t>
+          <t>(51) 9574-0589</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1102,38 +1186,43 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
         <v>0.15</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7.575000000000006</v>
-      </c>
-      <c r="I15" t="n">
-        <v>159.075</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11.65625000000002</v>
+      </c>
+      <c r="L15" t="n">
+        <v>244.7813</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CESAR AUGUSTO LUBIAN</t>
+          <t>CARLOS ANDRE BECKER</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CESAR AUGUSTO LUBIAN</t>
+          <t>CARLOS ANDRE BECKER</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>(54) 9674-9440</t>
+          <t>(55) 8448-4094</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1147,38 +1236,43 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>77.31750000000068</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I16" t="n">
-        <v>1623.6675</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CINTIA ANSCHAU</t>
+          <t>CARLOS AUGUSTO DUARTE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GIOVANI VIGOLO</t>
+          <t>CARLOS AUGUSTO DUARTE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>(51) 9700-3386</t>
+          <t>(51) 9501-4308</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1192,38 +1286,43 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>294.6</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.580000000000008</v>
+      </c>
+      <c r="L17" t="n">
+        <v>117.18</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CRISTIANO GUNSCH</t>
+          <t>CESAR AUGUSTO LUBIAN</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ONI VARGAS KUTSCHER</t>
+          <t>CESAR AUGUSTO LUBIAN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>(55) 8128-6038</t>
+          <t>(54) 9674-9440</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1237,38 +1336,43 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.9881516587677726</v>
       </c>
       <c r="I18" t="n">
-        <v>2841</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1272</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CRISTIANO SILVA DA SILVA</t>
+          <t>CINTIA ANSCHAU</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CRISTIANO SILVA DA SILVA</t>
+          <t>GIOVANI VIGOLO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>(51) 8057-2670</t>
+          <t>(51) 9700-3386</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1282,43 +1386,48 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
         <v>0.15</v>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>27.20999999999999</v>
-      </c>
-      <c r="I19" t="n">
-        <v>571.41</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>17.70499999999998</v>
+      </c>
+      <c r="L19" t="n">
+        <v>371.805</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DANIEL LONGHI BERNARDES</t>
+          <t>CLAUDIO JOSE DA ROCHA REHBEIN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DANIEL LONGHI BERNARDES</t>
+          <t>CLAUDIO JOSE DA ROCHA REHBEIN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>(54) 9673-2876</t>
+          <t>(51) 8574-5657</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1327,83 +1436,93 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1792</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>16.06250000000002</v>
+      </c>
+      <c r="L20" t="n">
+        <v>337.3125</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DANIEL PETTER</t>
+          <t>CRISTIANO GUNSCH</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DANIEL PETTER</t>
+          <t>CRISTIANO GUNSCH</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>(51) 8046-0218</t>
+          <t>(55) 8423-2725</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PESO</t>
+          <t>NOME</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.723562500000001</v>
+        <v>0.6391304347826087</v>
       </c>
       <c r="I21" t="n">
-        <v>36.1948</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>673.2</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DARLAN SCHUSTER</t>
+          <t>CRISTIANO SILVA DA SILVA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DARLAN SCHUSTER</t>
+          <t>CRISTIANO SILVA DA SILVA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>(51) 9541-2725</t>
+          <t>(51) 8057-2670</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1417,38 +1536,43 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01015228426395939</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
         <v>0.15</v>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>115.6650000000008</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2428.965</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>34.06250000000009</v>
+      </c>
+      <c r="L22" t="n">
+        <v>715.3125</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DORCELIDE RODRIGUES</t>
+          <t>DANIEL LONGHI BERNARDES</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DORCELIDE RODRIGUES</t>
+          <t>DANIEL LONGHI BERNARDES</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>(54) 9671-6418</t>
+          <t>(54) 9673-2876</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1462,36 +1586,45 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.01601423487544484</v>
       </c>
       <c r="H23" t="n">
-        <v>130.9774999999997</v>
+        <v>0.9448398576512456</v>
       </c>
       <c r="I23" t="n">
-        <v>2750.5275</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1691</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EDSON MATEUS CARVALHO</t>
+          <t>DARLAN SCHUSTER</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>DARLAN SCHUSTER</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>(51) 9541-2725</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>Santa Cruz</t>
@@ -1503,47 +1636,48 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.001919385796545105</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>#FAKE</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>#FAKE</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>99.45000000000087</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2088.45</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EDUARDO AIRES DOS SANTOS</t>
+          <t>DIEGO SEVERO DA SILVA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EDUARDO AIRES DOS SANTOS</t>
+          <t>DIEGO SEVERO DA SILVA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>(54) 8167-6827</t>
+          <t>(51) 9976-6581</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1552,40 +1686,41 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>456.6</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>44</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EDUARDO GUEDES MORO</t>
+          <t>DILEIA LEAL FONSECA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EDUARDO GUEDES MORO</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>(54) 9684-8850</t>
-        </is>
-      </c>
+          <t>DILEIA LEAL FONSECA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>Passo Fundo</t>
@@ -1597,47 +1732,48 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>1066.41</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="H26" t="n">
-        <v>20.46450000000058</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>429.7545</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>#BLOQ PREVENTIVO</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>66</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EDUARDO SCHMACHTENBERG</t>
+          <t>DORCELIDE RODRIGUES</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>EDUARDO SCHMACHTENBERG</t>
+          <t>DORCELIDE RODRIGUES</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>(51) 9750-2464</t>
+          <t>(54) 9671-6418</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1646,43 +1782,44 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0076103500761035</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9984779299847792</v>
+      </c>
+      <c r="I27" t="n">
         <v>0.15</v>
       </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>73.02062499999958</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1533.4331</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>114.3375000000004</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2401.0875</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ELISIANE REISNER</t>
+          <t>EDSON MATEUS CARVALHO</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ELISIANE REISNER</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>(54) 9904-5930</t>
-        </is>
-      </c>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1691,38 +1828,51 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="I28" t="n">
-        <v>935</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>41</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>#FAKE</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>#FAKE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ELTON JUNIOR DOS SANTOS GARCIA</t>
+          <t>EDUARDO AIRES DOS SANTOS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ELTON JUNIOR DOS SANTOS GARCIA</t>
+          <t>EDUARDO AIRES DOS SANTOS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>(55) 9654-6370</t>
+          <t>(54) 8167-6827</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1736,43 +1886,48 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>79.98999999999999</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.9579439252336449</v>
       </c>
       <c r="I29" t="n">
-        <v>1947.61</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>591.6</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EMERSON LUIS SOARES</t>
+          <t>EDUARDO GUEDES MORO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>EMERSON LUIS SOARES</t>
+          <t>EDUARDO GUEDES MORO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>(51) 9871-2338</t>
+          <t>(54) 9684-8850</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1781,38 +1936,47 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
         <v>0.15</v>
       </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>34.80250000000011</v>
-      </c>
-      <c r="I30" t="n">
-        <v>730.8525</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>44.31000000000022</v>
+      </c>
+      <c r="L30" t="n">
+        <v>930.51</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>#BLOQ PREVENTIVO</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EVANDRO SOUZA DE OLIVEIRA</t>
+          <t>EDUARDO SCHMACHTENBERG</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>EVANDRO SOUZA DE OLIVEIRA</t>
+          <t>EDUARDO SCHMACHTENBERG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>(51) 9691-1472</t>
+          <t>(51) 9750-2464</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1826,83 +1990,93 @@
         </is>
       </c>
       <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.002544529262086514</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
         <v>0.15</v>
       </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>21.32600000000005</v>
-      </c>
-      <c r="I31" t="n">
-        <v>447.846</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>63.5831249999999</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1335.2456</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FABIO AUGUSTO MATICOLLI LOPES</t>
+          <t>ELISIANE REISNER</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FABIO AUGUSTO MATICOLLI LOPES</t>
+          <t>ELISIANE REISNER</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>(51) 9918-9541</t>
+          <t>(54) 9904-5930</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PESO</t>
+          <t>NOME</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.007067137809187279</v>
       </c>
       <c r="H32" t="n">
-        <v>82.03481249999986</v>
+        <v>0.9222614840989399</v>
       </c>
       <c r="I32" t="n">
-        <v>1722.7311</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Reenviar</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>858</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FELIPE AMARAL DA COSTA</t>
+          <t>ELTON JUNIOR DOS SANTOS GARCIA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MOISES EDEGAR CAVALHEIRO</t>
+          <t>ELTON JUNIOR DOS SANTOS GARCIA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>(54) 9707-1626</t>
+          <t>(55) 9257-7171</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1916,43 +2090,48 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>1586.99</v>
+        <v>0.0586145648312611</v>
       </c>
       <c r="H33" t="n">
-        <v>4.428000000000694</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>92.988</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1736.4</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FELIPE EMBARACH OLIVEIRA</t>
+          <t>EMERSON LUIS SOARES</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FELIPE EMBARACH OLIVEIRA</t>
+          <t>EMERSON LUIS SOARES</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>(54) 9663-8830</t>
+          <t>(51) 9871-2338</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1961,38 +2140,43 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>729</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>470.4</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FERNANDO BATISTA DE ANDRADE</t>
+          <t>EVANDRO SOUZA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FERNANDO BATISTA DE ANDRADE</t>
+          <t>EVANDRO SOUZA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>(51) 9677-6313</t>
+          <t>(51) 9691-1472</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2002,47 +2186,52 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PESO</t>
+          <t>NOME</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.9936708860759493</v>
       </c>
       <c r="I35" t="n">
-        <v>1578.65</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>511.6</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FERNANDO BONDAN</t>
+          <t>FABIO AUGUSTO MATICOLLI LOPES</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FERNANDO BONDAN</t>
+          <t>FABIO AUGUSTO MATICOLLI LOPES</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>(54) 9961-8533</t>
+          <t>(51) 9918-9541</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2051,38 +2240,43 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.01007194244604316</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>1496.2</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>123.0640000000002</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2584.344</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FLAVIO LUIS KUTSCHER</t>
+          <t>FELIPE AMARAL DA COSTA</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ONI VARGAS KUTSCHER</t>
+          <t>MOISES EDEGAR CAVALHEIRO</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>(55) 8128-6038</t>
+          <t>(54) 9707-1626</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2096,38 +2290,43 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.2795000000001</v>
+        <v>0.9926108374384236</v>
       </c>
       <c r="I37" t="n">
-        <v>2525.8695</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1241</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GABRIEL DUARTE MACHADO</t>
+          <t>FELIPE EMBARACH OLIVEIRA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GABRIEL DUARTE MACHADO</t>
+          <t>FELIPE EMBARACH OLIVEIRA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>(55) 9205-5778</t>
+          <t>(54) 9663-8830</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2141,38 +2340,43 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="H38" t="n">
-        <v>47.87100000000034</v>
+        <v>0.9865771812080537</v>
       </c>
       <c r="I38" t="n">
-        <v>1005.291</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>602</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GELSON GAUTO DOS SANTOS</t>
+          <t>FERNANDO BATISTA DE ANDRADE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GELSON GAUTO DOS SANTOS</t>
+          <t>FERNANDO BATISTA DE ANDRADE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>(51) 8410-7705</t>
+          <t>(51) 9677-6313</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2186,43 +2390,48 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="H39" t="n">
-        <v>61.87687500000001</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>979.4144</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1341.6</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GERCEI MOURA DE ALMEIDA</t>
+          <t>FERNANDO BONDAN</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GERCEI MOURA DE ALMEIDA</t>
+          <t>FERNANDO BONDAN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>(51) 9958-3144</t>
+          <t>(54) 9961-8533</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2231,43 +2440,48 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.005825242718446602</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.974757281553398</v>
       </c>
       <c r="I40" t="n">
-        <v>722</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1531.8</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GERSON JAIR WOJAHN</t>
+          <t>FLAVIO LUIS KUTSCHER</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GERSON JAIR WOJAHN</t>
+          <t>ONI VARGAS KUTSCHER</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>(51) 9655-6882</t>
+          <t>(55) 8128-6038</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2276,7 +2490,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -2285,29 +2499,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>73</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1505.2</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GILMAR BENCKE</t>
+          <t>GABRIEL DUARTE MACHADO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GILMAR BENCKE</t>
+          <t>GABRIEL DUARTE MACHADO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>(55) 9990-2953</t>
+          <t>(55) 9205-5778</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2321,38 +2540,43 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.0302013422818792</v>
       </c>
       <c r="H42" t="n">
-        <v>47.60875000000006</v>
+        <v>0.9966442953020134</v>
       </c>
       <c r="I42" t="n">
-        <v>999.7838</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>847.8</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GILMAR SOARES BRASIL</t>
+          <t>GELSON GAUTO DOS SANTOS</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GILMAR SOARES BRASIL</t>
+          <t>GELSON GAUTO DOS SANTOS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>(51) 9533-4288</t>
+          <t>(51) 8410-7705</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2366,43 +2590,48 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>487.4</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>24.65937500000009</v>
+      </c>
+      <c r="L43" t="n">
+        <v>517.8469</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GIORDANI JACOMINI</t>
+          <t>GERCEI MOURA DE ALMEIDA</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RODRIGO ZANDONA</t>
+          <t>GERCEI MOURA DE ALMEIDA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>(54) 9616-9421</t>
+          <t>(51) 9958-3144</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2411,43 +2640,48 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.01661129568106312</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>2335.1</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>57.28399999999989</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1202.964</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>GIOVANNYS ANTONIO ARREAZA TRILLO</t>
+          <t>GERSON JAIR WOJAHN</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GIOVANNYS ANTONIO ARREAZA TRILLO</t>
+          <t>GERSON JAIR WOJAHN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>(54) 9647-8962</t>
+          <t>(51) 9655-6882</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2456,38 +2690,43 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>923.9</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>95</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>GUSTAVO LODI TONIAL</t>
+          <t>GILMAR BENCKE</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GUSTAVO LODI TONIAL</t>
+          <t>GILMAR BENCKE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>(54) 9988-5962</t>
+          <t>(55) 9990-2953</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2501,38 +2740,43 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>42.22750000000005</v>
+      </c>
+      <c r="L46" t="n">
+        <v>886.7775</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HELEN NICHOLA LEWIS</t>
+          <t>GILMAR SOARES BRASIL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HELEN NICHOLA LEWIS</t>
+          <t>GILMAR SOARES BRASIL</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>(51) 9704-7787</t>
+          <t>(51) 9533-4288</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2546,38 +2790,43 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="H47" t="n">
-        <v>36.17812500000019</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>759.7406</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>IRANI BAHRY</t>
+          <t>GIORDANI JACOMINI</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ONI VARGAS KUTSCHER</t>
+          <t>RODRIGO ZANDONA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>(55) 8128-6038</t>
+          <t>(54) 9616-9421</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2591,38 +2840,43 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="H48" t="n">
-        <v>33.21400000000006</v>
+        <v>0.9548440065681445</v>
       </c>
       <c r="I48" t="n">
-        <v>697.494</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3715.8</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>IVAN NUNES</t>
+          <t>GUSTAVO FONSECA DOS SANTOS</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>IVAN NUNES</t>
+          <t>GUSTAVO FONSECA DOS SANTOS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>(54) 8421-0988</t>
+          <t>(55) 9647-1296</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2636,43 +2890,48 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>30.22999999999998</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="I49" t="n">
-        <v>634.83</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>JOAO LUIS PAZ</t>
+          <t>GUSTAVO LODI TONIAL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>JOAO LUIS PAZ</t>
+          <t>GUSTAVO LODI TONIAL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>(51) 8039-0893</t>
+          <t>(54) 9988-5962</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2680,42 +2939,49 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>0.07066052227342549</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>0.9254992319508448</v>
       </c>
       <c r="I50" t="n">
-        <v>290</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4099</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>JOICE LUIZA LIMA GOHTEN MALEICO</t>
+          <t>HELEN NICHOLA LEWIS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GUILHERME ALF</t>
+          <t>HELEN NICHOLA LEWIS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>(55) 9900-7108</t>
+          <t>(51) 9704-7787</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2724,43 +2990,48 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>0.9906542056074766</v>
       </c>
       <c r="I51" t="n">
-        <v>618.5</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>603.9</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO DA SILVA COELHO</t>
+          <t>IRANI BAHRY</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO DA SILVA COELHO</t>
+          <t>IRANI BAHRY</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>(51) 8129-6742</t>
+          <t>(55) 9908-8847</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2769,43 +3040,48 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>300.87</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>931.63</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>19.94575000000004</v>
+      </c>
+      <c r="L52" t="n">
+        <v>418.8608</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO SILVA DE FREITAS</t>
+          <t>IVAN NUNES</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO SILVA DE FREITAS</t>
+          <t>IVAN NUNES</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>(51) 9538-2750</t>
+          <t>(54) 8421-0988</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2814,83 +3090,99 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>672</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>47.43000000000021</v>
+      </c>
+      <c r="L53" t="n">
+        <v>996.03</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>JOSE CELSO MOURA KLATTE</t>
+          <t>JADIEL FERREIRA COUTINHO</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>JOSE CELSO MOURA KLATTE</t>
+          <t>JADIEL FERREIRA COUTINHO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>(51) 9823-4708</t>
+          <t>(54) 9189-5970</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>PESO</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>105.9227499999997</v>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Não apto</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Não apto</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Não apto</t>
+        </is>
       </c>
       <c r="I54" t="n">
-        <v>1894.3777</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>JULIANO DA SILVA</t>
+          <t>JAIR JOSE NAGL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>JULIANO DA SILVA</t>
+          <t>JAIR JOSE NAGL</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>(54) 9189-0475</t>
+          <t>(55) 9154-5702</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2904,81 +3196,93 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="I55" t="n">
-        <v>684</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>150</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>KAUAN DE OLIVEIRA BREDOW</t>
+          <t>JANAINA DOS SANTOS MATTOS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>KAUAN DE OLIVEIRA BREDOW</t>
+          <t>JANAINA DOS SANTOS MATTOS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>(51) 9783-7150</t>
+          <t>(55) 9942-3350</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PESO</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>0.04887218045112782</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="I56" t="n">
-        <v>30</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>562.4</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>LISLEI MACHADO STURMER</t>
+          <t>JEAN MARCOS BARBOSA</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>RENIR ANTONIO STURMER</t>
+          <t>JEAN MARCOS BARBOSA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>(54) 9915-2194</t>
+          <t>(54) 9113-7808</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2992,42 +3296,43 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="H57" t="n">
-        <v>32.47000000000011</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="I57" t="n">
-        <v>681.87</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>#BLOQ PREVENTIVO</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>42</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>LUCAS DOS SANTOS</t>
+          <t>JOAO LUIS PAZ</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>LUCAS DOS SANTOS</t>
+          <t>JOAO LUIS PAZ</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>(51) 9634-6092</t>
+          <t>(51) 8039-0893</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3041,38 +3346,43 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.6312500000000005</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="I58" t="n">
-        <v>13.2563</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
+          <t>JOICE LUIZA LIMA GOHTEN MALEICO</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
+          <t>GUILHERME ALF</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>(55) 8127-3166</t>
+          <t>(55) 9900-7108</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3086,38 +3396,43 @@
         </is>
       </c>
       <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.01393728222996516</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
         <v>0.15</v>
       </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>36.04500000000013</v>
-      </c>
-      <c r="I59" t="n">
-        <v>756.9450000000001</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>42.40625000000004</v>
+      </c>
+      <c r="L59" t="n">
+        <v>890.5313</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MARCELO ADRIANO PAZ</t>
+          <t>JORGE LEANDRO DOS SANTOS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MARCELO ADRIANO PAZ</t>
+          <t>JORGE LEANDRO DOS SANTOS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>(55) 8166-4057</t>
+          <t>(55) 9647-9058</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3131,38 +3446,43 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>2105</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>4.137500000000004</v>
+      </c>
+      <c r="L60" t="n">
+        <v>86.8875</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
+          <t>JOSE ANTONIO DA SILVA COELHO</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
+          <t>JOSE ANTONIO DA SILVA COELHO</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>(51) 9933-4806</t>
+          <t>(51) 8129-6742</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3172,47 +3492,52 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>PESO</t>
+          <t>NOME</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>49.34637499999982</v>
+        <v>0.9556451612903226</v>
       </c>
       <c r="I61" t="n">
-        <v>786.2739</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1131.6</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MARINO MARTINS</t>
+          <t>JOSE ANTONIO SILVA DE FREITAS</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MARINO MARTINS</t>
+          <t>JOSE ANTONIO SILVA DE FREITAS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>(55) 9677-0726</t>
+          <t>(51) 9538-2750</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3221,43 +3546,48 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="H62" t="n">
-        <v>2.306250000000002</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>48.4313</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>569</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MARIO JORGE FARIAS MACHADO</t>
+          <t>JOSE CELSO MOURA KLATTE</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MARIO JORGE FARIAS MACHADO</t>
+          <t>JOSE CELSO MOURA KLATTE</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>(55) 9152-2471</t>
+          <t>(51) 9823-4708</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3266,38 +3596,43 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>0.002173913043478261</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>64</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>91.32750000000061</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1917.8775</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MATEUS BERWALDT</t>
+          <t>JULIANO DA SILVA</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MATEUS BERWALDT</t>
+          <t>JULIANO DA SILVA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>(51) 9145-1420</t>
+          <t>(54) 9189-0475</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3311,43 +3646,48 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>0.04910714285714286</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="I64" t="n">
-        <v>182</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>687</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MICHAEL DOUGLAS GONCALVES</t>
+          <t>LISLEI MACHADO STURMER</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MICHAEL DOUGLAS GONCALVES</t>
+          <t>RENIR ANTONIO STURMER</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>(54) 9944-0199</t>
+          <t>(54) 9915-2194</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3356,38 +3696,47 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.872</v>
       </c>
       <c r="I65" t="n">
-        <v>1222.6</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>511.2</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>#BLOQ PREVENTIVO</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MILLENA GONCALVES DA SILVA</t>
+          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MILLENA GONCALVES DA SILVA</t>
+          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>(54) 9117-7186</t>
+          <t>(55) 8127-3166</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3401,43 +3750,48 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>1637</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>39.46000000000017</v>
+      </c>
+      <c r="L66" t="n">
+        <v>828.66</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>NILTON LUIZ LINHARES DA SILVEIRA</t>
+          <t>MARCELO ADRIANO PAZ</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NILTON LUIZ LINHARES DA SILVEIRA</t>
+          <t>MARCELO ADRIANO PAZ</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>(51) 9824-9764</t>
+          <t>(55) 8166-4057</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3446,38 +3800,43 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>0.02737226277372263</v>
       </c>
       <c r="H67" t="n">
-        <v>25.74999999999996</v>
+        <v>0.9981751824817519</v>
       </c>
       <c r="I67" t="n">
-        <v>410.75</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1769</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NOENDER BERNARDES DOS SANTOS</t>
+          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NOENDER BERNARDES DOS SANTOS</t>
+          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>(51) 9576-3887</t>
+          <t>(51) 9933-4806</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3491,38 +3850,43 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>329.25</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1012.6</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ONI VARGAS KUTSCHER</t>
+          <t>MARINO MARTINS</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ONI VARGAS KUTSCHER</t>
+          <t>MARINO MARTINS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>(55) 8128-6038</t>
+          <t>(55) 9677-0726</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3536,38 +3900,43 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>1521.1</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1.437500000000001</v>
+      </c>
+      <c r="L69" t="n">
+        <v>30.1875</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ORLEI MOREIRA DE LEMOS</t>
+          <t>MARIO JORGE FARIAS MACHADO</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ORLEI MOREIRA DE LEMOS</t>
+          <t>MARIO JORGE FARIAS MACHADO</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>(67) 9840-5942</t>
+          <t>(55) 9152-2471</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3581,43 +3950,48 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.03125</v>
       </c>
       <c r="H70" t="n">
-        <v>70.05250000000048</v>
+        <v>0.53125</v>
       </c>
       <c r="I70" t="n">
-        <v>1471.1025</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>100</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PAOLA LUANA DOS SANTOS</t>
+          <t>MATEUS BERWALDT</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BRUNO DUARTE VARGAS</t>
+          <t>MATEUS BERWALDT</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>(51) 9788-5876</t>
+          <t>(51) 9145-1420</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3626,43 +4000,48 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>326</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>10.66000000000001</v>
+      </c>
+      <c r="L71" t="n">
+        <v>223.86</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PATRICK DOS SANTOS LIMA</t>
+          <t>MATHEUS JOSE MORAES</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PATRICK DOS SANTOS LIMA</t>
+          <t>MATHEUS JOSE MORAES</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>(54) 9102-4605</t>
+          <t>(54) 9672-8954</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3671,40 +4050,41 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.03884711779448621</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>0.8496240601503759</v>
       </c>
       <c r="I72" t="n">
-        <v>2091</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>2422.6</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RAFAEL LORENA MORAIS</t>
+          <t>MAURI JOSE JUSTEN</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>RAFAEL LORENA MORAIS</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>(54) 9216-9656</t>
-        </is>
-      </c>
+          <t>MAURI JOSE JUSTEN</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
           <t>Passo Fundo</t>
@@ -3716,43 +4096,48 @@
         </is>
       </c>
       <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
         <v>0.15</v>
       </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>43.73000000000022</v>
-      </c>
-      <c r="I73" t="n">
-        <v>918.33</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2.300000000000002</v>
+      </c>
+      <c r="L73" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>RICARDO DA SILVA HARTMANN</t>
+          <t>MICHAEL DOUGLAS GONCALVES</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RICARDO DA SILVA HARTMANN</t>
+          <t>MICHAEL DOUGLAS GONCALVES</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>(51) 9898-7460</t>
+          <t>(54) 9944-0199</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3761,38 +4146,43 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>54.83750000000037</v>
+        <v>0.8563218390804598</v>
       </c>
       <c r="I74" t="n">
-        <v>1151.5875</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>834</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ROMI JOSE PAIM JACQUES</t>
+          <t>MILLENA GONCALVES DA SILVA</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ROMI JOSE PAIM JACQUES</t>
+          <t>MILLENA GONCALVES DA SILVA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>(54) 9676-4696</t>
+          <t>(54) 9117-7186</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3806,40 +4196,41 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>0.9982014388489209</v>
       </c>
       <c r="I75" t="n">
-        <v>1273.8</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>96.61000000000095</v>
+      </c>
+      <c r="L75" t="n">
+        <v>2028.81</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SANDRO BUENO</t>
+          <t>NERI MALMANN BAGESTAO</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SANDRO BUENO</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>(55) 9916-5230</t>
-        </is>
-      </c>
+          <t>NERI MALMANN BAGESTAO</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
           <t>Passo Fundo</t>
@@ -3851,43 +4242,48 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>844.8</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>9.306250000000007</v>
+      </c>
+      <c r="L76" t="n">
+        <v>195.4313</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SIDNEI ARAUJO DA COSTA</t>
+          <t>NILTON LUIZ LINHARES DA SILVEIRA</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SIDNEI ARAUJO DA COSTA</t>
+          <t>NILTON LUIZ LINHARES DA SILVEIRA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>(55) 9195-0030</t>
+          <t>(51) 9824-9764</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3896,38 +4292,43 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="H77" t="n">
-        <v>106.8150000000007</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>2243.115</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>598</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SIDNEI LUIZ WOLLMANN</t>
+          <t>NOENDER BERNARDES DOS SANTOS</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SIDNEI LUIZ WOLLMANN</t>
+          <t>NOENDER BERNARDES DOS SANTOS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>(51) 9968-1420</t>
+          <t>(51) 9576-3887</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3941,88 +4342,98 @@
         </is>
       </c>
       <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.015625</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
         <v>0.15</v>
       </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>27.93750000000003</v>
-      </c>
-      <c r="I78" t="n">
-        <v>446.6875</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>12.53399999999999</v>
+      </c>
+      <c r="L78" t="n">
+        <v>263.214</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SIDNEI OLIVEIRA DA SILVA</t>
+          <t>ORLEI MOREIRA DE LEMOS</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SIDNEI OLIVEIRA DA SILVA</t>
+          <t>ORLEI MOREIRA DE LEMOS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>(51) 9600-9683</t>
+          <t>(67) 9840-5942</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>PESO</t>
+          <t>NOME</t>
         </is>
       </c>
       <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
         <v>0.15</v>
       </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>25.4485000000001</v>
-      </c>
-      <c r="I79" t="n">
-        <v>534.4185</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>52.36500000000031</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1099.665</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SILVANA HEINEN</t>
+          <t>PATRICK DOS SANTOS LIMA</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SILVANA HEINEN</t>
+          <t>PATRICK DOS SANTOS LIMA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>(51) 9968-0775</t>
+          <t>(54) 9102-4605</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4031,38 +4442,43 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>0.0328719723183391</v>
       </c>
       <c r="H80" t="n">
-        <v>148.8506249999973</v>
+        <v>0.9982698961937716</v>
       </c>
       <c r="I80" t="n">
-        <v>2665.8631</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1760</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>VINICIUS SIQUEIRA</t>
+          <t>RAFAEL LORENA MORAIS</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>VINICIUS SIQUEIRA</t>
+          <t>RAFAEL LORENA MORAIS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>(54) 9977-0063</t>
+          <t>(54) 9216-9656</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4076,43 +4492,48 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="H81" t="n">
-        <v>97.77000000000085</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>2053.17</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>842</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>WESLEY POSSOBOM AQUINO</t>
+          <t>RICARDO DA SILVA HARTMANN</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>WESLEY POSSOBOM AQUINO</t>
+          <t>RICARDO DA SILVA HARTMANN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>(55) 9136-2797</t>
+          <t>(51) 9898-7460</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4121,68 +4542,478 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>0.005089058524173028</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>0.9974554707379135</v>
       </c>
       <c r="I82" t="n">
-        <v>1854.6</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>#ENVIADO</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>68.24250000000056</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1433.0925</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>(vazio)</t>
+          <t>ROMI JOSE PAIM JACQUES</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>(vazio)</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
+          <t>ROMI JOSE PAIM JACQUES</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>(54) 9676-4696</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Porto Alegre</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>PESO</t>
+          <t>NOME</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>0.0121580547112462</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>#FAKE</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>#FAKE</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>58.51750000000035</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1228.8675</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ROSANA ELIZABETE RESCKE</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ROSANA ELIZABETE RESCKE</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>(54) 9990-4345</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.002785515320334262</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.9610027855153204</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1076</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SANDRO BUENO</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SANDRO BUENO</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>(55) 9916-5230</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.06547619047619048</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>519.8</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SIDNEI ARAUJO DA COSTA</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SIDNEI ARAUJO DA COSTA</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>(55) 9195-0030</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01977401129943503</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.9971751412429378</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>68.43250000000043</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1437.0825</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SIDNEI LUIZ WOLLMANN</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>SIDNEI LUIZ WOLLMANN</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>(51) 9968-1420</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.005780346820809248</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>26.15875000000003</v>
+      </c>
+      <c r="L87" t="n">
+        <v>549.3338</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SIDNEI OLIVEIRA DA SILVA</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>SIDNEI OLIVEIRA DA SILVA</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>(51) 9600-9683</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.003058103975535168</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.9785932721712538</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1036</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SILVANA HEINEN</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SILVANA HEINEN</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>(51) 9968-0775</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.006172839506172839</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.9876543209876543</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1413.55</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>VINICIUS SIQUEIRA</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>VINICIUS SIQUEIRA</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>(54) 9977-0063</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.001941747572815534</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>98.88750000000086</v>
+      </c>
+      <c r="L90" t="n">
+        <v>2076.6375</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>WESLEY POSSOBOM AQUINO</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>WESLEY POSSOBOM AQUINO</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>(55) 9136-2797</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>101.0375000000007</v>
+      </c>
+      <c r="L91" t="n">
+        <v>2121.7875</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Relatorios/ENVIOS.xlsx
+++ b/Relatorios/ENVIOS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.8716075156576201</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02203389830508475</v>
+        <v>0.004175365344467641</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -550,12 +550,12 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1826</v>
+        <v>2897.6</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>NÃO ENCONTRADO</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.853185595567867</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9910313901345291</v>
+        <v>0.9445983379501385</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -604,10 +604,14 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>673.4</v>
+        <v>1100.2</v>
       </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -636,7 +640,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -645,19 +649,23 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.948750000000002</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.9238</v>
+        <v>110</v>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -686,28 +694,32 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.8937282229965157</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.003484320557491289</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>66.52400000000043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1397.004</v>
+        <v>1701.2</v>
       </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -736,28 +748,32 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.9660339660339661</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01068702290076336</v>
+        <v>0.01798201798201798</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>163.9107500000012</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3442.1258</v>
+        <v>3384.4</v>
       </c>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -786,16 +802,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="I7" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -804,10 +820,14 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>449.075</v>
+        <v>52.25</v>
       </c>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -836,28 +856,32 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.8504672897196262</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004301075268817204</v>
+        <v>0.00116822429906542</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.9906542056074766</v>
       </c>
       <c r="I8" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>95.73250000000068</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2010.3825</v>
+        <v>3057.4</v>
       </c>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -886,28 +910,32 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.6924979389942292</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01811594202898551</v>
+        <v>0.06430338004946413</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9963768115942029</v>
+        <v>0.9596042868920033</v>
       </c>
       <c r="I9" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>49.04600000000031</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1029.966</v>
+        <v>3586.4</v>
       </c>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -936,28 +964,32 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.8117359413202934</v>
       </c>
       <c r="G10" t="n">
-        <v>0.003508771929824561</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.3625000000003</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1036.6125</v>
+        <v>1216</v>
       </c>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -986,13 +1018,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.7079646017699115</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7725490196078432</v>
+        <v>0.9734513274336283</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1004,10 +1036,14 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>795.6</v>
+        <v>710.4</v>
       </c>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1036,28 +1072,32 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0.5415913200723327</v>
       </c>
       <c r="G12" t="n">
-        <v>0.006856023506366308</v>
+        <v>0.005123568414707656</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0.9996986136226642</v>
       </c>
       <c r="I12" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>454.892250000007</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>9552.737300000001</v>
+        <v>12158.8</v>
       </c>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1086,28 +1126,32 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0.8910256410256411</v>
       </c>
       <c r="G13" t="n">
-        <v>0.006172839506172839</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>26.08625000000012</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>547.8113</v>
+        <v>872.15</v>
       </c>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1136,13 +1180,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0.8578199052132701</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1466666666666667</v>
+        <v>0.1445497630331753</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8711111111111111</v>
+        <v>0.990521327014218</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1154,30 +1198,34 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>690</v>
+        <v>1261</v>
       </c>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CARIN LUCELI WENDT</t>
+          <t>CAMILA FERNANDA ZAMBIASI GARDINO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CARIN LUCELI WENDT</t>
+          <t>CAMILA FERNANDA ZAMBIASI GARDINO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>(51) 9574-0589</t>
+          <t>(54) 9697-7109</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1186,48 +1234,52 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0.9469928644240571</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.01393136255521577</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0.9520897043832823</v>
       </c>
       <c r="I15" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>11.65625000000002</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>244.7813</v>
+        <v>8980</v>
       </c>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CARLOS ANDRE BECKER</t>
+          <t>CARIN LUCELI WENDT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CARLOS ANDRE BECKER</t>
+          <t>CARIN LUCELI WENDT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>(55) 8448-4094</t>
+          <t>(51) 9574-0589</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1236,13 +1288,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9253731343283582</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1254,30 +1306,34 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>7.5</v>
+        <v>309</v>
       </c>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CARLOS AUGUSTO DUARTE</t>
+          <t>CARLOS ANDRE BECKER</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CARLOS AUGUSTO DUARTE</t>
+          <t>CARLOS ANDRE BECKER</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>(51) 9501-4308</t>
+          <t>(55) 8448-4094</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1286,7 +1342,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1295,39 +1351,43 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>5.580000000000008</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>117.18</v>
+        <v>33.5</v>
       </c>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CESAR AUGUSTO LUBIAN</t>
+          <t>CARLOS AUGUSTO DUARTE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CESAR AUGUSTO LUBIAN</t>
+          <t>CARLOS AUGUSTO DUARTE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>(54) 9674-9440</t>
+          <t>(51) 9501-4308</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1336,13 +1396,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="G18" t="n">
-        <v>0.009478672985781991</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9881516587677726</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1354,30 +1414,30 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1272</v>
+        <v>262.2</v>
       </c>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CINTIA ANSCHAU</t>
+          <t>CESAR AUGUSTO DA VEIGA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GIOVANI VIGOLO</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>(51) 9700-3386</t>
-        </is>
-      </c>
+          <t>CESAR AUGUSTO DA VEIGA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1386,48 +1446,52 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>17.70499999999998</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>371.805</v>
+        <v>257</v>
       </c>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CLAUDIO JOSE DA ROCHA REHBEIN</t>
+          <t>CESAR AUGUSTO LUBIAN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CLAUDIO JOSE DA ROCHA REHBEIN</t>
+          <t>CESAR AUGUSTO LUBIAN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>(51) 8574-5657</t>
+          <t>(54) 9674-9440</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1436,48 +1500,52 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0.8351800554016621</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01</v>
+        <v>0.01246537396121884</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0.9875346260387812</v>
       </c>
       <c r="I20" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>16.06250000000002</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>337.3125</v>
+        <v>2159</v>
       </c>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CRISTIANO GUNSCH</t>
+          <t>CINTIA ANSCHAU</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CRISTIANO GUNSCH</t>
+          <t>GIOVANI VIGOLO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>(55) 8423-2725</t>
+          <t>(51) 9700-3386</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1486,13 +1554,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0.4967741935483871</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6391304347826087</v>
+        <v>0.9483870967741935</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1504,25 +1572,29 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>673.2</v>
+        <v>475.8</v>
       </c>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CRISTIANO SILVA DA SILVA</t>
+          <t>CLAUDIO JOSE DA ROCHA REHBEIN</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CRISTIANO SILVA DA SILVA</t>
+          <t>CLAUDIO JOSE DA ROCHA REHBEIN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>(51) 8057-2670</t>
+          <t>(51) 8574-5657</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1536,48 +1608,52 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0.851808634772462</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01015228426395939</v>
+        <v>0.008168028004667444</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.06250000000009</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>715.3125</v>
+        <v>2368.15</v>
       </c>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DANIEL LONGHI BERNARDES</t>
+          <t>CRISTIANO SILVA DA SILVA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DANIEL LONGHI BERNARDES</t>
+          <t>CRISTIANO SILVA DA SILVA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>(54) 9673-2876</t>
+          <t>(51) 8057-2670</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1586,14 +1662,14 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>0.9093851132686084</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="G23" t="n">
-        <v>0.01601423487544484</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.9448398576512456</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
@@ -1604,30 +1680,34 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1691</v>
+        <v>932.6</v>
       </c>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DARLAN SCHUSTER</t>
+          <t>DANIEL LONGHI BERNARDES</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DARLAN SCHUSTER</t>
+          <t>DANIEL LONGHI BERNARDES</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>(51) 9541-2725</t>
+          <t>(54) 9673-2876</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1636,43 +1716,47 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0.721608040201005</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001919385796545105</v>
+        <v>0.01809045226130653</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0.9165829145728643</v>
       </c>
       <c r="I24" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>99.45000000000087</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>2088.45</v>
+        <v>2981</v>
       </c>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DIEGO SEVERO DA SILVA</t>
+          <t>DARLAN SCHUSTER</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DIEGO SEVERO DA SILVA</t>
+          <t>DARLAN SCHUSTER</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>(51) 9976-6581</t>
+          <t>(51) 9541-2725</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1686,10 +1770,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0.8530150753768844</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.001256281407035176</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1704,10 +1788,14 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>44</v>
+        <v>2625</v>
       </c>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1720,7 +1808,11 @@
           <t>DILEIA LEAL FONSECA</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>(51) 9755-5903</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>Passo Fundo</t>
@@ -1732,10 +1824,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0.8415841584158416</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.0132013201320132</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1750,10 +1842,14 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>66</v>
+        <v>608</v>
       </c>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1782,28 +1878,32 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>0.846788990825688</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.001834862385321101</v>
+      </c>
+      <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="G27" t="n">
-        <v>0.0076103500761035</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.9984779299847792</v>
-      </c>
       <c r="I27" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>114.3375000000004</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>2401.0875</v>
+        <v>3268</v>
       </c>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1828,13 +1928,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1846,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -1886,13 +1986,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0.7704081632653061</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.01275510204081633</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9579439252336449</v>
+        <v>0.923469387755102</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1904,10 +2004,14 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>591.6</v>
+        <v>1098.4</v>
       </c>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1936,32 +2040,36 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0078125</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>44.31000000000022</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>930.51</v>
+        <v>469</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
           <t>#BLOQ PREVENTIVO</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1990,49 +2098,51 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0.8247694334650857</v>
       </c>
       <c r="G31" t="n">
-        <v>0.002544529262086514</v>
+        <v>0.006587615283267457</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>63.5831249999999</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1335.2456</v>
+        <v>2113.45</v>
       </c>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ELISIANE REISNER</t>
+          <t>ELIEZER CORREA DA FONSECA</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ELISIANE REISNER</t>
+          <t>ELIEZER CORREA DA FONSECA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>(54) 9904-5930</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Passo Fundo</t>
-        </is>
+          <t>(55) 8425-7359</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2040,13 +2150,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="G32" t="n">
-        <v>0.007067137809187279</v>
+        <v>0.04194260485651214</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9222614840989399</v>
+        <v>0.8344370860927153</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2058,25 +2168,29 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>858</v>
+        <v>1486</v>
       </c>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ELTON JUNIOR DOS SANTOS GARCIA</t>
+          <t>ELISIANE REISNER</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ELTON JUNIOR DOS SANTOS GARCIA</t>
+          <t>ELISIANE REISNER</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>(55) 9257-7171</t>
+          <t>(54) 9904-5930</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2090,13 +2204,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0586145648312611</v>
+        <v>0.02258064516129032</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.7774193548387097</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2108,10 +2222,14 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1736.4</v>
+        <v>941</v>
       </c>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2140,13 +2258,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0.6608695652173913</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02054794520547945</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0.9942028985507246</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2158,10 +2276,14 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>470.4</v>
+        <v>1098.2</v>
       </c>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2190,14 +2312,14 @@
         </is>
       </c>
       <c r="F35" t="n">
+        <v>0.7056603773584905</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>1</v>
       </c>
-      <c r="G35" t="n">
-        <v>0.006329113924050633</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.9936708860759493</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
@@ -2208,10 +2330,14 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>511.6</v>
+        <v>850</v>
       </c>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2240,28 +2366,32 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0.8938730853391685</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01007194244604316</v>
+        <v>0.005470459518599562</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0.9967177242888403</v>
       </c>
       <c r="I36" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>123.0640000000002</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>2584.344</v>
+        <v>2805.8</v>
       </c>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2290,13 +2420,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0.8234482758620689</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9926108374384236</v>
+        <v>0.9931034482758621</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2308,30 +2438,34 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1241</v>
+        <v>2173</v>
       </c>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FELIPE EMBARACH OLIVEIRA</t>
+          <t>FERNANDO BATISTA DE ANDRADE</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FELIPE EMBARACH OLIVEIRA</t>
+          <t>FERNANDO BATISTA DE ANDRADE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>(54) 9663-8830</t>
+          <t>(51) 9677-6313</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2340,13 +2474,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0.5039246467817896</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1946308724832215</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9865771812080537</v>
+        <v>0.9827315541601256</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2358,30 +2492,34 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>602</v>
+        <v>2402.4</v>
       </c>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FERNANDO BATISTA DE ANDRADE</t>
+          <t>FERNANDO BONDAN</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FERNANDO BATISTA DE ANDRADE</t>
+          <t>FERNANDO BONDAN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>(51) 9677-6313</t>
+          <t>(54) 9961-8533</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2390,13 +2528,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0.8393700787401575</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1235955056179775</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0.9937007874015747</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2408,25 +2546,29 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1341.6</v>
+        <v>1928.2</v>
       </c>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FERNANDO BONDAN</t>
+          <t>FLAVIO LUIS KUTSCHER</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FERNANDO BONDAN</t>
+          <t>ONI VARGAS KUTSCHER</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>(54) 9961-8533</t>
+          <t>(55) 8128-6038</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2440,14 +2582,14 @@
         </is>
       </c>
       <c r="F40" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>1</v>
       </c>
-      <c r="G40" t="n">
-        <v>0.005825242718446602</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.974757281553398</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
@@ -2458,25 +2600,29 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1531.8</v>
+        <v>1528</v>
       </c>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FLAVIO LUIS KUTSCHER</t>
+          <t>FREDERICO GRAEFF NETO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ONI VARGAS KUTSCHER</t>
+          <t>FREDERICO GRAEFF NETO</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>(55) 8128-6038</t>
+          <t>(54) 9125-6760</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2496,22 +2642,30 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5.002500000000007</v>
       </c>
       <c r="L41" t="n">
-        <v>1505.2</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+        <v>105.0525</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>#BLOQ EXTRAVIO</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2540,13 +2694,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0.8309636650868878</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0302013422818792</v>
+        <v>0.00315955766192733</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9966442953020134</v>
+        <v>0.8578199052132701</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2558,10 +2712,14 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>847.8</v>
+        <v>1776.2</v>
       </c>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2590,28 +2748,32 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0.8323863636363636</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.002840909090909091</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.65937500000009</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>517.8469</v>
+        <v>970</v>
       </c>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2640,28 +2802,32 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0.9088888888888889</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01661129568106312</v>
+        <v>0.001111111111111111</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>57.28399999999989</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1202.964</v>
+        <v>2905.8</v>
       </c>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2690,10 +2856,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -2708,10 +2874,14 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2740,28 +2910,32 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0.8694516971279374</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.01566579634464752</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>42.22750000000005</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>886.7775</v>
+        <v>1133.3</v>
       </c>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2790,10 +2964,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="G47" t="n">
-        <v>0.02564102564102564</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -2808,10 +2982,14 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>142.7</v>
+        <v>304.2</v>
       </c>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2840,13 +3018,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0.8832457676590777</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01477832512315271</v>
+        <v>0.01576182136602452</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9548440065681445</v>
+        <v>0.960887332165791</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2858,25 +3036,29 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>3715.8</v>
+        <v>5143</v>
       </c>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GUSTAVO FONSECA DOS SANTOS</t>
+          <t>GIOVANE DO CARMO SZALANSKI</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GUSTAVO FONSECA DOS SANTOS</t>
+          <t>GIOVANE DO CARMO SZALANSKI</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>(55) 9647-1296</t>
+          <t>(55) 9166-5539</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2890,13 +3072,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0.2164948453608248</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.8573883161512027</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2908,25 +3090,29 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>84.5</v>
+        <v>1722</v>
       </c>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GUSTAVO LODI TONIAL</t>
+          <t>GIOVANNYS ANTONIO ARREAZA TRILLO</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GUSTAVO LODI TONIAL</t>
+          <t>GIOVANNYS ANTONIO ARREAZA TRILLO</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>(54) 9988-5962</t>
+          <t>(54) 9647-8962</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2940,14 +3126,14 @@
         </is>
       </c>
       <c r="F50" t="n">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
         <v>1</v>
       </c>
-      <c r="G50" t="n">
-        <v>0.07066052227342549</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.9254992319508448</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
@@ -2958,30 +3144,34 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>4099</v>
+        <v>168</v>
       </c>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HELEN NICHOLA LEWIS</t>
+          <t>GUSTAVO FONSECA DOS SANTOS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>HELEN NICHOLA LEWIS</t>
+          <t>GUSTAVO FONSECA DOS SANTOS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>(51) 9704-7787</t>
+          <t>(55) 9647-1296</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2990,14 +3180,14 @@
         </is>
       </c>
       <c r="F51" t="n">
+        <v>0.8793103448275862</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
         <v>1</v>
       </c>
-      <c r="G51" t="n">
-        <v>0.004672897196261682</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.9906542056074766</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
@@ -3008,25 +3198,29 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>603.9</v>
+        <v>149</v>
       </c>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>IRANI BAHRY</t>
+          <t>GUSTAVO LODI TONIAL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>IRANI BAHRY</t>
+          <t>GUSTAVO LODI TONIAL</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>(55) 9908-8847</t>
+          <t>(54) 9988-5962</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3040,48 +3234,52 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="I52" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>19.94575000000004</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>418.8608</v>
+        <v>155</v>
       </c>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>IVAN NUNES</t>
+          <t>HELEN NICHOLA LEWIS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>IVAN NUNES</t>
+          <t>HELEN NICHOLA LEWIS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>(54) 8421-0988</t>
+          <t>(51) 9704-7787</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3090,43 +3288,47 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0.7359413202933985</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>0.002444987775061125</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>47.43000000000021</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>996.03</v>
+        <v>1130.1</v>
       </c>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>JADIEL FERREIRA COUTINHO</t>
+          <t>IRANI BAHRY</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>JADIEL FERREIRA COUTINHO</t>
+          <t>IRANI BAHRY</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>(54) 9189-5970</t>
+          <t>(55) 9908-8847</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3139,20 +3341,14 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Não apto</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Não apto</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Não apto</t>
-        </is>
+      <c r="F54" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.9783549783549783</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -3164,25 +3360,29 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>160.5</v>
+        <v>648.9</v>
       </c>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>JAIR JOSE NAGL</t>
+          <t>IVAN NUNES</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>JAIR JOSE NAGL</t>
+          <t>IVAN NUNES</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>(55) 9154-5702</t>
+          <t>(54) 8421-0988</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3196,14 +3396,14 @@
         </is>
       </c>
       <c r="F55" t="n">
+        <v>0.9420731707317073</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
         <v>1</v>
       </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.9642857142857143</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
@@ -3214,25 +3414,29 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>150</v>
+        <v>1101.8</v>
       </c>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>JANAINA DOS SANTOS MATTOS</t>
+          <t>JADIEL FERREIRA COUTINHO</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>JANAINA DOS SANTOS MATTOS</t>
+          <t>JADIEL FERREIRA COUTINHO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>(55) 9942-3350</t>
+          <t>(54) 9189-5970</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3245,14 +3449,20 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.04887218045112782</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.868421052631579</v>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Não apto</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Não apto</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Não apto</t>
+        </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -3264,30 +3474,34 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>562.4</v>
+        <v>139.8</v>
       </c>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>JEAN MARCOS BARBOSA</t>
+          <t>JAIR JOSE NAGL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>JEAN MARCOS BARBOSA</t>
+          <t>JAIR JOSE NAGL</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>(54) 9113-7808</t>
+          <t>(55) 9154-5702</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3296,13 +3510,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G57" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -3314,30 +3528,34 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>42</v>
+        <v>304.6</v>
       </c>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>JOAO LUIS PAZ</t>
+          <t>JANAINA DOS SANTOS MATTOS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>JOAO LUIS PAZ</t>
+          <t>JANAINA DOS SANTOS MATTOS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>(51) 8039-0893</t>
+          <t>(55) 9942-3350</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3345,14 +3563,20 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.9411764705882353</v>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Não apto</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Não apto</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Não apto</t>
+        </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -3364,10 +3588,14 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>141.5</v>
+        <v>13</v>
       </c>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3396,28 +3624,32 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0.8770833333333333</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01393728222996516</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>42.40625000000004</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>890.5313</v>
+        <v>1242.5</v>
       </c>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3446,28 +3678,32 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="I60" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>4.137500000000004</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>86.8875</v>
+        <v>152.8</v>
       </c>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3496,13 +3732,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9556451612903226</v>
+        <v>0.9158576051779935</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -3514,10 +3750,14 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>1131.6</v>
+        <v>1389</v>
       </c>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3546,13 +3786,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04878048780487805</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -3564,10 +3804,14 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>569</v>
+        <v>282</v>
       </c>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3596,49 +3840,47 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0.834924965893588</v>
       </c>
       <c r="G63" t="n">
-        <v>0.002173913043478261</v>
+        <v>0.006821282401091405</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0.9986357435197817</v>
       </c>
       <c r="I63" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>91.32750000000061</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>1917.8775</v>
+        <v>2451.4</v>
       </c>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>JULIANO DA SILVA</t>
+          <t>JOSUE MARTINS BASTOS</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>JULIANO DA SILVA</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>(54) 9189-0475</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Passo Fundo</t>
-        </is>
+          <t>JOSUE MARTINS BASTOS</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>0</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3646,14 +3888,14 @@
         </is>
       </c>
       <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H64" t="n">
         <v>1</v>
       </c>
-      <c r="G64" t="n">
-        <v>0.04910714285714286</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.9821428571428571</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
@@ -3664,30 +3906,34 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>687</v>
+        <v>53.6</v>
       </c>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>LISLEI MACHADO STURMER</t>
+          <t>JULIANO DA SILVA</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>RENIR ANTONIO STURMER</t>
+          <t>JULIANO DA SILVA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>(54) 9915-2194</t>
+          <t>(54) 9189-0475</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3696,13 +3942,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0.6322489391796322</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="H65" t="n">
-        <v>0.872</v>
+        <v>0.9900990099009901</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3714,34 +3960,34 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>511.2</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>#BLOQ PREVENTIVO</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>2153</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
+          <t>LISLEI MACHADO STURMER</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
+          <t>RENIR ANTONIO STURMER</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>(55) 8127-3166</t>
+          <t>(54) 9915-2194</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3750,48 +3996,52 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="G66" t="n">
-        <v>0.004545454545454545</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>39.46000000000017</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>828.66</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+        <v>805.8</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>#BLOQ PREVENTIVO</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MARCELO ADRIANO PAZ</t>
+          <t>LUANA SILVA KONZEN</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MARCELO ADRIANO PAZ</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>(55) 8166-4057</t>
-        </is>
-      </c>
+          <t>LUANA SILVA KONZEN</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3800,14 +4050,14 @@
         </is>
       </c>
       <c r="F67" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>1</v>
       </c>
-      <c r="G67" t="n">
-        <v>0.02737226277372263</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.9981751824817519</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
@@ -3818,30 +4068,34 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>1769</v>
+        <v>78.5</v>
       </c>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
+          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
+          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>(51) 9933-4806</t>
+          <t>(55) 8127-3166</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3850,13 +4104,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0.9675925925925926</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0.9976851851851852</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -3868,25 +4122,29 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>1012.6</v>
+        <v>1322.6</v>
       </c>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MARINO MARTINS</t>
+          <t>MARCELO ADRIANO PAZ</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MARINO MARTINS</t>
+          <t>MARCELO ADRIANO PAZ</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>(55) 9677-0726</t>
+          <t>(55) 8166-4057</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3900,49 +4158,47 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0.8854314002828855</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>0.008486562942008486</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0.8330975954738331</v>
       </c>
       <c r="I69" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1.437500000000001</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>30.1875</v>
+        <v>2328</v>
       </c>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MARIO JORGE FARIAS MACHADO</t>
+          <t>MARCELO BESKOW</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MARIO JORGE FARIAS MACHADO</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>(55) 9152-2471</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Passo Fundo</t>
-        </is>
+          <t>MARCELO BESKOW</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>0</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3953,45 +4209,49 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03125</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.53125</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>4.785000000000001</v>
       </c>
       <c r="L70" t="n">
-        <v>100</v>
+        <v>100.485</v>
       </c>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MATEUS BERWALDT</t>
+          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MATEUS BERWALDT</t>
+          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>(51) 9145-1420</t>
+          <t>(51) 9933-4806</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4000,7 +4260,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0.6685393258426966</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -4009,39 +4269,43 @@
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>10.66000000000001</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>223.86</v>
+        <v>1149.6</v>
       </c>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MATHEUS JOSE MORAES</t>
+          <t>MARINO MARTINS</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MATHEUS JOSE MORAES</t>
+          <t>MARINO MARTINS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>(54) 9672-8954</t>
+          <t>(55) 9677-0726</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4050,13 +4314,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03884711779448621</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.8496240601503759</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -4068,23 +4332,31 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>2422.6</v>
+        <v>95</v>
       </c>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MAURI JOSE JUSTEN</t>
+          <t>MARIO JORGE FARIAS MACHADO</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MAURI JOSE JUSTEN</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+          <t>MARIO JORGE FARIAS MACHADO</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>(55) 9152-2471</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>Passo Fundo</t>
@@ -4096,48 +4368,52 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0.7848101265822784</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="I73" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>2.300000000000002</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>48.3</v>
+        <v>242</v>
       </c>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MICHAEL DOUGLAS GONCALVES</t>
+          <t>MATHEUS JOSE MORAES</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MICHAEL DOUGLAS GONCALVES</t>
+          <t>MATHEUS JOSE MORAES</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>(54) 9944-0199</t>
+          <t>(54) 9672-8954</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4146,13 +4422,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0.8180129990714949</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>0.007428040854224698</v>
       </c>
       <c r="H74" t="n">
-        <v>0.8563218390804598</v>
+        <v>0.7418755803156918</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -4164,25 +4440,29 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>834</v>
+        <v>3268.8</v>
       </c>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MILLENA GONCALVES DA SILVA</t>
+          <t>MAURI JOSE JUSTEN</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MILLENA GONCALVES DA SILVA</t>
+          <t>MAURI JOSE JUSTEN</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>(54) 9117-7186</t>
+          <t>(55) 9991-9176</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4196,41 +4476,49 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="G75" t="n">
-        <v>0.007194244604316547</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9982014388489209</v>
+        <v>0.9803921568627451</v>
       </c>
       <c r="I75" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>96.61000000000095</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>2028.81</v>
+        <v>133.5</v>
       </c>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NERI MALMANN BAGESTAO</t>
+          <t>MILLENA GONCALVES DA SILVA</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NERI MALMANN BAGESTAO</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
+          <t>MILLENA GONCALVES DA SILVA</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>(54) 9117-7186</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>Passo Fundo</t>
@@ -4242,48 +4530,52 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0.8866995073891626</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>0.002463054187192118</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>9.306250000000007</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>195.4313</v>
+        <v>2437</v>
       </c>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NILTON LUIZ LINHARES DA SILVEIRA</t>
+          <t>NERI MALMANN BAGESTAO</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NILTON LUIZ LINHARES DA SILVEIRA</t>
+          <t>NERI MALMANN BAGESTAO</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>(51) 9824-9764</t>
+          <t>(55) 9171-5366</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4292,10 +4584,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02010050251256281</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
@@ -4310,25 +4602,29 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>598</v>
+        <v>447.5</v>
       </c>
       <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NOENDER BERNARDES DOS SANTOS</t>
+          <t>NILTON LUIZ LINHARES DA SILVEIRA</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NOENDER BERNARDES DOS SANTOS</t>
+          <t>NILTON LUIZ LINHARES DA SILVEIRA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>(51) 9576-3887</t>
+          <t>(51) 9824-9764</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4342,48 +4638,52 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G78" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0.9803921568627451</v>
       </c>
       <c r="I78" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>12.53399999999999</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>263.214</v>
+        <v>616</v>
       </c>
       <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ORLEI MOREIRA DE LEMOS</t>
+          <t>NOENDER BERNARDES DOS SANTOS</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ORLEI MOREIRA DE LEMOS</t>
+          <t>NOENDER BERNARDES DOS SANTOS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>(67) 9840-5942</t>
+          <t>(51) 9576-3887</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4392,43 +4692,47 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0.6953125</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>0.015625</v>
       </c>
       <c r="H79" t="n">
         <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>52.36500000000031</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>1099.665</v>
+        <v>430.2</v>
       </c>
       <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PATRICK DOS SANTOS LIMA</t>
+          <t>ORLEI MOREIRA DE LEMOS</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PATRICK DOS SANTOS LIMA</t>
+          <t>ORLEI MOREIRA DE LEMOS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>(54) 9102-4605</t>
+          <t>(67) 9840-5942</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4442,14 +4746,14 @@
         </is>
       </c>
       <c r="F80" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H80" t="n">
         <v>1</v>
       </c>
-      <c r="G80" t="n">
-        <v>0.0328719723183391</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.9982698961937716</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
@@ -4460,25 +4764,29 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>1760</v>
+        <v>1530.4</v>
       </c>
       <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RAFAEL LORENA MORAIS</t>
+          <t>PATRICK DOS SANTOS LIMA</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>RAFAEL LORENA MORAIS</t>
+          <t>PATRICK DOS SANTOS LIMA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>(54) 9216-9656</t>
+          <t>(54) 9102-4605</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4492,13 +4800,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0.7599611273080661</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.03498542274052478</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0.9766763848396501</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -4510,30 +4818,34 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>842</v>
+        <v>3090</v>
       </c>
       <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>RICARDO DA SILVA HARTMANN</t>
+          <t>RAFAEL LORENA MORAIS</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>RICARDO DA SILVA HARTMANN</t>
+          <t>RAFAEL LORENA MORAIS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>(51) 9898-7460</t>
+          <t>(54) 9216-9656</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4542,13 +4854,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0.9979296066252588</v>
       </c>
       <c r="G82" t="n">
-        <v>0.005089058524173028</v>
+        <v>0.002070393374741201</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9974554707379135</v>
+        <v>0.9979296066252588</v>
       </c>
       <c r="I82" t="n">
         <v>0.15</v>
@@ -4557,33 +4869,37 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>68.24250000000056</v>
+        <v>83.15500000000077</v>
       </c>
       <c r="L82" t="n">
-        <v>1433.0925</v>
+        <v>1746.255</v>
       </c>
       <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ROMI JOSE PAIM JACQUES</t>
+          <t>RICARDO DA SILVA HARTMANN</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ROMI JOSE PAIM JACQUES</t>
+          <t>RICARDO DA SILVA HARTMANN</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>(54) 9676-4696</t>
+          <t>(51) 9898-7460</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4592,43 +4908,47 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0.9095840867992767</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0121580547112462</v>
+        <v>0.003616636528028933</v>
       </c>
       <c r="H83" t="n">
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>58.51750000000035</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>1228.8675</v>
+        <v>1652</v>
       </c>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ROSANA ELIZABETE RESCKE</t>
+          <t>ROMI JOSE PAIM JACQUES</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ROSANA ELIZABETE RESCKE</t>
+          <t>ROMI JOSE PAIM JACQUES</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>(54) 9990-4345</t>
+          <t>(54) 9676-4696</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4642,13 +4962,13 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>0.9971751412429378</v>
       </c>
       <c r="G84" t="n">
-        <v>0.002785515320334262</v>
+        <v>0.007062146892655367</v>
       </c>
       <c r="H84" t="n">
-        <v>0.9610027855153204</v>
+        <v>0.980225988700565</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -4660,25 +4980,29 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>1076</v>
+        <v>2189.2</v>
       </c>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SANDRO BUENO</t>
+          <t>ROSANA ELIZABETE RESCKE</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SANDRO BUENO</t>
+          <t>ROSANA ELIZABETE RESCKE</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>(55) 9916-5230</t>
+          <t>(54) 9990-4345</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4692,10 +5016,10 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0.7754237288135594</v>
       </c>
       <c r="G85" t="n">
-        <v>0.06547619047619048</v>
+        <v>0.001412429378531073</v>
       </c>
       <c r="H85" t="n">
         <v>1</v>
@@ -4710,25 +5034,29 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>519.8</v>
+        <v>2111</v>
       </c>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SIDNEI ARAUJO DA COSTA</t>
+          <t>SANDRO BUENO</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SIDNEI ARAUJO DA COSTA</t>
+          <t>SANDRO BUENO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>(55) 9195-0030</t>
+          <t>(55) 9916-5230</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4742,48 +5070,52 @@
         </is>
       </c>
       <c r="F86" t="n">
+        <v>0.8505050505050505</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="H86" t="n">
         <v>1</v>
       </c>
-      <c r="G86" t="n">
-        <v>0.01977401129943503</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.9971751412429378</v>
-      </c>
       <c r="I86" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>68.43250000000043</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>1437.0825</v>
+        <v>1473.8</v>
       </c>
       <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SIDNEI LUIZ WOLLMANN</t>
+          <t>SIDNEI ARAUJO DA COSTA</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SIDNEI LUIZ WOLLMANN</t>
+          <t>SIDNEI ARAUJO DA COSTA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>(51) 9968-1420</t>
+          <t>(55) 9195-0030</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4792,43 +5124,47 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0.8403614457831325</v>
       </c>
       <c r="G87" t="n">
-        <v>0.005780346820809248</v>
+        <v>0.009036144578313253</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>26.15875000000003</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>549.3338</v>
+        <v>3214.2</v>
       </c>
       <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SIDNEI OLIVEIRA DA SILVA</t>
+          <t>SIDNEI LUIZ WOLLMANN</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SIDNEI OLIVEIRA DA SILVA</t>
+          <t>SIDNEI LUIZ WOLLMANN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>(51) 9600-9683</t>
+          <t>(51) 9968-1420</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4842,14 +5178,14 @@
         </is>
       </c>
       <c r="F88" t="n">
+        <v>0.7202797202797203</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.006993006993006993</v>
+      </c>
+      <c r="H88" t="n">
         <v>1</v>
       </c>
-      <c r="G88" t="n">
-        <v>0.003058103975535168</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.9785932721712538</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
@@ -4860,25 +5196,29 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>1036</v>
+        <v>367.1</v>
       </c>
       <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SILVANA HEINEN</t>
+          <t>SIDNEI OLIVEIRA DA SILVA</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SILVANA HEINEN</t>
+          <t>SIDNEI OLIVEIRA DA SILVA</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>(51) 9968-0775</t>
+          <t>(51) 9600-9683</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4892,13 +5232,13 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0.4258555133079848</v>
       </c>
       <c r="G89" t="n">
-        <v>0.006172839506172839</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.9876543209876543</v>
+        <v>0.9163498098859315</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -4910,30 +5250,34 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>1413.55</v>
+        <v>837</v>
       </c>
       <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>VINICIUS SIQUEIRA</t>
+          <t>SILVANA HEINEN</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>VINICIUS SIQUEIRA</t>
+          <t>SILVANA HEINEN</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>(54) 9977-0063</t>
+          <t>(51) 9968-0775</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4942,43 +5286,47 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0.5428156748911466</v>
       </c>
       <c r="G90" t="n">
-        <v>0.001941747572815534</v>
+        <v>0.001451378809869376</v>
       </c>
       <c r="H90" t="n">
         <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>98.88750000000086</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>2076.6375</v>
+        <v>1928.5</v>
       </c>
       <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>WESLEY POSSOBOM AQUINO</t>
+          <t>VINICIUS SIQUEIRA</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>WESLEY POSSOBOM AQUINO</t>
+          <t>VINICIUS SIQUEIRA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>(55) 9136-2797</t>
+          <t>(54) 9977-0063</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4992,28 +5340,86 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0.8679577464788732</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0136986301369863</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>101.0375000000007</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>2121.7875</v>
+        <v>3762</v>
       </c>
       <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>WESLEY POSSOBOM AQUINO</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>WESLEY POSSOBOM AQUINO</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>(55) 9136-2797</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Passo Fundo</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0.9289501590668081</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.005302226935312832</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.9978791092258749</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3154.4</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Relatorios/ENVIOS.xlsx
+++ b/Relatorios/ENVIOS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N92"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,22 +508,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADEMIR JOSE FRANTZ</t>
+          <t>WESLEY POSSOBOM AQUINO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ADEMIR JOSE FRANTZ</t>
+          <t>WESLEY POSSOBOM AQUINO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(51) 9396-9314</t>
+          <t>(55) 9136-2797</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -531,18 +531,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>0.8716075156576201</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.004175365344467641</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
         <v>0</v>
       </c>
@@ -550,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2897.6</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
@@ -562,22 +554,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ADEMIR VALMOR HUF</t>
+          <t>CAMILA FERNANDA ZAMBIASI GARDINO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ADEMIR VALMOR HUF</t>
+          <t>CAMILA FERNANDA ZAMBIASI GARDINO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(54) 9174-0722</t>
+          <t>(54) 9697-7109</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -585,18 +577,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>0.853185595567867</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9445983379501385</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -604,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1100.2</v>
+        <v>87.2</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
@@ -616,22 +600,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ADIR HAMMES VOIGT</t>
+          <t>JOSUE MARTINS BASTOS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ADIR HAMMES VOIGT</t>
+          <t>JOSUE MARTINS BASTOS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(55) 9128-8464</t>
+          <t>(51) 9540-9705</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -639,18 +623,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>0</v>
       </c>
@@ -658,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>110</v>
+        <v>79.8</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
@@ -670,22 +646,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ALCEU SIEBENBORN</t>
+          <t>NELSON SUCHEK</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ALCEU SIEBENBORN</t>
+          <t>NELSON SUCHEK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(51) 9525-5991</t>
+          <t>(54) 8411-2671</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -693,18 +669,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>0.8937282229965157</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.003484320557491289</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>0</v>
       </c>
@@ -712,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1701.2</v>
+        <v>79.2</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
@@ -724,22 +692,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ALEXANDRE ALVES LAMPERT</t>
+          <t>JANADARA SILVEIRA AGUIAR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ALEXANDRE ALVES LAMPERT</t>
+          <t>JANADARA SILVEIRA AGUIAR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(51) 9733-5530</t>
+          <t>(55) 8165-9919</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -747,18 +715,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>0.9660339660339661</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.01798201798201798</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
         <v>0</v>
       </c>
@@ -766,34 +726,34 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3384.4</v>
+        <v>72</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>#ENVIADO</t>
+          <t>NÃO ENCONTRADO</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ALTEMIR RICARDO DOS SANTOS ASSIS</t>
+          <t>SIDNEI ARAUJO DA COSTA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ALTEMIR RICARDO DOS SANTOS ASSIS</t>
+          <t>SIDNEI ARAUJO DA COSTA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(51) 9600-1186</t>
+          <t>(55) 9195-0030</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -801,18 +761,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.8421052631578947</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>0</v>
       </c>
@@ -820,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>52.25</v>
+        <v>63.6</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
@@ -847,7 +799,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -855,18 +807,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>0.8504672897196262</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.00116822429906542</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.9906542056074766</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>0</v>
       </c>
@@ -874,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3057.4</v>
+        <v>62.8</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
@@ -901,7 +845,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -909,18 +853,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>0.6924979389942292</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.06430338004946413</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.9596042868920033</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>0</v>
       </c>
@@ -928,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3586.4</v>
+        <v>59.2</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
@@ -940,22 +876,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ANGELA MARIA MILAN</t>
+          <t>BRUNO DUARTE VARGAS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ANGELA MARIA MILAN</t>
+          <t>BRUNO DUARTE VARGAS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(54) 9610-1502</t>
+          <t>(51) 9788-5876</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -963,18 +899,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>0.8117359413202934</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>0</v>
       </c>
@@ -982,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1216</v>
+        <v>38.8</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
@@ -994,22 +922,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ANTONIO IVALDO LIRIO DE FREITAS</t>
+          <t>JULIANO DA SILVA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ANTONIO IVALDO LIRIO DE FREITAS</t>
+          <t>JULIANO DA SILVA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(54) 9915-6690</t>
+          <t>(54) 9189-0475</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1017,18 +945,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>0.7079646017699115</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.9734513274336283</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>0</v>
       </c>
@@ -1036,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>710.4</v>
+        <v>35.2</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
@@ -1048,22 +968,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRUNO DUARTE VARGAS</t>
+          <t>SANDRO BUENO</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BRUNO DUARTE VARGAS</t>
+          <t>SANDRO BUENO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>(51) 9788-5876</t>
+          <t>(55) 9916-5230</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1071,18 +991,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>0.5415913200723327</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.005123568414707656</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.9996986136226642</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>0</v>
       </c>
@@ -1090,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>12158.8</v>
+        <v>34.8</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
@@ -1102,22 +1014,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CAMILA FATIMA DOS SANTOS</t>
+          <t>EMERSON LUIS SOARES</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CAMILA FATIMA DOS SANTOS</t>
+          <t>EMERSON LUIS SOARES</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>(51) 9942-5104</t>
+          <t>(51) 9871-2338</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1125,18 +1037,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>0.8910256410256411</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>0</v>
       </c>
@@ -1144,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>872.15</v>
+        <v>32.8</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
@@ -1156,22 +1060,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CAMILA FERNANDA RECKZIEGEL</t>
+          <t>RAFAEL LORENA MORAIS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CAMILA FERNANDA RECKZIEGEL</t>
+          <t>RAFAEL LORENA MORAIS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>(55) 9710-6489</t>
+          <t>(54) 9216-9656</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1179,18 +1083,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>0.8578199052132701</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.1445497630331753</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.990521327014218</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>0</v>
       </c>
@@ -1198,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1261</v>
+        <v>28.4</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
@@ -1210,22 +1106,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CAMILA FERNANDA ZAMBIASI GARDINO</t>
+          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CAMILA FERNANDA ZAMBIASI GARDINO</t>
+          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>(54) 9697-7109</t>
+          <t>(51) 9933-4806</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1233,18 +1129,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>0.9469928644240571</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.01393136255521577</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.9520897043832823</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>0</v>
       </c>
@@ -1252,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>8980</v>
+        <v>22</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
@@ -1264,22 +1152,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CARIN LUCELI WENDT</t>
+          <t>MARCELO BESKOW</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CARIN LUCELI WENDT</t>
+          <t>MARCELO BESKOW</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>(51) 9574-0589</t>
+          <t>(51) 9781-5956</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1287,18 +1175,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.9253731343283582</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>0</v>
       </c>
@@ -1306,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>309</v>
+        <v>21.6</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
@@ -1318,22 +1198,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CARLOS ANDRE BECKER</t>
+          <t>ROMI JOSE PAIM JACQUES</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CARLOS ANDRE BECKER</t>
+          <t>ROMI JOSE PAIM JACQUES</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>(55) 8448-4094</t>
+          <t>(54) 9676-4696</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1341,18 +1221,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>0</v>
       </c>
@@ -1360,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>33.5</v>
+        <v>21.6</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
@@ -1372,22 +1244,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CARLOS AUGUSTO DUARTE</t>
+          <t>DANRLEI DOS SANTOS DE VARGAS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CARLOS AUGUSTO DUARTE</t>
+          <t>DANRLEI DOS SANTOS DE VARGAS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>(51) 9501-4308</t>
+          <t>(55) 9701-3353</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1395,18 +1267,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>0.7209302325581395</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.9883720930232558</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>0</v>
       </c>
@@ -1414,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>262.2</v>
+        <v>20.4</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
@@ -1426,18 +1290,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CESAR AUGUSTO DA VEIGA</t>
+          <t>ELISIANE REISNER</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CESAR AUGUSTO DA VEIGA</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>ELISIANE REISNER</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>(54) 9904-5930</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1445,18 +1313,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>0.2830188679245283</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>0</v>
       </c>
@@ -1464,34 +1324,34 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>257</v>
+        <v>18.8</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>NÃO ENCONTRADO</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CESAR AUGUSTO LUBIAN</t>
+          <t>JOICE LUIZA LIMA GOHTEN MALEICO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CESAR AUGUSTO LUBIAN</t>
+          <t>GUILHERME ALF</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>(54) 9674-9440</t>
+          <t>(55) 9900-7108</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1499,18 +1359,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>0.8351800554016621</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.01246537396121884</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.9875346260387812</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>0</v>
       </c>
@@ -1518,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2159</v>
+        <v>16.4</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
@@ -1530,22 +1382,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CINTIA ANSCHAU</t>
+          <t>SIDNEI OLIVEIRA DA SILVA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GIOVANI VIGOLO</t>
+          <t>SIDNEI OLIVEIRA DA SILVA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>(51) 9700-3386</t>
+          <t>(51) 9600-9683</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1553,18 +1405,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>0.4967741935483871</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.01290322580645161</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.9483870967741935</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>0</v>
       </c>
@@ -1572,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>475.8</v>
+        <v>15.2</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
@@ -1584,22 +1428,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CLAUDIO JOSE DA ROCHA REHBEIN</t>
+          <t>ADEMIR VALMOR HUF</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CLAUDIO JOSE DA ROCHA REHBEIN</t>
+          <t>ADEMIR VALMOR HUF</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>(51) 8574-5657</t>
+          <t>(54) 9174-0722</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1607,18 +1451,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>0.851808634772462</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.008168028004667444</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>0</v>
       </c>
@@ -1626,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>2368.15</v>
+        <v>14.4</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
@@ -1638,22 +1474,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CRISTIANO SILVA DA SILVA</t>
+          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CRISTIANO SILVA DA SILVA</t>
+          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>(51) 8057-2670</t>
+          <t>(55) 8127-3166</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1661,18 +1497,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>0.9093851132686084</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>0</v>
       </c>
@@ -1680,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>932.6</v>
+        <v>14.4</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
@@ -1692,22 +1520,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DANIEL LONGHI BERNARDES</t>
+          <t>GILMAR BENCKE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DANIEL LONGHI BERNARDES</t>
+          <t>GILMAR BENCKE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>(54) 9673-2876</t>
+          <t>(55) 9990-2953</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1715,18 +1543,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>0.721608040201005</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.01809045226130653</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.9165829145728643</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>0</v>
       </c>
@@ -1734,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>2981</v>
+        <v>13.6</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
@@ -1746,22 +1566,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DARLAN SCHUSTER</t>
+          <t>JOSE CELSO MOURA KLATTE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DARLAN SCHUSTER</t>
+          <t>JOSE CELSO MOURA KLATTE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>(51) 9541-2725</t>
+          <t>(51) 9823-4708</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1769,18 +1589,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>0.8530150753768844</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.001256281407035176</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>0</v>
       </c>
@@ -1788,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>2625</v>
+        <v>13.6</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
@@ -1800,22 +1612,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DILEIA LEAL FONSECA</t>
+          <t>DORCELIDE RODRIGUES</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DILEIA LEAL FONSECA</t>
+          <t>DORCELIDE RODRIGUES</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>(51) 9755-5903</t>
+          <t>(54) 9671-6418</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1823,18 +1635,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>0.8415841584158416</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.0132013201320132</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>0</v>
       </c>
@@ -1842,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>608</v>
+        <v>12.8</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
@@ -1854,22 +1658,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DORCELIDE RODRIGUES</t>
+          <t>GERCEI MOURA DE ALMEIDA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DORCELIDE RODRIGUES</t>
+          <t>GERCEI MOURA DE ALMEIDA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>(54) 9671-6418</t>
+          <t>(51) 9958-3144</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1877,18 +1681,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>0.846788990825688</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.001834862385321101</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>0</v>
       </c>
@@ -1896,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>3268</v>
+        <v>12.8</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
@@ -1908,18 +1704,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EDSON MATEUS CARVALHO</t>
+          <t>VINICIUS SIQUEIRA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>VINICIUS SIQUEIRA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>(54) 9977-0063</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1927,18 +1727,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>0</v>
       </c>
@@ -1946,38 +1738,34 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>17</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>#FAKE</t>
-        </is>
-      </c>
+        <v>11.6</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>#FAKE</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EDUARDO AIRES DOS SANTOS</t>
+          <t>FELIPE AMARAL DA COSTA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>EDUARDO AIRES DOS SANTOS</t>
+          <t>MOISES EDEGAR CAVALHEIRO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>(54) 8167-6827</t>
+          <t>(54) 9707-1626</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1985,18 +1773,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>0.7704081632653061</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.01275510204081633</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.923469387755102</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>0</v>
       </c>
@@ -2004,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1098.4</v>
+        <v>11.2</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
@@ -2016,22 +1796,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EDUARDO GUEDES MORO</t>
+          <t>FERNANDO BONDAN</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>EDUARDO GUEDES MORO</t>
+          <t>FERNANDO BONDAN</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>(54) 9684-8850</t>
+          <t>(54) 9961-8533</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2039,18 +1819,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>0.9743589743589743</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>0</v>
       </c>
@@ -2058,13 +1830,9 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>469</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>#BLOQ PREVENTIVO</t>
-        </is>
-      </c>
+        <v>11.2</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>#ENVIADO</t>
@@ -2074,22 +1842,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EDUARDO SCHMACHTENBERG</t>
+          <t>LISLEI MACHADO STURMER</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>EDUARDO SCHMACHTENBERG</t>
+          <t>RENIR ANTONIO STURMER</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>(51) 9750-2464</t>
+          <t>(54) 9915-2194</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2097,18 +1865,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>0.8247694334650857</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.006587615283267457</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>0</v>
       </c>
@@ -2116,9 +1876,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>2113.45</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>11.2</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>#BLOQ PREVENTIVO</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
           <t>#ENVIADO</t>
@@ -2128,39 +1892,33 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ELIEZER CORREA DA FONSECA</t>
+          <t>ADEMIR JOSE FRANTZ</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ELIEZER CORREA DA FONSECA</t>
+          <t>ADEMIR JOSE FRANTZ</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>(55) 8425-7359</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
+          <t>(51) 9396-9314</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>NOME</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>0.2847682119205298</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.04194260485651214</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.8344370860927153</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>0</v>
       </c>
@@ -2168,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1486</v>
+        <v>10.4</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
@@ -2180,22 +1938,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ELISIANE REISNER</t>
+          <t>CINTIA ANSCHAU</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ELISIANE REISNER</t>
+          <t>GIOVANI VIGOLO</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>(54) 9904-5930</t>
+          <t>(51) 9700-3386</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2203,18 +1961,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>0.9193548387096774</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.02258064516129032</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.7774193548387097</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>0</v>
       </c>
@@ -2222,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>941</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
@@ -2234,22 +1984,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EMERSON LUIS SOARES</t>
+          <t>CARLOS CAETANO STIEGELMEIER</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EMERSON LUIS SOARES</t>
+          <t>CARLOS CAETANO STIEGELMEIER</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>(51) 9871-2338</t>
+          <t>(55) 9654-2473</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2257,18 +2007,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>0.6608695652173913</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.01739130434782609</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.9942028985507246</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>0</v>
       </c>
@@ -2276,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1098.2</v>
+        <v>8.4</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
@@ -2288,22 +2030,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EVANDRO SOUZA DE OLIVEIRA</t>
+          <t>SIDNEI LUIZ WOLLMANN</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EVANDRO SOUZA DE OLIVEIRA</t>
+          <t>SIDNEI LUIZ WOLLMANN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>(51) 9691-1472</t>
+          <t>(51) 9968-1420</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2311,18 +2053,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>0.7056603773584905</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>0</v>
       </c>
@@ -2330,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>850</v>
+        <v>8.4</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
@@ -2342,22 +2076,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FABIO AUGUSTO MATICOLLI LOPES</t>
+          <t>PATRICK DOS SANTOS LIMA</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FABIO AUGUSTO MATICOLLI LOPES</t>
+          <t>PATRICK DOS SANTOS LIMA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>(51) 9918-9541</t>
+          <t>(54) 9102-4605</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2365,18 +2099,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>0.8938730853391685</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.005470459518599562</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.9967177242888403</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>0</v>
       </c>
@@ -2384,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>2805.8</v>
+        <v>8</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
@@ -2396,22 +2122,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FELIPE AMARAL DA COSTA</t>
+          <t>SILVANA HEINEN</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MOISES EDEGAR CAVALHEIRO</t>
+          <t>SILVANA HEINEN</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>(54) 9707-1626</t>
+          <t>(51) 9968-0775</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2419,18 +2145,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>0.8234482758620689</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.9931034482758621</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>0</v>
       </c>
@@ -2438,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2173</v>
+        <v>8</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
@@ -2450,22 +2168,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FERNANDO BATISTA DE ANDRADE</t>
+          <t>NILTON LUIZ LINHARES DA SILVEIRA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FERNANDO BATISTA DE ANDRADE</t>
+          <t>NILTON LUIZ LINHARES DA SILVEIRA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>(51) 9677-6313</t>
+          <t>(51) 9824-9764</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2473,18 +2191,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>0.5039246467817896</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.06593406593406594</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.9827315541601256</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>0</v>
       </c>
@@ -2492,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>2402.4</v>
+        <v>6.8</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
@@ -2504,22 +2214,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FERNANDO BONDAN</t>
+          <t>ROBERTO BAGGIO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FERNANDO BONDAN</t>
+          <t>ROBERTO BAGGIO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>(54) 9961-8533</t>
+          <t>(55) 9709-3625</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2527,18 +2237,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>0.8393700787401575</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.01574803149606299</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.9937007874015747</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>0</v>
       </c>
@@ -2546,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1928.2</v>
+        <v>6.7</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
@@ -2558,22 +2260,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FLAVIO LUIS KUTSCHER</t>
+          <t>GILMAR SOARES BRASIL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ONI VARGAS KUTSCHER</t>
+          <t>GILMAR SOARES BRASIL</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>(55) 8128-6038</t>
+          <t>(51) 9533-4288</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2581,18 +2283,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>0</v>
       </c>
@@ -2600,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1528</v>
+        <v>6.4</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
@@ -2612,22 +2306,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FREDERICO GRAEFF NETO</t>
+          <t>JOSE ANTONIO DA SILVA COELHO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FREDERICO GRAEFF NETO</t>
+          <t>JOSE ANTONIO DA SILVA COELHO</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>(54) 9125-6760</t>
+          <t>(51) 8129-6742</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2635,32 +2329,20 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>5.002500000000007</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>105.0525</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>#BLOQ EXTRAVIO</t>
-        </is>
-      </c>
+        <v>5.6</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
           <t>#ENVIADO</t>
@@ -2670,22 +2352,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GABRIEL DUARTE MACHADO</t>
+          <t>GIORDANI JACOMINI</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GABRIEL DUARTE MACHADO</t>
+          <t>RODRIGO ZANDONA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>(55) 9205-5778</t>
+          <t>(54) 9616-9421</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2693,18 +2375,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>0.8309636650868878</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.00315955766192733</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.8578199052132701</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>0</v>
       </c>
@@ -2712,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1776.2</v>
+        <v>5.6</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
@@ -2724,22 +2398,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GELSON GAUTO DOS SANTOS</t>
+          <t>CESAR AUGUSTO LUBIAN</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GELSON GAUTO DOS SANTOS</t>
+          <t>CESAR AUGUSTO LUBIAN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>(51) 8410-7705</t>
+          <t>(54) 9674-9440</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2747,18 +2421,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>0.8323863636363636</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.002840909090909091</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>0</v>
       </c>
@@ -2766,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>970</v>
+        <v>5.2</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
@@ -2778,22 +2444,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GERCEI MOURA DE ALMEIDA</t>
+          <t>EDUARDO SCHMACHTENBERG</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GERCEI MOURA DE ALMEIDA</t>
+          <t>EDUARDO SCHMACHTENBERG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>(51) 9958-3144</t>
+          <t>(51) 9750-2464</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2801,18 +2467,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>0.9088888888888889</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.001111111111111111</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>0</v>
       </c>
@@ -2820,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>2905.8</v>
+        <v>5.2</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
@@ -2832,22 +2490,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>GERSON JAIR WOJAHN</t>
+          <t>GABRIEL DUARTE MACHADO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GERSON JAIR WOJAHN</t>
+          <t>GABRIEL DUARTE MACHADO</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>(51) 9655-6882</t>
+          <t>(55) 9205-5778</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2855,18 +2513,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>0.9565217391304348</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>0</v>
       </c>
@@ -2874,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>100</v>
+        <v>5.2</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
@@ -2886,22 +2536,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>GILMAR BENCKE</t>
+          <t>IVAN NUNES</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GILMAR BENCKE</t>
+          <t>IVAN NUNES</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>(55) 9990-2953</t>
+          <t>(54) 8421-0988</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2909,18 +2559,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>0.8694516971279374</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.01566579634464752</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>0</v>
       </c>
@@ -2928,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1133.3</v>
+        <v>5.2</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
@@ -2940,22 +2582,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>GILMAR SOARES BRASIL</t>
+          <t>TIAGO DE ALMEIDA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GILMAR SOARES BRASIL</t>
+          <t>TIAGO DE ALMEIDA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>(51) 9533-4288</t>
+          <t>(59) 9661-5848</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2963,18 +2605,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>0</v>
       </c>
@@ -2982,34 +2616,34 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>304.2</v>
+        <v>4.8</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>#ENVIADO</t>
+          <t>NÃO ENCONTRADO</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>GIORDANI JACOMINI</t>
+          <t>ANDRE LUIS GONCALVES MOREIRA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>RODRIGO ZANDONA</t>
+          <t>ANDRE LUIS GONCALVES MOREIRA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>(54) 9616-9421</t>
+          <t>(31) 9928-8827</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3017,18 +2651,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>0.8832457676590777</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.01576182136602452</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.960887332165791</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>0</v>
       </c>
@@ -3036,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>5143</v>
+        <v>4.8</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
@@ -3048,22 +2674,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GIOVANE DO CARMO SZALANSKI</t>
+          <t>EVANDRO SOUZA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GIOVANE DO CARMO SZALANSKI</t>
+          <t>EVANDRO SOUZA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>(55) 9166-5539</t>
+          <t>(51) 9691-1472</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3071,18 +2697,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>0.2164948453608248</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.8573883161512027</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>0</v>
       </c>
@@ -3090,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1722</v>
+        <v>4.8</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
@@ -3102,22 +2720,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GIOVANNYS ANTONIO ARREAZA TRILLO</t>
+          <t>FABIO AUGUSTO MATICOLLI LOPES</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GIOVANNYS ANTONIO ARREAZA TRILLO</t>
+          <t>FABIO AUGUSTO MATICOLLI LOPES</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>(54) 9647-8962</t>
+          <t>(51) 9918-9541</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3125,18 +2743,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>0.9821428571428571</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>0</v>
       </c>
@@ -3144,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>168</v>
+        <v>4.4</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
@@ -3156,22 +2766,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GUSTAVO FONSECA DOS SANTOS</t>
+          <t>MILLENA GONCALVES DA SILVA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GUSTAVO FONSECA DOS SANTOS</t>
+          <t>MILLENA GONCALVES DA SILVA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>(55) 9647-1296</t>
+          <t>(54) 9117-7186</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3179,18 +2789,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F51" t="n">
-        <v>0.8793103448275862</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>0</v>
       </c>
@@ -3198,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>149</v>
+        <v>4.4</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
@@ -3210,22 +2812,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GUSTAVO LODI TONIAL</t>
+          <t>NERI MALMANN BAGESTAO</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GUSTAVO LODI TONIAL</t>
+          <t>NERI MALMANN BAGESTAO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>(54) 9988-5962</t>
+          <t>(55) 9171-5366</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3233,18 +2835,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F52" t="n">
-        <v>0.7358490566037735</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.2264150943396226</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.5849056603773585</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>0</v>
       </c>
@@ -3252,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>155</v>
+        <v>4.4</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
@@ -3264,22 +2858,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HELEN NICHOLA LEWIS</t>
+          <t>CLEDERSON IDENIO SCHMITT</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>HELEN NICHOLA LEWIS</t>
+          <t>CLEDERSON IDENIO SCHMITT</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>(51) 9704-7787</t>
+          <t>(53) 8158-5042</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3287,18 +2881,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F53" t="n">
-        <v>0.7359413202933985</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.002444987775061125</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>0</v>
       </c>
@@ -3306,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>1130.1</v>
+        <v>4</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
@@ -3318,22 +2904,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>IRANI BAHRY</t>
+          <t>CAMILA FATIMA DOS SANTOS</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>IRANI BAHRY</t>
+          <t>CAMILA FATIMA DOS SANTOS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>(55) 9908-8847</t>
+          <t>(51) 9942-5104</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3341,18 +2927,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.9783549783549783</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>0</v>
       </c>
@@ -3360,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>648.9</v>
+        <v>4</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
@@ -3372,22 +2950,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>IVAN NUNES</t>
+          <t>DARLAN SCHUSTER</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>IVAN NUNES</t>
+          <t>DARLAN SCHUSTER</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>(54) 8421-0988</t>
+          <t>(51) 9541-2725</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3395,18 +2973,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F55" t="n">
-        <v>0.9420731707317073</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>0</v>
       </c>
@@ -3414,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>1101.8</v>
+        <v>4</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
@@ -3426,22 +2996,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>JADIEL FERREIRA COUTINHO</t>
+          <t>FERNANDO BATISTA DE ANDRADE</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>JADIEL FERREIRA COUTINHO</t>
+          <t>FERNANDO BATISTA DE ANDRADE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>(54) 9189-5970</t>
+          <t>(51) 9677-6313</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3449,24 +3019,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Não apto</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Não apto</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Não apto</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>0</v>
       </c>
@@ -3474,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>139.8</v>
+        <v>4</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
@@ -3486,22 +3042,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>JAIR JOSE NAGL</t>
+          <t>JORGE LEANDRO DOS SANTOS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>JAIR JOSE NAGL</t>
+          <t>JORGE LEANDRO DOS SANTOS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>(55) 9154-5702</t>
+          <t>(55) 9647-9058</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3509,18 +3065,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F57" t="n">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.008333333333333333</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.9666666666666667</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>0</v>
       </c>
@@ -3528,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>304.6</v>
+        <v>4</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
@@ -3540,22 +3088,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>JANAINA DOS SANTOS MATTOS</t>
+          <t>ALDO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>JANAINA DOS SANTOS MATTOS</t>
+          <t>ALDO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>(55) 9942-3350</t>
+          <t>(55) 8455-1893</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3563,24 +3111,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Não apto</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Não apto</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Não apto</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>0</v>
       </c>
@@ -3588,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
@@ -3600,22 +3134,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>JOICE LUIZA LIMA GOHTEN MALEICO</t>
+          <t>LUANA SILVA KONZEN</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GUILHERME ALF</t>
+          <t>LUANA SILVA KONZEN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>(55) 9900-7108</t>
+          <t>(51) 9948-2883</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3623,18 +3157,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F59" t="n">
-        <v>0.8770833333333333</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.01666666666666667</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>0</v>
       </c>
@@ -3642,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>1242.5</v>
+        <v>3.2</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
@@ -3654,22 +3180,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>JORGE LEANDRO DOS SANTOS</t>
+          <t>MARIO JORGE FARIAS MACHADO</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>JORGE LEANDRO DOS SANTOS</t>
+          <t>MARIO JORGE FARIAS MACHADO</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>(55) 9647-9058</t>
+          <t>(55) 9152-2471</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3677,18 +3203,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F60" t="n">
-        <v>0.8490566037735849</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.01886792452830189</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.9811320754716981</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>0</v>
       </c>
@@ -3696,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>152.8</v>
+        <v>3.2</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
@@ -3708,22 +3226,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO DA SILVA COELHO</t>
+          <t>LUCAS DOS SANTOS</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO DA SILVA COELHO</t>
+          <t>LUCAS DOS SANTOS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>(51) 8129-6742</t>
+          <t>(51) 9634-6092</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3731,18 +3249,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.9158576051779935</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>0</v>
       </c>
@@ -3750,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>1389</v>
+        <v>3.2</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
@@ -3762,22 +3272,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO SILVA DE FREITAS</t>
+          <t>CESAR AUGUSTO DA VEIGA</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO SILVA DE FREITAS</t>
+          <t>CESAR AUGUSTO DA VEIGA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>(51) 9538-2750</t>
+          <t>(55) 9672-5675</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3785,18 +3295,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F62" t="n">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>0</v>
       </c>
@@ -3804,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>282</v>
+        <v>2.8</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
@@ -3816,22 +3318,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>JOSE CELSO MOURA KLATTE</t>
+          <t>JAIR JOSE NAGL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>JOSE CELSO MOURA KLATTE</t>
+          <t>JAIR JOSE NAGL</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>(51) 9823-4708</t>
+          <t>(55) 9154-5702</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3839,18 +3341,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F63" t="n">
-        <v>0.834924965893588</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.006821282401091405</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.9986357435197817</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>0</v>
       </c>
@@ -3858,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>2451.4</v>
+        <v>2.8</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
@@ -3870,35 +3364,33 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>JOSUE MARTINS BASTOS</t>
+          <t>MARCELO ADRIANO PAZ</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>JOSUE MARTINS BASTOS</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="n">
-        <v>0</v>
+          <t>MARCELO ADRIANO PAZ</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>(55) 8166-4057</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>NOME</t>
         </is>
       </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>0</v>
       </c>
@@ -3906,34 +3398,30 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>53.6</v>
+        <v>2.8</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>NÃO ENCONTRADO</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>JULIANO DA SILVA</t>
+          <t>JADER LUIS KLEIN</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>JULIANO DA SILVA</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>(54) 9189-0475</t>
-        </is>
-      </c>
+          <t>JADER LUIS KLEIN</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3941,18 +3429,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F65" t="n">
-        <v>0.6322489391796322</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.0297029702970297</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.9900990099009901</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>0</v>
       </c>
@@ -3960,34 +3440,30 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>2153</v>
+        <v>2.4</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>#ENVIADO</t>
+          <t>NÃO ENCONTRADO</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>LISLEI MACHADO STURMER</t>
+          <t>MATHEUS CUNHA NOGUEIRA</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>RENIR ANTONIO STURMER</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>(54) 9915-2194</t>
-        </is>
-      </c>
+          <t>MATHEUS CUNHA NOGUEIRA</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3995,18 +3471,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F66" t="n">
-        <v>0.005050505050505051</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>0</v>
       </c>
@@ -4014,34 +3482,34 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>805.8</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>#BLOQ PREVENTIVO</t>
-        </is>
-      </c>
+        <v>2.4</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>#ENVIADO</t>
+          <t>NÃO ENCONTRADO</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>LUANA SILVA KONZEN</t>
+          <t>CARIN LUCELI WENDT</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LUANA SILVA KONZEN</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
+          <t>CARIN LUCELI WENDT</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>(51) 9574-0589</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4049,18 +3517,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F67" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>0</v>
       </c>
@@ -4068,34 +3528,34 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>78.5</v>
+        <v>2.4</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>NÃO ENCONTRADO</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
+          <t>GELSON GAUTO DOS SANTOS</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
+          <t>GELSON GAUTO DOS SANTOS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>(55) 8127-3166</t>
+          <t>(51) 8410-7705</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4103,18 +3563,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F68" t="n">
-        <v>0.9675925925925926</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.009259259259259259</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.9976851851851852</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>0</v>
       </c>
@@ -4122,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>1322.6</v>
+        <v>2.4</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
@@ -4134,22 +3586,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MARCELO ADRIANO PAZ</t>
+          <t>HELEN NICHOLA LEWIS</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MARCELO ADRIANO PAZ</t>
+          <t>HELEN NICHOLA LEWIS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>(55) 8166-4057</t>
+          <t>(51) 9704-7787</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4157,18 +3609,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F69" t="n">
-        <v>0.8854314002828855</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.008486562942008486</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.8330975954738331</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>0</v>
       </c>
@@ -4176,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>2328</v>
+        <v>2.4</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
@@ -4188,70 +3632,68 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MARCELO BESKOW</t>
+          <t>CLAUDIO JOSE DA ROCHA REHBEIN</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MARCELO BESKOW</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="n">
-        <v>0</v>
+          <t>CLAUDIO JOSE DA ROCHA REHBEIN</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>(51) 8574-5657</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>NOME</t>
         </is>
       </c>
-      <c r="F70" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>4.785000000000001</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>100.485</v>
+        <v>2</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>NÃO ENCONTRADO</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
+          <t>MARINO MARTINS</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
+          <t>MARINO MARTINS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>(51) 9933-4806</t>
+          <t>(55) 9677-0726</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4259,18 +3701,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F71" t="n">
-        <v>0.6685393258426966</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>0</v>
       </c>
@@ -4278,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>1149.6</v>
+        <v>2</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
@@ -4290,22 +3724,22 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MARINO MARTINS</t>
+          <t>RICARDO DA SILVA HARTMANN</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MARINO MARTINS</t>
+          <t>RICARDO DA SILVA HARTMANN</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>(55) 9677-0726</t>
+          <t>(51) 9898-7460</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4313,18 +3747,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F72" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.9722222222222222</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>0</v>
       </c>
@@ -4332,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
@@ -4344,22 +3770,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MARIO JORGE FARIAS MACHADO</t>
+          <t>ANGELA MARIA MILAN</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MARIO JORGE FARIAS MACHADO</t>
+          <t>ANGELA MARIA MILAN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>(55) 9152-2471</t>
+          <t>(54) 9610-1502</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4367,18 +3793,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F73" t="n">
-        <v>0.7848101265822784</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.2405063291139241</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>0</v>
       </c>
@@ -4386,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>242</v>
+        <v>1.6</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
@@ -4398,22 +3816,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MATHEUS JOSE MORAES</t>
+          <t>IRANI BAHRY</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MATHEUS JOSE MORAES</t>
+          <t>IRANI BAHRY</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>(54) 9672-8954</t>
+          <t>(55) 9908-8847</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4421,18 +3839,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F74" t="n">
-        <v>0.8180129990714949</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.007428040854224698</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.7418755803156918</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>0</v>
       </c>
@@ -4440,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>3268.8</v>
+        <v>1.6</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
@@ -4467,7 +3877,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4475,18 +3885,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F75" t="n">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.9803921568627451</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>0</v>
       </c>
@@ -4494,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>133.5</v>
+        <v>1.6</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
@@ -4506,22 +3908,22 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MILLENA GONCALVES DA SILVA</t>
+          <t>ALEXANDRE ALVES LAMPERT</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MILLENA GONCALVES DA SILVA</t>
+          <t>ALEXANDRE ALVES LAMPERT</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>(54) 9117-7186</t>
+          <t>(51) 9733-5530</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4529,18 +3931,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F76" t="n">
-        <v>0.8866995073891626</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.002463054187192118</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>0</v>
       </c>
@@ -4548,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>2437</v>
+        <v>1.6</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
@@ -4560,22 +3954,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NERI MALMANN BAGESTAO</t>
+          <t>DANIEL LONGHI BERNARDES</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NERI MALMANN BAGESTAO</t>
+          <t>DANIEL LONGHI BERNARDES</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>(55) 9171-5366</t>
+          <t>(54) 9673-2876</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4583,18 +3977,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F77" t="n">
-        <v>0.8579545454545454</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>0</v>
       </c>
@@ -4602,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>447.5</v>
+        <v>1.6</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
@@ -4614,22 +4000,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NILTON LUIZ LINHARES DA SILVEIRA</t>
+          <t>ALCEU SIEBENBORN</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NILTON LUIZ LINHARES DA SILVEIRA</t>
+          <t>ALCEU SIEBENBORN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>(51) 9824-9764</t>
+          <t>(51) 9525-5991</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4637,18 +4023,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F78" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.9803921568627451</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>0</v>
       </c>
@@ -4656,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>616</v>
+        <v>1.2</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
@@ -4668,22 +4046,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NOENDER BERNARDES DOS SANTOS</t>
+          <t>GIOVANNYS ANTONIO ARREAZA TRILLO</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NOENDER BERNARDES DOS SANTOS</t>
+          <t>GIOVANNYS ANTONIO ARREAZA TRILLO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>(51) 9576-3887</t>
+          <t>(54) 9647-8962</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4691,18 +4069,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F79" t="n">
-        <v>0.6953125</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.015625</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>0</v>
       </c>
@@ -4710,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>430.2</v>
+        <v>1.2</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
@@ -4722,22 +4092,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ORLEI MOREIRA DE LEMOS</t>
+          <t>GERSON JAIR WOJAHN</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ORLEI MOREIRA DE LEMOS</t>
+          <t>GERSON JAIR WOJAHN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>(67) 9840-5942</t>
+          <t>(51) 9655-6882</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4745,18 +4115,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F80" t="n">
-        <v>0.988</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>0</v>
       </c>
@@ -4764,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>1530.4</v>
+        <v>1.2</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
@@ -4776,22 +4138,22 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PATRICK DOS SANTOS LIMA</t>
+          <t>GUSTAVO FONSECA DOS SANTOS</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PATRICK DOS SANTOS LIMA</t>
+          <t>GUSTAVO FONSECA DOS SANTOS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>(54) 9102-4605</t>
+          <t>(55) 9647-1296</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4799,18 +4161,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F81" t="n">
-        <v>0.7599611273080661</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.03498542274052478</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.9766763848396501</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>0</v>
       </c>
@@ -4818,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>3090</v>
+        <v>1.2</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
@@ -4830,22 +4184,22 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>RAFAEL LORENA MORAIS</t>
+          <t>NOENDER BERNARDES DOS SANTOS</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>RAFAEL LORENA MORAIS</t>
+          <t>NOENDER BERNARDES DOS SANTOS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>(54) 9216-9656</t>
+          <t>(51) 9576-3887</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4853,26 +4207,18 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F82" t="n">
-        <v>0.9979296066252588</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.002070393374741201</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.9979296066252588</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>83.15500000000077</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>1746.255</v>
+        <v>1.2</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
@@ -4884,22 +4230,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>RICARDO DA SILVA HARTMANN</t>
+          <t>CARLOS AUGUSTO DUARTE</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RICARDO DA SILVA HARTMANN</t>
+          <t>CARLOS AUGUSTO DUARTE</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>(51) 9898-7460</t>
+          <t>(51) 9501-4308</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4907,18 +4253,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F83" t="n">
-        <v>0.9095840867992767</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.003616636528028933</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>0</v>
       </c>
@@ -4926,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>1652</v>
+        <v>0.8</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
@@ -4938,22 +4276,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ROMI JOSE PAIM JACQUES</t>
+          <t>CRISTIANO SILVA DA SILVA</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ROMI JOSE PAIM JACQUES</t>
+          <t>CRISTIANO SILVA DA SILVA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>(54) 9676-4696</t>
+          <t>(51) 8057-2670</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4961,18 +4299,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F84" t="n">
-        <v>0.9971751412429378</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.007062146892655367</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.980225988700565</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>0</v>
       </c>
@@ -4980,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>2189.2</v>
+        <v>0.8</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
@@ -4992,22 +4322,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ROSANA ELIZABETE RESCKE</t>
+          <t>EDUARDO AIRES DOS SANTOS</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ROSANA ELIZABETE RESCKE</t>
+          <t>EDUARDO AIRES DOS SANTOS</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>(54) 9990-4345</t>
+          <t>(54) 8167-6827</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5015,18 +4345,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F85" t="n">
-        <v>0.7754237288135594</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.001412429378531073</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>0</v>
       </c>
@@ -5034,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>2111</v>
+        <v>0.8</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
@@ -5046,22 +4368,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SANDRO BUENO</t>
+          <t>FLAVIO LUIS KUTSCHER</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SANDRO BUENO</t>
+          <t>FLAVIO LUIS KUTSCHER</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>(55) 9916-5230</t>
+          <t>(55) 8116-4878</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -5069,18 +4391,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F86" t="n">
-        <v>0.8505050505050505</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>0</v>
       </c>
@@ -5088,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>1473.8</v>
+        <v>0.8</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
@@ -5100,22 +4414,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SIDNEI ARAUJO DA COSTA</t>
+          <t>DIEGO OLIVEIRA CUNHA</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SIDNEI ARAUJO DA COSTA</t>
+          <t>DIEGO OLIVEIRA CUNHA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>(55) 9195-0030</t>
+          <t>(51) 8484-9536</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -5123,18 +4437,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F87" t="n">
-        <v>0.8403614457831325</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.009036144578313253</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>0</v>
       </c>
@@ -5142,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>3214.2</v>
+        <v>0.4</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
@@ -5154,22 +4460,18 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SIDNEI LUIZ WOLLMANN</t>
+          <t>EVALDO DA SILVEIRA CASTRO</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SIDNEI LUIZ WOLLMANN</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>(51) 9968-1420</t>
-        </is>
-      </c>
+          <t>EVALDO DA SILVEIRA CASTRO</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5177,18 +4479,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F88" t="n">
-        <v>0.7202797202797203</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.006993006993006993</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>0</v>
       </c>
@@ -5196,34 +4490,34 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>367.1</v>
+        <v>0.4</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>#ENVIADO</t>
+          <t>NÃO ENCONTRADO</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SIDNEI OLIVEIRA DA SILVA</t>
+          <t>ADIR HAMMES VOIGT</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SIDNEI OLIVEIRA DA SILVA</t>
+          <t>ADIR HAMMES VOIGT</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>(51) 9600-9683</t>
+          <t>(55) 9128-8464</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5231,18 +4525,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F89" t="n">
-        <v>0.4258555133079848</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.9163498098859315</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>0</v>
       </c>
@@ -5250,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>837</v>
+        <v>0.4</v>
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
@@ -5262,22 +4548,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SILVANA HEINEN</t>
+          <t>GUILHERME FRANCISCO TOBIAS NETO</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SILVANA HEINEN</t>
+          <t>GUILHERME FRANCISCO TOBIAS NETO</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>(51) 9968-0775</t>
+          <t>(55) 9952-3563</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5285,18 +4571,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F90" t="n">
-        <v>0.5428156748911466</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.001451378809869376</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>0</v>
       </c>
@@ -5304,34 +4582,34 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>1928.5</v>
+        <v>0</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t>#ENVIADO</t>
+          <t>#SEM VALORES</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>VINICIUS SIQUEIRA</t>
+          <t>JOAO LUIS PAZ</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>VINICIUS SIQUEIRA</t>
+          <t>JOAO LUIS PAZ</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>(54) 9977-0063</t>
+          <t>(51) 8039-0893</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5339,18 +4617,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F91" t="n">
-        <v>0.8679577464788732</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.00352112676056338</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>0</v>
       </c>
@@ -5358,34 +4628,34 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>3762</v>
+        <v>0</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>#ENVIADO</t>
+          <t>#SEM VALORES</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>WESLEY POSSOBOM AQUINO</t>
+          <t>MANOEL AFONSO RODRIGUES</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>WESLEY POSSOBOM AQUINO</t>
+          <t>MANOEL AFONSO RODRIGUES</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>(55) 9136-2797</t>
+          <t>(54) 9913-1258</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5393,18 +4663,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F92" t="n">
-        <v>0.9289501590668081</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.005302226935312832</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.9978791092258749</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>0</v>
       </c>
@@ -5412,12 +4674,430 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>3154.4</v>
+        <v>0</v>
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
-          <t>#ENVIADO</t>
+          <t>#SEM VALORES</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ADRIANO SCHUCK</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ADRIANO SCHUCK</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>(54) 9697-7109</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>#SEM VALORES</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ALTEMIR RICARDO DOS SANTOS ASSIS</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ALTEMIR RICARDO DOS SANTOS ASSIS</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>(51) 9600-1186</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>#SEM VALORES</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ANTONIO IVALDO LIRIO DE FREITAS</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ANTONIO IVALDO LIRIO DE FREITAS</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>(54) 9915-6690</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>#SEM VALORES</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>CARLOS ANDRE BECKER</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>CARLOS ANDRE BECKER</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>(55) 8448-4094</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>#SEM VALORES</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>DILEIA LEAL FONSECA</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>DILEIA LEAL FONSECA</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>(51) 9755-5903</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>#SEM VALORES</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>FREDERICO GRAEFF NETO</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>FREDERICO GRAEFF NETO</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>(54) 9125-6760</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>#BLOQ EXTRAVIO</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>#SEM VALORES</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>GILNEI DE PAULA MACHADO</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ALISSON ROGERIO ANTUNES DA SILVA</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>(55) 9116-5125</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>#SEM VALORES</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>JADIEL FERREIRA COUTINHO</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>JADIEL FERREIRA COUTINHO</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>(54) 9189-5970</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>#SEM VALORES</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>MATHEUS JOSE MORAES</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>MATHEUS JOSE MORAES</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>(54) 9672-8954</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>#SEM VALORES</t>
         </is>
       </c>
     </row>

--- a/Relatorios/ENVIOS.xlsx
+++ b/Relatorios/ENVIOS.xlsx
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WESLEY POSSOBOM AQUINO</t>
+          <t>ADEMIR JOSE FRANTZ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WESLEY POSSOBOM AQUINO</t>
+          <t>ADEMIR JOSE FRANTZ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(55) 9136-2797</t>
+          <t>(51) 9396-9314</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>87.59999999999999</v>
+        <v>1741.6</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
@@ -554,17 +554,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CAMILA FERNANDA ZAMBIASI GARDINO</t>
+          <t>ADEMIR VALMOR HUF</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CAMILA FERNANDA ZAMBIASI GARDINO</t>
+          <t>ADEMIR VALMOR HUF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(54) 9697-7109</t>
+          <t>(54) 9174-0722</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>87.2</v>
+        <v>715.8</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
@@ -600,17 +600,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JOSUE MARTINS BASTOS</t>
+          <t>ADIR HAMMES VOIGT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JOSUE MARTINS BASTOS</t>
+          <t>ADIR HAMMES VOIGT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(51) 9540-9705</t>
+          <t>(55) 9128-8464</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>79.8</v>
+        <v>52.9</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
@@ -646,17 +646,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NELSON SUCHEK</t>
+          <t>ADRIANO SCHUCK</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NELSON SUCHEK</t>
+          <t>CAMILA FERNANDA ZAMBIASI GARDINO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(54) 8411-2671</t>
+          <t>(54) 9697-7109</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>79.2</v>
+        <v>552</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
@@ -692,17 +692,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JANADARA SILVEIRA AGUIAR</t>
+          <t>ALCEU SIEBENBORN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JANADARA SILVEIRA AGUIAR</t>
+          <t>ALCEU SIEBENBORN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(55) 8165-9919</t>
+          <t>(51) 9525-5991</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -726,29 +726,29 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>72</v>
+        <v>815.6</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>NÃO ENCONTRADO</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SIDNEI ARAUJO DA COSTA</t>
+          <t>ALDO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SIDNEI ARAUJO DA COSTA</t>
+          <t>ALDO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(55) 9195-0030</t>
+          <t>(55) 8455-1893</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>63.6</v>
+        <v>162.6</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
@@ -784,17 +784,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANDRIELI ZUGEL DA SILVA SIMONINI</t>
+          <t>ALEXANDRE ALVES LAMPERT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ALEXANDRO SIMONINI</t>
+          <t>ALEXANDRE ALVES LAMPERT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(55) 9146-5777</t>
+          <t>(51) 9733-5530</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>62.8</v>
+        <v>1315</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
@@ -830,17 +830,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ANGELA CRISTINA ZWAN</t>
+          <t>ALTEMIR RICARDO DOS SANTOS ASSIS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ANGELA CRISTINA ZWAN</t>
+          <t>ALTEMIR RICARDO DOS SANTOS ASSIS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>(55) 9656-9727</t>
+          <t>(51) 9600-1186</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -864,29 +864,33 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>59.2</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>24.75</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>#CLT</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>#ENVIADO</t>
+          <t>#CLT</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BRUNO DUARTE VARGAS</t>
+          <t>ANDRE LUIS GONCALVES MOREIRA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BRUNO DUARTE VARGAS</t>
+          <t>ANDRE LUIS GONCALVES MOREIRA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(51) 9788-5876</t>
+          <t>(31) 9928-8827</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -910,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>38.8</v>
+        <v>1706.4</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
@@ -922,17 +926,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JULIANO DA SILVA</t>
+          <t>ANGELA CRISTINA ZWAN</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>JULIANO DA SILVA</t>
+          <t>ANGELA CRISTINA ZWAN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(54) 9189-0475</t>
+          <t>(55) 9656-9727</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -956,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>35.2</v>
+        <v>1758</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
@@ -968,17 +972,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SANDRO BUENO</t>
+          <t>ANGELA MARIA MILAN</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SANDRO BUENO</t>
+          <t>ANGELA MARIA MILAN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>(55) 9916-5230</t>
+          <t>(54) 9610-1502</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1002,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>34.8</v>
+        <v>838.6</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
@@ -1014,17 +1018,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EMERSON LUIS SOARES</t>
+          <t>ANTONIO IVALDO LIRIO DE FREITAS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EMERSON LUIS SOARES</t>
+          <t>ANTONIO IVALDO LIRIO DE FREITAS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>(51) 9871-2338</t>
+          <t>(54) 9915-6690</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1048,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>32.8</v>
+        <v>210</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
@@ -1060,17 +1064,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RAFAEL LORENA MORAIS</t>
+          <t>BRUNO DUARTE VARGAS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RAFAEL LORENA MORAIS</t>
+          <t>BRUNO DUARTE VARGAS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>(54) 9216-9656</t>
+          <t>(51) 9788-5876</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1094,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>28.4</v>
+        <v>5660.5</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
@@ -1106,17 +1110,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
+          <t>CAMILA FATIMA DOS SANTOS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
+          <t>CAMILA FATIMA DOS SANTOS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>(51) 9933-4806</t>
+          <t>(51) 9942-5104</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1140,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>22</v>
+        <v>386.5</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
@@ -1152,17 +1156,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MARCELO BESKOW</t>
+          <t>CAMILA FERNANDA ZAMBIASI GARDINO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MARCELO BESKOW</t>
+          <t>CAMILA FERNANDA ZAMBIASI GARDINO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>(51) 9781-5956</t>
+          <t>(54) 9697-7109</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1186,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>21.6</v>
+        <v>890.2</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
@@ -1198,17 +1202,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ROMI JOSE PAIM JACQUES</t>
+          <t>CARIN LUCELI WENDT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ROMI JOSE PAIM JACQUES</t>
+          <t>CARIN LUCELI WENDT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>(54) 9676-4696</t>
+          <t>(51) 9574-0589</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1232,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>21.6</v>
+        <v>194.4</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
@@ -1244,17 +1248,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DANRLEI DOS SANTOS DE VARGAS</t>
+          <t>CARLOS ANDRE BECKER</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DANRLEI DOS SANTOS DE VARGAS</t>
+          <t>CARLOS ANDRE BECKER</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>(55) 9701-3353</t>
+          <t>(55) 8448-4094</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1278,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>20.4</v>
+        <v>28.5</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
@@ -1290,17 +1294,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ELISIANE REISNER</t>
+          <t>CARLOS AUGUSTO DUARTE</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ELISIANE REISNER</t>
+          <t>CARLOS AUGUSTO DUARTE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>(54) 9904-5930</t>
+          <t>(51) 9501-4308</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1324,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>18.8</v>
+        <v>244</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
@@ -1336,17 +1340,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>JOICE LUIZA LIMA GOHTEN MALEICO</t>
+          <t>CARLOS CAETANO STIEGELMEIER</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GUILHERME ALF</t>
+          <t>CARLOS CAETANO STIEGELMEIER</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>(55) 9900-7108</t>
+          <t>(55) 9654-2473</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1370,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>16.4</v>
+        <v>611.4</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
@@ -1382,17 +1386,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SIDNEI OLIVEIRA DA SILVA</t>
+          <t>CESAR AUGUSTO DA VEIGA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SIDNEI OLIVEIRA DA SILVA</t>
+          <t>CESAR AUGUSTO DA VEIGA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>(51) 9600-9683</t>
+          <t>(55) 9672-5675</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1416,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>15.2</v>
+        <v>242.8</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
@@ -1428,17 +1432,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ADEMIR VALMOR HUF</t>
+          <t>CESAR AUGUSTO LUBIAN</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ADEMIR VALMOR HUF</t>
+          <t>CESAR AUGUSTO LUBIAN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>(54) 9174-0722</t>
+          <t>(54) 9674-9440</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1462,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>14.4</v>
+        <v>1476.2</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
@@ -1474,17 +1478,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
+          <t>CINTIA ANSCHAU</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
+          <t>GIOVANI VIGOLO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>(55) 8127-3166</t>
+          <t>(51) 9700-3386</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1508,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>14.4</v>
+        <v>269.4</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
@@ -1520,17 +1524,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GILMAR BENCKE</t>
+          <t>CLAUDIO JOSE DA ROCHA REHBEIN</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GILMAR BENCKE</t>
+          <t>CLAUDIO JOSE DA ROCHA REHBEIN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>(55) 9990-2953</t>
+          <t>(51) 8574-5657</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1554,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>13.6</v>
+        <v>1086.9</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
@@ -1566,17 +1570,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>JOSE CELSO MOURA KLATTE</t>
+          <t>CRISTIANO GUNSCH</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>JOSE CELSO MOURA KLATTE</t>
+          <t>CRISTIANO GUNSCH</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>(51) 9823-4708</t>
+          <t>(55) 8423-2725</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1600,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>13.6</v>
+        <v>303.6</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
@@ -1612,17 +1616,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DORCELIDE RODRIGUES</t>
+          <t>CRISTIANO SILVA DA SILVA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DORCELIDE RODRIGUES</t>
+          <t>CRISTIANO SILVA DA SILVA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>(54) 9671-6418</t>
+          <t>(51) 8057-2670</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1646,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>12.8</v>
+        <v>369.4</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
@@ -1658,17 +1662,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GERCEI MOURA DE ALMEIDA</t>
+          <t>DANIEL LONGHI BERNARDES</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GERCEI MOURA DE ALMEIDA</t>
+          <t>DANIEL LONGHI BERNARDES</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>(51) 9958-3144</t>
+          <t>(54) 9673-2876</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1692,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>12.8</v>
+        <v>1505.6</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
@@ -1704,17 +1708,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>VINICIUS SIQUEIRA</t>
+          <t>DANRLEI DOS SANTOS DE VARGAS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VINICIUS SIQUEIRA</t>
+          <t>DANRLEI DOS SANTOS DE VARGAS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>(54) 9977-0063</t>
+          <t>(55) 9701-3353</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1738,29 +1742,29 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>11.6</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>#ENVIADO</t>
+          <t>NÃO ENCONTRADO</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FELIPE AMARAL DA COSTA</t>
+          <t>DARLAN SCHUSTER</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MOISES EDEGAR CAVALHEIRO</t>
+          <t>DARLAN SCHUSTER</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>(54) 9707-1626</t>
+          <t>(51) 9541-2725</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1784,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>11.2</v>
+        <v>1381</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
@@ -1796,17 +1800,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FERNANDO BONDAN</t>
+          <t>DIEGO OLIVEIRA CUNHA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FERNANDO BONDAN</t>
+          <t>DIEGO OLIVEIRA CUNHA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>(54) 9961-8533</t>
+          <t>(51) 8484-9536</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1830,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>11.2</v>
+        <v>106.4</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
@@ -1842,17 +1846,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LISLEI MACHADO STURMER</t>
+          <t>DILEIA LEAL FONSECA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RENIR ANTONIO STURMER</t>
+          <t>DILEIA LEAL FONSECA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>(54) 9915-2194</t>
+          <t>(51) 9755-5903</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1876,13 +1880,9 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>#BLOQ PREVENTIVO</t>
-        </is>
-      </c>
+        <v>56.7</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
           <t>#ENVIADO</t>
@@ -1892,17 +1892,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ADEMIR JOSE FRANTZ</t>
+          <t>DORCELIDE RODRIGUES</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ADEMIR JOSE FRANTZ</t>
+          <t>DORCELIDE RODRIGUES</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>(51) 9396-9314</t>
+          <t>(54) 9671-6418</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>10.4</v>
+        <v>1950.8</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
@@ -1938,19 +1938,15 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CINTIA ANSCHAU</t>
+          <t>EDSON MATEUS CARVALHO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GIOVANI VIGOLO</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>(51) 9700-3386</t>
-        </is>
-      </c>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
           <t>PFD</t>
@@ -1972,29 +1968,33 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>#FAKE</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>#ENVIADO</t>
+          <t>#FAKE</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CARLOS CAETANO STIEGELMEIER</t>
+          <t>EDUARDO AIRES DOS SANTOS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CARLOS CAETANO STIEGELMEIER</t>
+          <t>EDUARDO AIRES DOS SANTOS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>(55) 9654-2473</t>
+          <t>(54) 8167-6827</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>8.4</v>
+        <v>646.8</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
@@ -2030,17 +2030,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SIDNEI LUIZ WOLLMANN</t>
+          <t>EDUARDO SCHMACHTENBERG</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SIDNEI LUIZ WOLLMANN</t>
+          <t>EDUARDO SCHMACHTENBERG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>(51) 9968-1420</t>
+          <t>(51) 9750-2464</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>8.4</v>
+        <v>1103.2</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
@@ -2076,17 +2076,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PATRICK DOS SANTOS LIMA</t>
+          <t>ELISIANE REISNER</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PATRICK DOS SANTOS LIMA</t>
+          <t>ELISIANE REISNER</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>(54) 9102-4605</t>
+          <t>(54) 9904-5930</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>8</v>
+        <v>494.8</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
@@ -2122,17 +2122,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SILVANA HEINEN</t>
+          <t>EMERSON LUIS SOARES</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SILVANA HEINEN</t>
+          <t>EMERSON LUIS SOARES</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>(51) 9968-0775</t>
+          <t>(51) 9871-2338</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>8</v>
+        <v>667</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
@@ -2168,17 +2168,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NILTON LUIZ LINHARES DA SILVEIRA</t>
+          <t>ERNI ANTONIO MENEGAZZI</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NILTON LUIZ LINHARES DA SILVEIRA</t>
+          <t>ERNI ANTONIO MENEGAZZI</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>(51) 9824-9764</t>
+          <t>(55) 9623-0252</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2202,29 +2202,29 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>6.8</v>
+        <v>18</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>#ENVIADO</t>
+          <t>#SEM VALOR</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ROBERTO BAGGIO</t>
+          <t>EVANDRO SOUZA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ROBERTO BAGGIO</t>
+          <t>EVANDRO SOUZA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>(55) 9709-3625</t>
+          <t>(51) 9691-1472</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>6.7</v>
+        <v>620.8</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
@@ -2260,17 +2260,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GILMAR SOARES BRASIL</t>
+          <t>EVERTON DE MACEDO RIBEIRO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GILMAR SOARES BRASIL</t>
+          <t>EVERTON DE MACEDO RIBEIRO</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>(51) 9533-4288</t>
+          <t>(54) 8436-7053</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2294,29 +2294,29 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>6.4</v>
+        <v>31</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>#ENVIADO</t>
+          <t>#SEM VALOR</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO DA SILVA COELHO</t>
+          <t>FABIO AUGUSTO MATICOLLI LOPES</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO DA SILVA COELHO</t>
+          <t>FABIO AUGUSTO MATICOLLI LOPES</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>(51) 8129-6742</t>
+          <t>(51) 9918-9541</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>5.6</v>
+        <v>1926.8</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
@@ -2352,17 +2352,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GIORDANI JACOMINI</t>
+          <t>FELIPE AMARAL DA COSTA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RODRIGO ZANDONA</t>
+          <t>MOISES EDEGAR CAVALHEIRO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>(54) 9616-9421</t>
+          <t>(54) 9707-1626</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>5.6</v>
+        <v>1246.2</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
@@ -2398,17 +2398,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CESAR AUGUSTO LUBIAN</t>
+          <t>FERNANDO BATISTA DE ANDRADE</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CESAR AUGUSTO LUBIAN</t>
+          <t>FERNANDO BATISTA DE ANDRADE</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>(54) 9674-9440</t>
+          <t>(51) 9677-6313</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2432,29 +2432,29 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.2</v>
+        <v>147.9</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>#ENVIADO</t>
+          <t>NÃO ENCONTRADO</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>EDUARDO SCHMACHTENBERG</t>
+          <t>FERNANDO BONDAN</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EDUARDO SCHMACHTENBERG</t>
+          <t>FERNANDO BONDAN</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>(51) 9750-2464</t>
+          <t>(54) 9961-8533</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>5.2</v>
+        <v>1016.8</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
@@ -2490,17 +2490,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>GABRIEL DUARTE MACHADO</t>
+          <t>FLAVIO LUIS KUTSCHER</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GABRIEL DUARTE MACHADO</t>
+          <t>FLAVIO LUIS KUTSCHER</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>(55) 9205-5778</t>
+          <t>(55) 8116-4878</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>5.2</v>
+        <v>1835</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
@@ -2536,17 +2536,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>IVAN NUNES</t>
+          <t>GABRIEL DUARTE MACHADO</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>IVAN NUNES</t>
+          <t>GABRIEL DUARTE MACHADO</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>(54) 8421-0988</t>
+          <t>(55) 9205-5778</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>5.2</v>
+        <v>892.4</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
@@ -2582,17 +2582,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TIAGO DE ALMEIDA</t>
+          <t>GABRIEL WEIDLE MARTINS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TIAGO DE ALMEIDA</t>
+          <t>GABRIEL WEIDLE MARTINS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>(59) 9661-5848</t>
+          <t>(51) 9206-7679</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2616,29 +2616,29 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>4.8</v>
+        <v>366.8</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>NÃO ENCONTRADO</t>
+          <t>#SEM VALOR</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ANDRE LUIS GONCALVES MOREIRA</t>
+          <t>GELSON GAUTO DOS SANTOS</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ANDRE LUIS GONCALVES MOREIRA</t>
+          <t>GELSON GAUTO DOS SANTOS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>(31) 9928-8827</t>
+          <t>(51) 8410-7705</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>4.8</v>
+        <v>764.4</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
@@ -2674,17 +2674,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>EVANDRO SOUZA DE OLIVEIRA</t>
+          <t>GERCEI MOURA DE ALMEIDA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EVANDRO SOUZA DE OLIVEIRA</t>
+          <t>GERCEI MOURA DE ALMEIDA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>(51) 9691-1472</t>
+          <t>(51) 9958-3144</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>4.8</v>
+        <v>1506</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
@@ -2720,17 +2720,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FABIO AUGUSTO MATICOLLI LOPES</t>
+          <t>GERSON JAIR WOJAHN</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FABIO AUGUSTO MATICOLLI LOPES</t>
+          <t>GERSON JAIR WOJAHN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>(51) 9918-9541</t>
+          <t>(51) 9655-6882</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>4.4</v>
+        <v>58.2</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
@@ -2766,17 +2766,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MILLENA GONCALVES DA SILVA</t>
+          <t>GILMAR BENCKE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MILLENA GONCALVES DA SILVA</t>
+          <t>GILMAR BENCKE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>(54) 9117-7186</t>
+          <t>(55) 9990-2953</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>4.4</v>
+        <v>719.3</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
@@ -2812,17 +2812,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NERI MALMANN BAGESTAO</t>
+          <t>GILMAR SOARES BRASIL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NERI MALMANN BAGESTAO</t>
+          <t>GILMAR SOARES BRASIL</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>(55) 9171-5366</t>
+          <t>(51) 9533-4288</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>4.4</v>
+        <v>197.4</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
@@ -2858,17 +2858,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CLEDERSON IDENIO SCHMITT</t>
+          <t>GILNEI DE PAULA MACHADO</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CLEDERSON IDENIO SCHMITT</t>
+          <t>ALISSON ROGERIO ANTUNES DA SILVA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>(53) 8158-5042</t>
+          <t>(55) 9116-5125</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
@@ -2904,17 +2904,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CAMILA FATIMA DOS SANTOS</t>
+          <t>GIORDANI JACOMINI</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CAMILA FATIMA DOS SANTOS</t>
+          <t>RODRIGO ZANDONA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>(51) 9942-5104</t>
+          <t>(54) 9616-9421</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>2675.6</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
@@ -2950,17 +2950,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DARLAN SCHUSTER</t>
+          <t>GIOVANNYS ANTONIO ARREAZA TRILLO</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DARLAN SCHUSTER</t>
+          <t>GIOVANNYS ANTONIO ARREAZA TRILLO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>(51) 9541-2725</t>
+          <t>(54) 9647-8962</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>832.2</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
@@ -2996,17 +2996,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>FERNANDO BATISTA DE ANDRADE</t>
+          <t>GUILHERME FRANCISCO TOBIAS NETO</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FERNANDO BATISTA DE ANDRADE</t>
+          <t>GUILHERME FRANCISCO TOBIAS NETO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>(51) 9677-6313</t>
+          <t>(55) 9952-3563</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>60.5</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
@@ -3042,17 +3042,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>JORGE LEANDRO DOS SANTOS</t>
+          <t>GUSTAVO FONSECA DOS SANTOS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>JORGE LEANDRO DOS SANTOS</t>
+          <t>GUSTAVO FONSECA DOS SANTOS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>(55) 9647-9058</t>
+          <t>(55) 9647-1296</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>71.2</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
@@ -3088,17 +3088,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ALDO DE OLIVEIRA</t>
+          <t>HELEN NICHOLA LEWIS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ALDO DE OLIVEIRA</t>
+          <t>HELEN NICHOLA LEWIS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>(55) 8455-1893</t>
+          <t>(51) 9704-7787</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>3.6</v>
+        <v>899.2</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
@@ -3134,17 +3134,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LUANA SILVA KONZEN</t>
+          <t>IRANI BAHRY</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>LUANA SILVA KONZEN</t>
+          <t>IRANI BAHRY</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>(51) 9948-2883</t>
+          <t>(55) 9908-8847</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>3.2</v>
+        <v>462.9</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
@@ -3180,17 +3180,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MARIO JORGE FARIAS MACHADO</t>
+          <t>IVAN NUNES</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MARIO JORGE FARIAS MACHADO</t>
+          <t>IVAN NUNES</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>(55) 9152-2471</t>
+          <t>(54) 8421-0988</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>3.2</v>
+        <v>841</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
@@ -3226,17 +3226,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>LUCAS DOS SANTOS</t>
+          <t>JADIEL FERREIRA COUTINHO</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LUCAS DOS SANTOS</t>
+          <t>JADIEL FERREIRA COUTINHO</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>(51) 9634-6092</t>
+          <t>(54) 9189-5970</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>3.2</v>
+        <v>112.2</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
@@ -3272,17 +3272,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CESAR AUGUSTO DA VEIGA</t>
+          <t>JAIR JOSE NAGL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CESAR AUGUSTO DA VEIGA</t>
+          <t>JAIR JOSE NAGL</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>(55) 9672-5675</t>
+          <t>(55) 9154-5702</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>2.8</v>
+        <v>168</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
@@ -3318,17 +3318,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>JAIR JOSE NAGL</t>
+          <t>JANADARA SILVEIRA AGUIAR</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>JAIR JOSE NAGL</t>
+          <t>JANADARA SILVEIRA AGUIAR</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>(55) 9154-5702</t>
+          <t>(55) 8165-9919</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3352,29 +3352,29 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>2.8</v>
+        <v>1086.4</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>#ENVIADO</t>
+          <t>NÃO ENCONTRADO</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MARCELO ADRIANO PAZ</t>
+          <t>JOICE LUIZA LIMA GOHTEN MALEICO</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MARCELO ADRIANO PAZ</t>
+          <t>GUILHERME ALF</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>(55) 8166-4057</t>
+          <t>(55) 9900-7108</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>2.8</v>
+        <v>609.4</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
@@ -3410,15 +3410,19 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>JADER LUIS KLEIN</t>
+          <t>JORGE LEANDRO DOS SANTOS</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>JADER LUIS KLEIN</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
+          <t>JORGE LEANDRO DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>(55) 9647-9058</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>PFD</t>
@@ -3440,27 +3444,31 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>2.4</v>
+        <v>116</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>NÃO ENCONTRADO</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MATHEUS CUNHA NOGUEIRA</t>
+          <t>JOSE ANTONIO DA SILVA COELHO</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MATHEUS CUNHA NOGUEIRA</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+          <t>JOSE ANTONIO DA SILVA COELHO</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>(51) 8129-6742</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>PFD</t>
@@ -3482,29 +3490,29 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>2.4</v>
+        <v>1481.1</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>NÃO ENCONTRADO</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CARIN LUCELI WENDT</t>
+          <t>JOSE AUGUSTO DA SILVA PAZ</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CARIN LUCELI WENDT</t>
+          <t>JOSE AUGUSTO DA SILVA PAZ</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>(51) 9574-0589</t>
+          <t>(54) 9240-3181</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3528,29 +3536,29 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>2.4</v>
+        <v>61</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>#ENVIADO</t>
+          <t>#SEM VALOR</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>GELSON GAUTO DOS SANTOS</t>
+          <t>JOSE CELSO MOURA KLATTE</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>GELSON GAUTO DOS SANTOS</t>
+          <t>JOSE CELSO MOURA KLATTE</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>(51) 8410-7705</t>
+          <t>(51) 9823-4708</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3574,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>2.4</v>
+        <v>1894.6</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
@@ -3586,17 +3594,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HELEN NICHOLA LEWIS</t>
+          <t>JOSUE MARTINS BASTOS</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>HELEN NICHOLA LEWIS</t>
+          <t>JOSUE MARTINS BASTOS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>(51) 9704-7787</t>
+          <t>(51) 9615-6048</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3620,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>2.4</v>
+        <v>186.8</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
@@ -3632,17 +3640,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CLAUDIO JOSE DA ROCHA REHBEIN</t>
+          <t>JULIANO DA SILVA</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CLAUDIO JOSE DA ROCHA REHBEIN</t>
+          <t>JULIANO DA SILVA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>(51) 8574-5657</t>
+          <t>(54) 9189-0475</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3666,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>2</v>
+        <v>1263.2</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
@@ -3678,17 +3686,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MARINO MARTINS</t>
+          <t>LEONARDO DOMINGUES</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MARINO MARTINS</t>
+          <t>LEONARDO DOMINGUES</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>(55) 9677-0726</t>
+          <t>(55) 9653-1689</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3712,29 +3720,29 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>2</v>
+        <v>72.8</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>#ENVIADO</t>
+          <t>#SEM VALOR</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>RICARDO DA SILVA HARTMANN</t>
+          <t>LISLEI MACHADO STURMER</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>RICARDO DA SILVA HARTMANN</t>
+          <t>RENIR ANTONIO STURMER</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>(51) 9898-7460</t>
+          <t>(54) 9915-2194</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3758,29 +3766,33 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>542.2</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>#BLOQ PREVENTIVO</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>#ENVIADO</t>
+          <t>#BLOQ PREVENTIVO</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ANGELA MARIA MILAN</t>
+          <t>LUANA SILVA KONZEN</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ANGELA MARIA MILAN</t>
+          <t>LUANA SILVA KONZEN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>(54) 9610-1502</t>
+          <t>(51) 9948-2883</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3804,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>1.6</v>
+        <v>65.2</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
@@ -3816,17 +3828,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IRANI BAHRY</t>
+          <t>LUCAS DOS SANTOS</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>IRANI BAHRY</t>
+          <t>LUCAS DOS SANTOS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>(55) 9908-8847</t>
+          <t>(51) 9634-6092</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3850,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>1.6</v>
+        <v>1017.1</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
@@ -3862,17 +3874,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MAURI JOSE JUSTEN</t>
+          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MAURI JOSE JUSTEN</t>
+          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>(55) 9991-9176</t>
+          <t>(55) 8127-3166</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3896,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>1.6</v>
+        <v>884.4</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
@@ -3908,17 +3920,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ALEXANDRE ALVES LAMPERT</t>
+          <t>MARCELO BESKOW</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ALEXANDRE ALVES LAMPERT</t>
+          <t>MARCELO BESKOW</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>(51) 9733-5530</t>
+          <t>(51) 9781-5956</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3942,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>1.6</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
@@ -3954,17 +3966,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DANIEL LONGHI BERNARDES</t>
+          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DANIEL LONGHI BERNARDES</t>
+          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>(54) 9673-2876</t>
+          <t>(51) 9933-4806</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3988,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>1.6</v>
+        <v>205</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
@@ -4000,17 +4012,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ALCEU SIEBENBORN</t>
+          <t>MARINO MARTINS</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ALCEU SIEBENBORN</t>
+          <t>MARINO MARTINS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>(51) 9525-5991</t>
+          <t>(55) 9677-0726</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4034,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>1.2</v>
+        <v>54</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
@@ -4046,17 +4058,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>GIOVANNYS ANTONIO ARREAZA TRILLO</t>
+          <t>MARIO JORGE FARIAS MACHADO</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GIOVANNYS ANTONIO ARREAZA TRILLO</t>
+          <t>MARIO JORGE FARIAS MACHADO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>(54) 9647-8962</t>
+          <t>(55) 9152-2471</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4080,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>1.2</v>
+        <v>112.2</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
@@ -4092,17 +4104,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>GERSON JAIR WOJAHN</t>
+          <t>MATHEUS CUNHA NOGUEIRA</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GERSON JAIR WOJAHN</t>
+          <t>MATHEUS CUNHA NOGUEIRA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>(51) 9655-6882</t>
+          <t>(51) 9774-5695</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4126,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>1.2</v>
+        <v>532.9</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
@@ -4138,17 +4150,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>GUSTAVO FONSECA DOS SANTOS</t>
+          <t>MATHEUS JOSE MORAES</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GUSTAVO FONSECA DOS SANTOS</t>
+          <t>MATHEUS JOSE MORAES</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>(55) 9647-1296</t>
+          <t>(54) 9672-8954</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4172,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>1.2</v>
+        <v>2214</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
@@ -4184,17 +4196,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>NOENDER BERNARDES DOS SANTOS</t>
+          <t>MAURI JOSE JUSTEN</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NOENDER BERNARDES DOS SANTOS</t>
+          <t>MAURI JOSE JUSTEN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>(51) 9576-3887</t>
+          <t>(55) 9991-9176</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4218,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>1.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
@@ -4230,17 +4242,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CARLOS AUGUSTO DUARTE</t>
+          <t>MICHAEL DOUGLAS GONCALVES</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CARLOS AUGUSTO DUARTE</t>
+          <t>MICHAEL DOUGLAS GONCALVES</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>(51) 9501-4308</t>
+          <t>(54) 9944-0199</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4264,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0.8</v>
+        <v>600</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
@@ -4276,17 +4288,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CRISTIANO SILVA DA SILVA</t>
+          <t>MILLENA GONCALVES DA SILVA</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CRISTIANO SILVA DA SILVA</t>
+          <t>MILLENA GONCALVES DA SILVA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>(51) 8057-2670</t>
+          <t>(54) 9117-7186</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4310,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0.8</v>
+        <v>1554.4</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
@@ -4322,17 +4334,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>EDUARDO AIRES DOS SANTOS</t>
+          <t>NELSON SUCHEK</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>EDUARDO AIRES DOS SANTOS</t>
+          <t>NELSON SUCHEK</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>(54) 8167-6827</t>
+          <t>(54) 8411-2671</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4356,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0.8</v>
+        <v>1305.6</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
@@ -4368,17 +4380,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>FLAVIO LUIS KUTSCHER</t>
+          <t>NERI MALMANN BAGESTAO</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FLAVIO LUIS KUTSCHER</t>
+          <t>NERI MALMANN BAGESTAO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>(55) 8116-4878</t>
+          <t>(55) 9171-5366</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4402,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0.8</v>
+        <v>274.4</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
@@ -4414,17 +4426,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DIEGO OLIVEIRA CUNHA</t>
+          <t>PATRICK DOS SANTOS LIMA</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DIEGO OLIVEIRA CUNHA</t>
+          <t>PATRICK DOS SANTOS LIMA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>(51) 8484-9536</t>
+          <t>(54) 9102-4605</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4448,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0.4</v>
+        <v>1951</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
@@ -4460,15 +4472,19 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>EVALDO DA SILVEIRA CASTRO</t>
+          <t>RICARDO DA SILVA HARTMANN</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>EVALDO DA SILVEIRA CASTRO</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>RICARDO DA SILVA HARTMANN</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>(51) 9898-7460</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>PFD</t>
@@ -4490,29 +4506,29 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0.4</v>
+        <v>1073</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>NÃO ENCONTRADO</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ADIR HAMMES VOIGT</t>
+          <t>ROBERTO BAGGIO</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ADIR HAMMES VOIGT</t>
+          <t>ROBERTO BAGGIO</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>(55) 9128-8464</t>
+          <t>(55) 9709-3625</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4536,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>0.4</v>
+        <v>67.3</v>
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
@@ -4548,17 +4564,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>GUILHERME FRANCISCO TOBIAS NETO</t>
+          <t>RODRIGO SIQUEIRA DE SOUZA</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GUILHERME FRANCISCO TOBIAS NETO</t>
+          <t>RODRIGO SIQUEIRA DE SOUZA</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>(55) 9952-3563</t>
+          <t>(54) 9903-9758</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4587,24 +4603,24 @@
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t>#SEM VALORES</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>JOAO LUIS PAZ</t>
+          <t>ROMI JOSE PAIM JACQUES</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>JOAO LUIS PAZ</t>
+          <t>ROMI JOSE PAIM JACQUES</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>(51) 8039-0893</t>
+          <t>(54) 9676-4696</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4628,29 +4644,29 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1575</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>#SEM VALORES</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MANOEL AFONSO RODRIGUES</t>
+          <t>ROSINEI WIEDEMANN GRAUPE</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MANOEL AFONSO RODRIGUES</t>
+          <t>ROSINEI WIEDEMANN GRAUPE</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>(54) 9913-1258</t>
+          <t>(55) 9997-9445</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4674,29 +4690,29 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
-          <t>#SEM VALORES</t>
+          <t>#SEM VALOR</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ADRIANO SCHUCK</t>
+          <t>SANDRO BUENO</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ADRIANO SCHUCK</t>
+          <t>SANDRO BUENO</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>(54) 9697-7109</t>
+          <t>(55) 9916-5230</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4720,29 +4736,29 @@
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>797.6</v>
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
-          <t>#SEM VALORES</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ALTEMIR RICARDO DOS SANTOS ASSIS</t>
+          <t>SIDNEI ARAUJO DA COSTA</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ALTEMIR RICARDO DOS SANTOS ASSIS</t>
+          <t>SIDNEI ARAUJO DA COSTA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>(51) 9600-1186</t>
+          <t>(55) 9195-0030</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4766,29 +4782,29 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1953.8</v>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
-          <t>#SEM VALORES</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ANTONIO IVALDO LIRIO DE FREITAS</t>
+          <t>SIDNEI LUIZ WOLLMANN</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ANTONIO IVALDO LIRIO DE FREITAS</t>
+          <t>SIDNEI LUIZ WOLLMANN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>(54) 9915-6690</t>
+          <t>(51) 9968-1420</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4812,29 +4828,29 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>475.5</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
-          <t>#SEM VALORES</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CARLOS ANDRE BECKER</t>
+          <t>SIDNEI OLIVEIRA DA SILVA</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CARLOS ANDRE BECKER</t>
+          <t>SIDNEI OLIVEIRA DA SILVA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>(55) 8448-4094</t>
+          <t>(51) 9600-9683</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4858,29 +4874,29 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>392.2</v>
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
-          <t>#SEM VALORES</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>DILEIA LEAL FONSECA</t>
+          <t>SILVANA HEINEN</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DILEIA LEAL FONSECA</t>
+          <t>SILVANA HEINEN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>(51) 9755-5903</t>
+          <t>(51) 9968-0775</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4904,29 +4920,29 @@
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1685.45</v>
       </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
-          <t>#SEM VALORES</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>FREDERICO GRAEFF NETO</t>
+          <t>TALUSA STADTLOBER</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FREDERICO GRAEFF NETO</t>
+          <t>TALUSA STADTLOBER</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>(54) 9125-6760</t>
+          <t>(55) 9196-7909</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4950,33 +4966,29 @@
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>#BLOQ EXTRAVIO</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
-          <t>#SEM VALORES</t>
+          <t>#SEM VALOR</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>GILNEI DE PAULA MACHADO</t>
+          <t>TIAGO DE ALMEIDA</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ALISSON ROGERIO ANTUNES DA SILVA</t>
+          <t>TIAGO DE ALMEIDA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>(55) 9116-5125</t>
+          <t>(59) 9661-5848</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5000,29 +5012,29 @@
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
-          <t>#SEM VALORES</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>JADIEL FERREIRA COUTINHO</t>
+          <t>VINICIUS SIQUEIRA</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>JADIEL FERREIRA COUTINHO</t>
+          <t>VINICIUS SIQUEIRA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>(54) 9189-5970</t>
+          <t>(54) 9977-0063</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5046,29 +5058,29 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>2603.6</v>
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr">
         <is>
-          <t>#SEM VALORES</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MATHEUS JOSE MORAES</t>
+          <t>WESLEY POSSOBOM AQUINO</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MATHEUS JOSE MORAES</t>
+          <t>WESLEY POSSOBOM AQUINO</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>(54) 9672-8954</t>
+          <t>(55) 9136-2797</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5092,12 +5104,12 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>2318.8</v>
       </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
-          <t>#SEM VALORES</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>

--- a/Relatorios/ENVIOS.xlsx
+++ b/Relatorios/ENVIOS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -531,18 +531,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.02203389830508475</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
         <v>0</v>
       </c>
@@ -550,12 +542,12 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1826</v>
+        <v>1741.6</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>NÃO ENCONTRADO</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
@@ -577,7 +569,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -585,18 +577,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9910313901345291</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -604,10 +588,14 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>673.4</v>
+        <v>715.8</v>
       </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -627,7 +615,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -635,49 +623,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.948750000000002</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.9238</v>
+        <v>52.9</v>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ALCEU SIEBENBORN</t>
+          <t>ADRIANO SCHUCK</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ALCEU SIEBENBORN</t>
+          <t>CAMILA FERNANDA ZAMBIASI GARDINO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(51) 9525-5991</t>
+          <t>(54) 9697-7109</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -685,49 +669,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>66.52400000000043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1397.004</v>
+        <v>552</v>
       </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ALEXANDRE ALVES LAMPERT</t>
+          <t>ALCEU SIEBENBORN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ALEXANDRE ALVES LAMPERT</t>
+          <t>ALCEU SIEBENBORN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(51) 9733-5530</t>
+          <t>(51) 9525-5991</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -735,49 +715,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.01068702290076336</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>163.9107500000012</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3442.1258</v>
+        <v>815.6</v>
       </c>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ALTEMIR RICARDO DOS SANTOS ASSIS</t>
+          <t>ALDO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ALTEMIR RICARDO DOS SANTOS ASSIS</t>
+          <t>ALDO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(51) 9600-1186</t>
+          <t>(55) 8455-1893</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -785,18 +761,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>0</v>
       </c>
@@ -804,30 +772,34 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>449.075</v>
+        <v>162.6</v>
       </c>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANDRIELI ZUGEL DA SILVA SIMONINI</t>
+          <t>ALEXANDRE ALVES LAMPERT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ALEXANDRO SIMONINI</t>
+          <t>ALEXANDRE ALVES LAMPERT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(55) 9146-5777</t>
+          <t>(51) 9733-5530</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -835,49 +807,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.004301075268817204</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>95.73250000000068</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2010.3825</v>
+        <v>1315</v>
       </c>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ANGELA CRISTINA ZWAN</t>
+          <t>ALTEMIR RICARDO DOS SANTOS ASSIS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ANGELA CRISTINA ZWAN</t>
+          <t>ALTEMIR RICARDO DOS SANTOS ASSIS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>(55) 9656-9727</t>
+          <t>(51) 9600-1186</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -885,49 +853,49 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.01811594202898551</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.9963768115942029</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>49.04600000000031</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1029.966</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+        <v>24.75</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>#CLT</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>#CLT</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ANGELA MARIA MILAN</t>
+          <t>ANDRE LUIS GONCALVES MOREIRA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ANGELA MARIA MILAN</t>
+          <t>ANDRE LUIS GONCALVES MOREIRA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(54) 9610-1502</t>
+          <t>(31) 9928-8827</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -935,49 +903,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.003508771929824561</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.3625000000003</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1036.6125</v>
+        <v>1706.4</v>
       </c>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ANTONIO IVALDO LIRIO DE FREITAS</t>
+          <t>ANGELA CRISTINA ZWAN</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ANTONIO IVALDO LIRIO DE FREITAS</t>
+          <t>ANGELA CRISTINA ZWAN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(54) 9915-6690</t>
+          <t>(55) 9656-9727</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -985,18 +949,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.7725490196078432</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>0</v>
       </c>
@@ -1004,30 +960,34 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>795.6</v>
+        <v>1758</v>
       </c>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRUNO DUARTE VARGAS</t>
+          <t>ANGELA MARIA MILAN</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BRUNO DUARTE VARGAS</t>
+          <t>ANGELA MARIA MILAN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>(51) 9788-5876</t>
+          <t>(54) 9610-1502</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1035,49 +995,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.006856023506366308</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>454.892250000007</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>9552.737300000001</v>
+        <v>838.6</v>
       </c>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CAMILA FATIMA DOS SANTOS</t>
+          <t>ANTONIO IVALDO LIRIO DE FREITAS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CAMILA FATIMA DOS SANTOS</t>
+          <t>ANTONIO IVALDO LIRIO DE FREITAS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>(51) 9942-5104</t>
+          <t>(54) 9915-6690</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1085,49 +1041,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.006172839506172839</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>26.08625000000012</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>547.8113</v>
+        <v>210</v>
       </c>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CAMILA FERNANDA RECKZIEGEL</t>
+          <t>BRUNO DUARTE VARGAS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CAMILA FERNANDA RECKZIEGEL</t>
+          <t>BRUNO DUARTE VARGAS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>(55) 9710-6489</t>
+          <t>(51) 9788-5876</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1135,18 +1087,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.1466666666666667</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.8711111111111111</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>0</v>
       </c>
@@ -1154,30 +1098,34 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>690</v>
+        <v>5660.5</v>
       </c>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CARIN LUCELI WENDT</t>
+          <t>CAMILA FATIMA DOS SANTOS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CARIN LUCELI WENDT</t>
+          <t>CAMILA FATIMA DOS SANTOS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>(51) 9574-0589</t>
+          <t>(51) 9942-5104</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1185,49 +1133,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>11.65625000000002</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>244.7813</v>
+        <v>386.5</v>
       </c>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CARLOS ANDRE BECKER</t>
+          <t>CAMILA FERNANDA ZAMBIASI GARDINO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CARLOS ANDRE BECKER</t>
+          <t>CAMILA FERNANDA ZAMBIASI GARDINO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>(55) 8448-4094</t>
+          <t>(54) 9697-7109</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1235,18 +1179,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>0</v>
       </c>
@@ -1254,30 +1190,34 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>7.5</v>
+        <v>890.2</v>
       </c>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CARLOS AUGUSTO DUARTE</t>
+          <t>CARIN LUCELI WENDT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CARLOS AUGUSTO DUARTE</t>
+          <t>CARIN LUCELI WENDT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>(51) 9501-4308</t>
+          <t>(51) 9574-0589</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1285,49 +1225,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>5.580000000000008</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>117.18</v>
+        <v>194.4</v>
       </c>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CESAR AUGUSTO LUBIAN</t>
+          <t>CARLOS ANDRE BECKER</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CESAR AUGUSTO LUBIAN</t>
+          <t>CARLOS ANDRE BECKER</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>(54) 9674-9440</t>
+          <t>(55) 8448-4094</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1335,18 +1271,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.009478672985781991</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.9881516587677726</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>0</v>
       </c>
@@ -1354,30 +1282,34 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1272</v>
+        <v>28.5</v>
       </c>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CINTIA ANSCHAU</t>
+          <t>CARLOS AUGUSTO DUARTE</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GIOVANI VIGOLO</t>
+          <t>CARLOS AUGUSTO DUARTE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>(51) 9700-3386</t>
+          <t>(51) 9501-4308</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1385,49 +1317,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0196078431372549</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>17.70499999999998</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>371.805</v>
+        <v>244</v>
       </c>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CLAUDIO JOSE DA ROCHA REHBEIN</t>
+          <t>CARLOS CAETANO STIEGELMEIER</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CLAUDIO JOSE DA ROCHA REHBEIN</t>
+          <t>CARLOS CAETANO STIEGELMEIER</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>(51) 8574-5657</t>
+          <t>(55) 9654-2473</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1435,49 +1363,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>16.06250000000002</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>337.3125</v>
+        <v>611.4</v>
       </c>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CRISTIANO GUNSCH</t>
+          <t>CESAR AUGUSTO DA VEIGA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CRISTIANO GUNSCH</t>
+          <t>CESAR AUGUSTO DA VEIGA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>(55) 8423-2725</t>
+          <t>(55) 9672-5675</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1485,18 +1409,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.6391304347826087</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>0</v>
       </c>
@@ -1504,30 +1420,34 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>673.2</v>
+        <v>242.8</v>
       </c>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CRISTIANO SILVA DA SILVA</t>
+          <t>CESAR AUGUSTO LUBIAN</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CRISTIANO SILVA DA SILVA</t>
+          <t>CESAR AUGUSTO LUBIAN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>(51) 8057-2670</t>
+          <t>(54) 9674-9440</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1535,49 +1455,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.01015228426395939</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.06250000000009</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>715.3125</v>
+        <v>1476.2</v>
       </c>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DANIEL LONGHI BERNARDES</t>
+          <t>CINTIA ANSCHAU</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DANIEL LONGHI BERNARDES</t>
+          <t>GIOVANI VIGOLO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>(54) 9673-2876</t>
+          <t>(51) 9700-3386</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1585,18 +1501,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.01601423487544484</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.9448398576512456</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>0</v>
       </c>
@@ -1604,30 +1512,34 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1691</v>
+        <v>269.4</v>
       </c>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DARLAN SCHUSTER</t>
+          <t>CLAUDIO JOSE DA ROCHA REHBEIN</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DARLAN SCHUSTER</t>
+          <t>CLAUDIO JOSE DA ROCHA REHBEIN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>(51) 9541-2725</t>
+          <t>(51) 8574-5657</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1635,49 +1547,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.001919385796545105</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>99.45000000000087</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>2088.45</v>
+        <v>1086.9</v>
       </c>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DIEGO SEVERO DA SILVA</t>
+          <t>CRISTIANO GUNSCH</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DIEGO SEVERO DA SILVA</t>
+          <t>CRISTIANO GUNSCH</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>(51) 9976-6581</t>
+          <t>(55) 8423-2725</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1685,18 +1593,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.1904761904761905</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>0</v>
       </c>
@@ -1704,26 +1604,34 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>44</v>
+        <v>303.6</v>
       </c>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DILEIA LEAL FONSECA</t>
+          <t>CRISTIANO SILVA DA SILVA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DILEIA LEAL FONSECA</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>CRISTIANO SILVA DA SILVA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>(51) 8057-2670</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1731,18 +1639,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>0</v>
       </c>
@@ -1750,30 +1650,34 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>66</v>
+        <v>369.4</v>
       </c>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DORCELIDE RODRIGUES</t>
+          <t>DANIEL LONGHI BERNARDES</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DORCELIDE RODRIGUES</t>
+          <t>DANIEL LONGHI BERNARDES</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>(54) 9671-6418</t>
+          <t>(54) 9673-2876</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1781,45 +1685,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.0076103500761035</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.9984779299847792</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>114.3375000000004</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>2401.0875</v>
+        <v>1505.6</v>
       </c>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EDSON MATEUS CARVALHO</t>
+          <t>DANRLEI DOS SANTOS DE VARGAS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>DANRLEI DOS SANTOS DE VARGAS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>(55) 9701-3353</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1827,18 +1731,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>0</v>
       </c>
@@ -1846,38 +1742,34 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>41</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>#FAKE</t>
-        </is>
-      </c>
+        <v>96.40000000000001</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>#FAKE</t>
+          <t>NÃO ENCONTRADO</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EDUARDO AIRES DOS SANTOS</t>
+          <t>DARLAN SCHUSTER</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>EDUARDO AIRES DOS SANTOS</t>
+          <t>DARLAN SCHUSTER</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>(54) 8167-6827</t>
+          <t>(51) 9541-2725</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1885,18 +1777,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.9579439252336449</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>0</v>
       </c>
@@ -1904,30 +1788,34 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>591.6</v>
+        <v>1381</v>
       </c>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EDUARDO GUEDES MORO</t>
+          <t>DIEGO OLIVEIRA CUNHA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>EDUARDO GUEDES MORO</t>
+          <t>DIEGO OLIVEIRA CUNHA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>(54) 9684-8850</t>
+          <t>(51) 8484-9536</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1935,53 +1823,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.0078125</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>44.31000000000022</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>930.51</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>#BLOQ PREVENTIVO</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>106.4</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EDUARDO SCHMACHTENBERG</t>
+          <t>DILEIA LEAL FONSECA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>EDUARDO SCHMACHTENBERG</t>
+          <t>DILEIA LEAL FONSECA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>(51) 9750-2464</t>
+          <t>(51) 9755-5903</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1989,49 +1869,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.002544529262086514</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>63.5831249999999</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1335.2456</v>
+        <v>56.7</v>
       </c>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ELISIANE REISNER</t>
+          <t>DORCELIDE RODRIGUES</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ELISIANE REISNER</t>
+          <t>DORCELIDE RODRIGUES</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>(54) 9904-5930</t>
+          <t>(54) 9671-6418</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2039,18 +1915,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.007067137809187279</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.9222614840989399</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>0</v>
       </c>
@@ -2058,30 +1926,30 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>858</v>
+        <v>1950.8</v>
       </c>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ELTON JUNIOR DOS SANTOS GARCIA</t>
+          <t>EDSON MATEUS CARVALHO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ELTON JUNIOR DOS SANTOS GARCIA</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>(55) 9257-7171</t>
-        </is>
-      </c>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2089,18 +1957,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.0586145648312611</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>0</v>
       </c>
@@ -2108,30 +1968,38 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1736.4</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>#FAKE</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>#FAKE</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EMERSON LUIS SOARES</t>
+          <t>EDUARDO AIRES DOS SANTOS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EMERSON LUIS SOARES</t>
+          <t>EDUARDO AIRES DOS SANTOS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>(51) 9871-2338</t>
+          <t>(54) 8167-6827</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2139,18 +2007,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.02054794520547945</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>0</v>
       </c>
@@ -2158,30 +2018,34 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>470.4</v>
+        <v>646.8</v>
       </c>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EVANDRO SOUZA DE OLIVEIRA</t>
+          <t>EDUARDO SCHMACHTENBERG</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EVANDRO SOUZA DE OLIVEIRA</t>
+          <t>EDUARDO SCHMACHTENBERG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>(51) 9691-1472</t>
+          <t>(51) 9750-2464</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2189,18 +2053,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.006329113924050633</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.9936708860759493</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>0</v>
       </c>
@@ -2208,30 +2064,34 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>511.6</v>
+        <v>1103.2</v>
       </c>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FABIO AUGUSTO MATICOLLI LOPES</t>
+          <t>ELISIANE REISNER</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FABIO AUGUSTO MATICOLLI LOPES</t>
+          <t>ELISIANE REISNER</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>(51) 9918-9541</t>
+          <t>(54) 9904-5930</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2239,49 +2099,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.01007194244604316</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>123.0640000000002</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>2584.344</v>
+        <v>494.8</v>
       </c>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FELIPE AMARAL DA COSTA</t>
+          <t>EMERSON LUIS SOARES</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MOISES EDEGAR CAVALHEIRO</t>
+          <t>EMERSON LUIS SOARES</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>(54) 9707-1626</t>
+          <t>(51) 9871-2338</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2289,18 +2145,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.9926108374384236</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>0</v>
       </c>
@@ -2308,30 +2156,34 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1241</v>
+        <v>667</v>
       </c>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FELIPE EMBARACH OLIVEIRA</t>
+          <t>ERNI ANTONIO MENEGAZZI</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FELIPE EMBARACH OLIVEIRA</t>
+          <t>ERNI ANTONIO MENEGAZZI</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>(54) 9663-8830</t>
+          <t>(55) 9623-0252</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2339,18 +2191,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.1946308724832215</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.9865771812080537</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>0</v>
       </c>
@@ -2358,30 +2202,34 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>602</v>
+        <v>18</v>
       </c>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>#SEM VALOR</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FERNANDO BATISTA DE ANDRADE</t>
+          <t>EVANDRO SOUZA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FERNANDO BATISTA DE ANDRADE</t>
+          <t>EVANDRO SOUZA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>(51) 9677-6313</t>
+          <t>(51) 9691-1472</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2389,18 +2237,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.1235955056179775</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>0</v>
       </c>
@@ -2408,30 +2248,34 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1341.6</v>
+        <v>620.8</v>
       </c>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FERNANDO BONDAN</t>
+          <t>EVERTON DE MACEDO RIBEIRO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FERNANDO BONDAN</t>
+          <t>EVERTON DE MACEDO RIBEIRO</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>(54) 9961-8533</t>
+          <t>(54) 8436-7053</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2439,18 +2283,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.005825242718446602</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.974757281553398</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>0</v>
       </c>
@@ -2458,30 +2294,34 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1531.8</v>
+        <v>31</v>
       </c>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>#SEM VALOR</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FLAVIO LUIS KUTSCHER</t>
+          <t>FABIO AUGUSTO MATICOLLI LOPES</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ONI VARGAS KUTSCHER</t>
+          <t>FABIO AUGUSTO MATICOLLI LOPES</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>(55) 8128-6038</t>
+          <t>(51) 9918-9541</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2489,18 +2329,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>0</v>
       </c>
@@ -2508,30 +2340,34 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1505.2</v>
+        <v>1926.8</v>
       </c>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GABRIEL DUARTE MACHADO</t>
+          <t>FELIPE AMARAL DA COSTA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GABRIEL DUARTE MACHADO</t>
+          <t>MOISES EDEGAR CAVALHEIRO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>(55) 9205-5778</t>
+          <t>(54) 9707-1626</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2539,18 +2375,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.0302013422818792</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.9966442953020134</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>0</v>
       </c>
@@ -2558,30 +2386,34 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>847.8</v>
+        <v>1246.2</v>
       </c>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GELSON GAUTO DOS SANTOS</t>
+          <t>FERNANDO BATISTA DE ANDRADE</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GELSON GAUTO DOS SANTOS</t>
+          <t>FERNANDO BATISTA DE ANDRADE</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>(51) 8410-7705</t>
+          <t>(51) 9677-6313</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2589,49 +2421,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.65937500000009</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>517.8469</v>
+        <v>147.9</v>
       </c>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GERCEI MOURA DE ALMEIDA</t>
+          <t>FERNANDO BONDAN</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GERCEI MOURA DE ALMEIDA</t>
+          <t>FERNANDO BONDAN</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>(51) 9958-3144</t>
+          <t>(54) 9961-8533</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2639,49 +2467,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.01661129568106312</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>57.28399999999989</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1202.964</v>
+        <v>1016.8</v>
       </c>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>GERSON JAIR WOJAHN</t>
+          <t>FLAVIO LUIS KUTSCHER</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GERSON JAIR WOJAHN</t>
+          <t>FLAVIO LUIS KUTSCHER</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>(51) 9655-6882</t>
+          <t>(55) 8116-4878</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2689,18 +2513,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>0</v>
       </c>
@@ -2708,30 +2524,34 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>95</v>
+        <v>1835</v>
       </c>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>GILMAR BENCKE</t>
+          <t>GABRIEL DUARTE MACHADO</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GILMAR BENCKE</t>
+          <t>GABRIEL DUARTE MACHADO</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>(55) 9990-2953</t>
+          <t>(55) 9205-5778</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2739,49 +2559,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>42.22750000000005</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>886.7775</v>
+        <v>892.4</v>
       </c>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>GILMAR SOARES BRASIL</t>
+          <t>GABRIEL WEIDLE MARTINS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GILMAR SOARES BRASIL</t>
+          <t>GABRIEL WEIDLE MARTINS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>(51) 9533-4288</t>
+          <t>(51) 9206-7679</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2789,18 +2605,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>0</v>
       </c>
@@ -2808,30 +2616,34 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>142.7</v>
+        <v>366.8</v>
       </c>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>#SEM VALOR</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>GIORDANI JACOMINI</t>
+          <t>GELSON GAUTO DOS SANTOS</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>RODRIGO ZANDONA</t>
+          <t>GELSON GAUTO DOS SANTOS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>(54) 9616-9421</t>
+          <t>(51) 8410-7705</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2839,18 +2651,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.01477832512315271</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.9548440065681445</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>0</v>
       </c>
@@ -2858,30 +2662,34 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>3715.8</v>
+        <v>764.4</v>
       </c>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GUSTAVO FONSECA DOS SANTOS</t>
+          <t>GERCEI MOURA DE ALMEIDA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GUSTAVO FONSECA DOS SANTOS</t>
+          <t>GERCEI MOURA DE ALMEIDA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>(55) 9647-1296</t>
+          <t>(51) 9958-3144</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2889,18 +2697,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.9696969696969697</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>0</v>
       </c>
@@ -2908,30 +2708,34 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>84.5</v>
+        <v>1506</v>
       </c>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GUSTAVO LODI TONIAL</t>
+          <t>GERSON JAIR WOJAHN</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GUSTAVO LODI TONIAL</t>
+          <t>GERSON JAIR WOJAHN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>(54) 9988-5962</t>
+          <t>(51) 9655-6882</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2939,18 +2743,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.07066052227342549</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.9254992319508448</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>0</v>
       </c>
@@ -2958,30 +2754,34 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>4099</v>
+        <v>58.2</v>
       </c>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HELEN NICHOLA LEWIS</t>
+          <t>GILMAR BENCKE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>HELEN NICHOLA LEWIS</t>
+          <t>GILMAR BENCKE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>(51) 9704-7787</t>
+          <t>(55) 9990-2953</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2989,18 +2789,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.004672897196261682</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.9906542056074766</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>0</v>
       </c>
@@ -3008,30 +2800,34 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>603.9</v>
+        <v>719.3</v>
       </c>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>IRANI BAHRY</t>
+          <t>GILMAR SOARES BRASIL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>IRANI BAHRY</t>
+          <t>GILMAR SOARES BRASIL</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>(55) 9908-8847</t>
+          <t>(51) 9533-4288</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3039,49 +2835,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>19.94575000000004</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>418.8608</v>
+        <v>197.4</v>
       </c>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>IVAN NUNES</t>
+          <t>GILNEI DE PAULA MACHADO</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>IVAN NUNES</t>
+          <t>ALISSON ROGERIO ANTUNES DA SILVA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>(54) 8421-0988</t>
+          <t>(55) 9116-5125</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3089,49 +2881,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>47.43000000000021</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>996.03</v>
+        <v>36</v>
       </c>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>JADIEL FERREIRA COUTINHO</t>
+          <t>GIORDANI JACOMINI</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>JADIEL FERREIRA COUTINHO</t>
+          <t>RODRIGO ZANDONA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>(54) 9189-5970</t>
+          <t>(54) 9616-9421</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3139,24 +2927,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Não apto</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Não apto</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Não apto</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>0</v>
       </c>
@@ -3164,30 +2938,34 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>160.5</v>
+        <v>2675.6</v>
       </c>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>JAIR JOSE NAGL</t>
+          <t>GIOVANNYS ANTONIO ARREAZA TRILLO</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>JAIR JOSE NAGL</t>
+          <t>GIOVANNYS ANTONIO ARREAZA TRILLO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>(55) 9154-5702</t>
+          <t>(54) 9647-8962</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3195,18 +2973,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.9642857142857143</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>0</v>
       </c>
@@ -3214,30 +2984,34 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>150</v>
+        <v>832.2</v>
       </c>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>JANAINA DOS SANTOS MATTOS</t>
+          <t>GUILHERME FRANCISCO TOBIAS NETO</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>JANAINA DOS SANTOS MATTOS</t>
+          <t>GUILHERME FRANCISCO TOBIAS NETO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>(55) 9942-3350</t>
+          <t>(55) 9952-3563</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3245,18 +3019,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.04887218045112782</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.868421052631579</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>0</v>
       </c>
@@ -3264,30 +3030,34 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>562.4</v>
+        <v>60.5</v>
       </c>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>JEAN MARCOS BARBOSA</t>
+          <t>GUSTAVO FONSECA DOS SANTOS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>JEAN MARCOS BARBOSA</t>
+          <t>GUSTAVO FONSECA DOS SANTOS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>(54) 9113-7808</t>
+          <t>(55) 9647-1296</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3295,18 +3065,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>0</v>
       </c>
@@ -3314,30 +3076,34 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>42</v>
+        <v>71.2</v>
       </c>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>JOAO LUIS PAZ</t>
+          <t>HELEN NICHOLA LEWIS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>JOAO LUIS PAZ</t>
+          <t>HELEN NICHOLA LEWIS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>(51) 8039-0893</t>
+          <t>(51) 9704-7787</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3345,18 +3111,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.9411764705882353</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>0</v>
       </c>
@@ -3364,30 +3122,34 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>141.5</v>
+        <v>899.2</v>
       </c>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>JOICE LUIZA LIMA GOHTEN MALEICO</t>
+          <t>IRANI BAHRY</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GUILHERME ALF</t>
+          <t>IRANI BAHRY</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>(55) 9900-7108</t>
+          <t>(55) 9908-8847</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3395,49 +3157,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.01393728222996516</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>42.40625000000004</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>890.5313</v>
+        <v>462.9</v>
       </c>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>JORGE LEANDRO DOS SANTOS</t>
+          <t>IVAN NUNES</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>JORGE LEANDRO DOS SANTOS</t>
+          <t>IVAN NUNES</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>(55) 9647-9058</t>
+          <t>(54) 8421-0988</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3445,49 +3203,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F60" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>4.137500000000004</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>86.8875</v>
+        <v>841</v>
       </c>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO DA SILVA COELHO</t>
+          <t>JADIEL FERREIRA COUTINHO</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO DA SILVA COELHO</t>
+          <t>JADIEL FERREIRA COUTINHO</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>(51) 8129-6742</t>
+          <t>(54) 9189-5970</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3495,18 +3249,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.9556451612903226</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>0</v>
       </c>
@@ -3514,30 +3260,34 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>1131.6</v>
+        <v>112.2</v>
       </c>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO SILVA DE FREITAS</t>
+          <t>JAIR JOSE NAGL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO SILVA DE FREITAS</t>
+          <t>JAIR JOSE NAGL</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>(51) 9538-2750</t>
+          <t>(55) 9154-5702</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3545,18 +3295,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>0</v>
       </c>
@@ -3564,30 +3306,34 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>569</v>
+        <v>168</v>
       </c>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>JOSE CELSO MOURA KLATTE</t>
+          <t>JANADARA SILVEIRA AGUIAR</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>JOSE CELSO MOURA KLATTE</t>
+          <t>JANADARA SILVEIRA AGUIAR</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>(51) 9823-4708</t>
+          <t>(55) 8165-9919</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3595,49 +3341,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F63" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.002173913043478261</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>91.32750000000061</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>1917.8775</v>
+        <v>1086.4</v>
       </c>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>NÃO ENCONTRADO</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>JULIANO DA SILVA</t>
+          <t>JOICE LUIZA LIMA GOHTEN MALEICO</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>JULIANO DA SILVA</t>
+          <t>GUILHERME ALF</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>(54) 9189-0475</t>
+          <t>(55) 9900-7108</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3645,18 +3387,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F64" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.04910714285714286</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.9821428571428571</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>0</v>
       </c>
@@ -3664,30 +3398,34 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>687</v>
+        <v>609.4</v>
       </c>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>LISLEI MACHADO STURMER</t>
+          <t>JORGE LEANDRO DOS SANTOS</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>RENIR ANTONIO STURMER</t>
+          <t>JORGE LEANDRO DOS SANTOS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>(54) 9915-2194</t>
+          <t>(55) 9647-9058</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3695,18 +3433,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F65" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.872</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>0</v>
       </c>
@@ -3714,34 +3444,34 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>511.2</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>#BLOQ PREVENTIVO</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
+          <t>JOSE ANTONIO DA SILVA COELHO</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
+          <t>JOSE ANTONIO DA SILVA COELHO</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>(55) 8127-3166</t>
+          <t>(51) 8129-6742</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3749,49 +3479,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.004545454545454545</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>39.46000000000017</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>828.66</v>
+        <v>1481.1</v>
       </c>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MARCELO ADRIANO PAZ</t>
+          <t>JOSE AUGUSTO DA SILVA PAZ</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MARCELO ADRIANO PAZ</t>
+          <t>JOSE AUGUSTO DA SILVA PAZ</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>(55) 8166-4057</t>
+          <t>(54) 9240-3181</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3799,18 +3525,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.02737226277372263</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.9981751824817519</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>0</v>
       </c>
@@ -3818,30 +3536,34 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>1769</v>
+        <v>61</v>
       </c>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>#SEM VALOR</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
+          <t>JOSE CELSO MOURA KLATTE</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
+          <t>JOSE CELSO MOURA KLATTE</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>(51) 9933-4806</t>
+          <t>(51) 9823-4708</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3849,18 +3571,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>0</v>
       </c>
@@ -3868,30 +3582,34 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>1012.6</v>
+        <v>1894.6</v>
       </c>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MARINO MARTINS</t>
+          <t>JOSUE MARTINS BASTOS</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MARINO MARTINS</t>
+          <t>JOSUE MARTINS BASTOS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>(55) 9677-0726</t>
+          <t>(51) 9615-6048</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3899,49 +3617,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F69" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1.437500000000001</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>30.1875</v>
+        <v>186.8</v>
       </c>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MARIO JORGE FARIAS MACHADO</t>
+          <t>JULIANO DA SILVA</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MARIO JORGE FARIAS MACHADO</t>
+          <t>JULIANO DA SILVA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>(55) 9152-2471</t>
+          <t>(54) 9189-0475</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3949,18 +3663,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F70" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.03125</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.53125</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>0</v>
       </c>
@@ -3968,30 +3674,34 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>100</v>
+        <v>1263.2</v>
       </c>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MATEUS BERWALDT</t>
+          <t>LEONARDO DOMINGUES</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MATEUS BERWALDT</t>
+          <t>LEONARDO DOMINGUES</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>(51) 9145-1420</t>
+          <t>(55) 9653-1689</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3999,49 +3709,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F71" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>10.66000000000001</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>223.86</v>
+        <v>72.8</v>
       </c>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>#SEM VALOR</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MATHEUS JOSE MORAES</t>
+          <t>LISLEI MACHADO STURMER</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MATHEUS JOSE MORAES</t>
+          <t>RENIR ANTONIO STURMER</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>(54) 9672-8954</t>
+          <t>(54) 9915-2194</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4049,18 +3755,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.03884711779448621</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.8496240601503759</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>0</v>
       </c>
@@ -4068,26 +3766,38 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>2422.6</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+        <v>542.2</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>#BLOQ PREVENTIVO</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>#BLOQ PREVENTIVO</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MAURI JOSE JUSTEN</t>
+          <t>LUANA SILVA KONZEN</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MAURI JOSE JUSTEN</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+          <t>LUANA SILVA KONZEN</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>(51) 9948-2883</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4095,49 +3805,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F73" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>2.300000000000002</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>48.3</v>
+        <v>65.2</v>
       </c>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MICHAEL DOUGLAS GONCALVES</t>
+          <t>LUCAS DOS SANTOS</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MICHAEL DOUGLAS GONCALVES</t>
+          <t>LUCAS DOS SANTOS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>(54) 9944-0199</t>
+          <t>(51) 9634-6092</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4145,18 +3851,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F74" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.8563218390804598</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>0</v>
       </c>
@@ -4164,30 +3862,34 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>834</v>
+        <v>1017.1</v>
       </c>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MILLENA GONCALVES DA SILVA</t>
+          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MILLENA GONCALVES DA SILVA</t>
+          <t>MARCELI TERESINHA KLASSMANN DAHMER</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>(54) 9117-7186</t>
+          <t>(55) 8127-3166</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4195,45 +3897,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.007194244604316547</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.9982014388489209</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>96.61000000000095</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>2028.81</v>
+        <v>884.4</v>
       </c>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NERI MALMANN BAGESTAO</t>
+          <t>MARCELO BESKOW</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NERI MALMANN BAGESTAO</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
+          <t>MARCELO BESKOW</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>(51) 9781-5956</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4241,49 +3943,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F76" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>9.306250000000007</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>195.4313</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NILTON LUIZ LINHARES DA SILVEIRA</t>
+          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NILTON LUIZ LINHARES DA SILVEIRA</t>
+          <t>MARIANE ROBERTA ASSIS GONCALVES</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>(51) 9824-9764</t>
+          <t>(51) 9933-4806</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4291,18 +3989,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.02010050251256281</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>0</v>
       </c>
@@ -4310,30 +4000,34 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>598</v>
+        <v>205</v>
       </c>
       <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NOENDER BERNARDES DOS SANTOS</t>
+          <t>MARINO MARTINS</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NOENDER BERNARDES DOS SANTOS</t>
+          <t>MARINO MARTINS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>(51) 9576-3887</t>
+          <t>(55) 9677-0726</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4341,49 +4035,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.015625</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>12.53399999999999</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>263.214</v>
+        <v>54</v>
       </c>
       <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ORLEI MOREIRA DE LEMOS</t>
+          <t>MARIO JORGE FARIAS MACHADO</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ORLEI MOREIRA DE LEMOS</t>
+          <t>MARIO JORGE FARIAS MACHADO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>(67) 9840-5942</t>
+          <t>(55) 9152-2471</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4391,49 +4081,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>52.36500000000031</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>1099.665</v>
+        <v>112.2</v>
       </c>
       <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PATRICK DOS SANTOS LIMA</t>
+          <t>MATHEUS CUNHA NOGUEIRA</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PATRICK DOS SANTOS LIMA</t>
+          <t>MATHEUS CUNHA NOGUEIRA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>(54) 9102-4605</t>
+          <t>(51) 9774-5695</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4441,18 +4127,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F80" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.0328719723183391</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.9982698961937716</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>0</v>
       </c>
@@ -4460,30 +4138,34 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>1760</v>
+        <v>532.9</v>
       </c>
       <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RAFAEL LORENA MORAIS</t>
+          <t>MATHEUS JOSE MORAES</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>RAFAEL LORENA MORAIS</t>
+          <t>MATHEUS JOSE MORAES</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>(54) 9216-9656</t>
+          <t>(54) 9672-8954</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4491,18 +4173,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>0</v>
       </c>
@@ -4510,30 +4184,34 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>842</v>
+        <v>2214</v>
       </c>
       <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>RICARDO DA SILVA HARTMANN</t>
+          <t>MAURI JOSE JUSTEN</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>RICARDO DA SILVA HARTMANN</t>
+          <t>MAURI JOSE JUSTEN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>(51) 9898-7460</t>
+          <t>(55) 9991-9176</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4541,49 +4219,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F82" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.005089058524173028</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.9974554707379135</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>68.24250000000056</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>1433.0925</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ROMI JOSE PAIM JACQUES</t>
+          <t>MICHAEL DOUGLAS GONCALVES</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ROMI JOSE PAIM JACQUES</t>
+          <t>MICHAEL DOUGLAS GONCALVES</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>(54) 9676-4696</t>
+          <t>(54) 9944-0199</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4591,49 +4265,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F83" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.0121580547112462</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>58.51750000000035</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>1228.8675</v>
+        <v>600</v>
       </c>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ROSANA ELIZABETE RESCKE</t>
+          <t>MILLENA GONCALVES DA SILVA</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ROSANA ELIZABETE RESCKE</t>
+          <t>MILLENA GONCALVES DA SILVA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>(54) 9990-4345</t>
+          <t>(54) 9117-7186</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4641,18 +4311,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.002785515320334262</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.9610027855153204</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>0</v>
       </c>
@@ -4660,30 +4322,34 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>1076</v>
+        <v>1554.4</v>
       </c>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SANDRO BUENO</t>
+          <t>NELSON SUCHEK</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SANDRO BUENO</t>
+          <t>NELSON SUCHEK</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>(55) 9916-5230</t>
+          <t>(54) 8411-2671</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4691,18 +4357,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.06547619047619048</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>0</v>
       </c>
@@ -4710,30 +4368,34 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>519.8</v>
+        <v>1305.6</v>
       </c>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SIDNEI ARAUJO DA COSTA</t>
+          <t>NERI MALMANN BAGESTAO</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SIDNEI ARAUJO DA COSTA</t>
+          <t>NERI MALMANN BAGESTAO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>(55) 9195-0030</t>
+          <t>(55) 9171-5366</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4741,49 +4403,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.01977401129943503</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.9971751412429378</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>68.43250000000043</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>1437.0825</v>
+        <v>274.4</v>
       </c>
       <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SIDNEI LUIZ WOLLMANN</t>
+          <t>PATRICK DOS SANTOS LIMA</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SIDNEI LUIZ WOLLMANN</t>
+          <t>PATRICK DOS SANTOS LIMA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>(51) 9968-1420</t>
+          <t>(54) 9102-4605</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4791,49 +4449,45 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F87" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.005780346820809248</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>26.15875000000003</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>549.3338</v>
+        <v>1951</v>
       </c>
       <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SIDNEI OLIVEIRA DA SILVA</t>
+          <t>RICARDO DA SILVA HARTMANN</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SIDNEI OLIVEIRA DA SILVA</t>
+          <t>RICARDO DA SILVA HARTMANN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>(51) 9600-9683</t>
+          <t>(51) 9898-7460</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4841,18 +4495,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F88" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.003058103975535168</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.9785932721712538</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>0</v>
       </c>
@@ -4860,30 +4506,34 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>1036</v>
+        <v>1073</v>
       </c>
       <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SILVANA HEINEN</t>
+          <t>ROBERTO BAGGIO</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SILVANA HEINEN</t>
+          <t>ROBERTO BAGGIO</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>(51) 9968-0775</t>
+          <t>(55) 9709-3625</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4891,18 +4541,10 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F89" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.006172839506172839</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.9876543209876543</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>0</v>
       </c>
@@ -4910,30 +4552,34 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>1413.55</v>
+        <v>67.3</v>
       </c>
       <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>VINICIUS SIQUEIRA</t>
+          <t>RODRIGO SIQUEIRA DE SOUZA</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>VINICIUS SIQUEIRA</t>
+          <t>RODRIGO SIQUEIRA DE SOUZA</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>(54) 9977-0063</t>
+          <t>(54) 9903-9758</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>PFD</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4941,79 +4587,531 @@
           <t>NOME</t>
         </is>
       </c>
-      <c r="F90" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.001941747572815534</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>98.88750000000086</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>2076.6375</v>
+        <v>0</v>
       </c>
       <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>ROMI JOSE PAIM JACQUES</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ROMI JOSE PAIM JACQUES</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>(54) 9676-4696</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1575</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ROSINEI WIEDEMANN GRAUPE</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ROSINEI WIEDEMANN GRAUPE</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>(55) 9997-9445</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>15</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>#SEM VALOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SANDRO BUENO</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SANDRO BUENO</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>(55) 9916-5230</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>797.6</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>SIDNEI ARAUJO DA COSTA</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SIDNEI ARAUJO DA COSTA</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>(55) 9195-0030</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1953.8</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SIDNEI LUIZ WOLLMANN</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SIDNEI LUIZ WOLLMANN</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>(51) 9968-1420</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>475.5</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SIDNEI OLIVEIRA DA SILVA</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SIDNEI OLIVEIRA DA SILVA</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>(51) 9600-9683</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>392.2</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>SILVANA HEINEN</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>SILVANA HEINEN</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>(51) 9968-0775</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1685.45</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>TALUSA STADTLOBER</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TALUSA STADTLOBER</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>(55) 9196-7909</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>#SEM VALOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>TIAGO DE ALMEIDA</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>TIAGO DE ALMEIDA</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>(59) 9661-5848</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>VINICIUS SIQUEIRA</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>VINICIUS SIQUEIRA</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>(54) 9977-0063</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2603.6</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
           <t>WESLEY POSSOBOM AQUINO</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>WESLEY POSSOBOM AQUINO</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>(55) 9136-2797</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Passo Fundo</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>NOME</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.0136986301369863</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="n">
-        <v>101.0375000000007</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2121.7875</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>PFD</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2318.8</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>#ENVIADO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Relatorios/ENVIOS.xlsx
+++ b/Relatorios/ENVIOS.xlsx
@@ -1747,7 +1747,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>NÃO ENCONTRADO</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>NÃO ENCONTRADO</t>
+          <t>#ENVIADO</t>
         </is>
       </c>
     </row>
